--- a/public/week_data.xlsx
+++ b/public/week_data.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
   <si>
-    <t>2022-11-10 01:39:54</t>
+    <t>2022-11-10 02:09:07</t>
   </si>
   <si>
     <t>COBROS EN LOS PRÓXIMOS 7 DÍAS</t>
@@ -260,15 +260,15 @@
     <t>ROBERT PABLO SANCHEZ TAPIA</t>
   </si>
   <si>
+    <t>GONZALO ANTEZANO RAMOS</t>
+  </si>
+  <si>
     <t>2022-05-17</t>
   </si>
   <si>
     <t>MARIA MAYDA TITIZANO JEREZ</t>
   </si>
   <si>
-    <t>GONZALO ANTEZANO RAMOS</t>
-  </si>
-  <si>
     <t>2022-05-18</t>
   </si>
   <si>
@@ -317,12 +317,12 @@
     <t>2022-06-15</t>
   </si>
   <si>
+    <t>JHONNY GABRIEL ONTIVEROS RASGUIDO</t>
+  </si>
+  <si>
     <t>2022-06-16</t>
   </si>
   <si>
-    <t>JHONNY GABRIEL ONTIVEROS RASGUIDO</t>
-  </si>
-  <si>
     <t>2022-06-17</t>
   </si>
   <si>
@@ -338,12 +338,12 @@
     <t>2022-06-27</t>
   </si>
   <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
     <t>LUIS ALFREDO CHOQUE REYNOSO</t>
   </si>
   <si>
-    <t>2022-06-28</t>
-  </si>
-  <si>
     <t>JESUS CASTILLO CASTRO</t>
   </si>
   <si>
@@ -449,12 +449,12 @@
     <t>2022-08-01</t>
   </si>
   <si>
+    <t>2022-08-02</t>
+  </si>
+  <si>
     <t>ELIANA ELIZABETH PACHECO CHOQUE</t>
   </si>
   <si>
-    <t>2022-08-02</t>
-  </si>
-  <si>
     <t>2022-08-03</t>
   </si>
   <si>
@@ -554,12 +554,12 @@
     <t>2022-09-05</t>
   </si>
   <si>
+    <t>2022-09-06</t>
+  </si>
+  <si>
     <t>FIDEL FALON GALEAN</t>
   </si>
   <si>
-    <t>2022-09-06</t>
-  </si>
-  <si>
     <t>2022-09-07</t>
   </si>
   <si>
@@ -662,12 +662,12 @@
     <t>2022-10-03</t>
   </si>
   <si>
+    <t>2022-10-04</t>
+  </si>
+  <si>
     <t>BERTHA CUEVAS FLORES</t>
   </si>
   <si>
-    <t>2022-10-04</t>
-  </si>
-  <si>
     <t>MARIA JOSE FLORES TORREZ</t>
   </si>
   <si>
@@ -707,21 +707,21 @@
     <t>2022-10-10</t>
   </si>
   <si>
+    <t>2022-10-11</t>
+  </si>
+  <si>
     <t>KATHIA BELEN RAMIREZ QUISPE</t>
   </si>
   <si>
     <t>ING. RUSSETT RODRIGUEZ VELIZ</t>
   </si>
   <si>
-    <t>2022-10-11</t>
+    <t>MARIANA NOEMI RIOS MENDOZA</t>
   </si>
   <si>
     <t>2022-10-12</t>
   </si>
   <si>
-    <t>MARIANA NOEMI RIOS MENDOZA</t>
-  </si>
-  <si>
     <t>2022-10-13</t>
   </si>
   <si>
@@ -731,18 +731,18 @@
     <t>2022-10-15</t>
   </si>
   <si>
+    <t>CARLA CAROLA RODRIGUEZ SOTOMAYOR</t>
+  </si>
+  <si>
     <t>VICTOR EMERSON CARTAGENA CASTRO</t>
   </si>
   <si>
-    <t>CARLA CAROLA RODRIGUEZ SOTOMAYOR</t>
+    <t>2022-10-17</t>
   </si>
   <si>
     <t>HILDA ELVA CASTRILLO PIZARRO VDA. DE GAMBARTE</t>
   </si>
   <si>
-    <t>2022-10-17</t>
-  </si>
-  <si>
     <t>MARISOL DANIELA RAMOS</t>
   </si>
   <si>
@@ -773,15 +773,15 @@
     <t>SANTOS RODOLFO FERNANDEZ CHAUQUE</t>
   </si>
   <si>
+    <t>2022-10-21</t>
+  </si>
+  <si>
+    <t>RUTH MARIBEL ANDRADE ZAPATA</t>
+  </si>
+  <si>
     <t>FIDEL FABIAN GARECA ACOSTA</t>
   </si>
   <si>
-    <t>2022-10-21</t>
-  </si>
-  <si>
-    <t>RUTH MARIBEL ANDRADE ZAPATA</t>
-  </si>
-  <si>
     <t>RENE COLQUECHAMBI FLORES</t>
   </si>
   <si>
@@ -797,36 +797,39 @@
     <t>2022-10-25</t>
   </si>
   <si>
+    <t>JAQUELINE TEODORA MAULLCU CONDORI</t>
+  </si>
+  <si>
     <t>MARIA DEL ROSARIO RIOS VALDEZ</t>
   </si>
   <si>
-    <t>JAQUELINE TEODORA MAULLCU CONDORI</t>
-  </si>
-  <si>
     <t>LAURA VERONICA ROJAS MIRANDA</t>
   </si>
   <si>
     <t>YOSHIMAR MENDIETA ROCA</t>
   </si>
   <si>
+    <t>2022-10-26</t>
+  </si>
+  <si>
     <t>MARCO ANTONIO LOPEZ ZARATE</t>
   </si>
   <si>
-    <t>2022-10-26</t>
-  </si>
-  <si>
     <t>2022-10-27</t>
   </si>
   <si>
     <t>DAYSI CUELLAR SAGREDO</t>
   </si>
   <si>
+    <t>JUANA ESTHER MICHEL CRUZ</t>
+  </si>
+  <si>
+    <t>2022-10-28</t>
+  </si>
+  <si>
     <t>NELSON RICARDO AGUERO ROJAS</t>
   </si>
   <si>
-    <t>2022-10-28</t>
-  </si>
-  <si>
     <t>MARIO SOSSA VASQUEZ</t>
   </si>
   <si>
@@ -836,36 +839,33 @@
     <t>LUIS FERNANDO NIEVES MARQUEZ</t>
   </si>
   <si>
-    <t>JUANA ESTHER MICHEL CRUZ</t>
+    <t>EMELDA ARMELLA SOLIZ</t>
+  </si>
+  <si>
+    <t>2022-10-29</t>
   </si>
   <si>
     <t>LOURDES PADILLA</t>
   </si>
   <si>
-    <t>2022-10-29</t>
-  </si>
-  <si>
-    <t>EMELDA ARMELLA SOLIZ</t>
-  </si>
-  <si>
     <t>PALMIRA BUTRON TABOADA</t>
   </si>
   <si>
     <t>2022-10-31</t>
   </si>
   <si>
+    <t>LUIS EMILIO SARAVIA CARDOZA</t>
+  </si>
+  <si>
     <t>BRIGIDAMARGOTH BATALLANOS DE ROCA</t>
   </si>
   <si>
-    <t>LUIS EMILIO SARAVIA CARDOZA</t>
+    <t>2022-11-01</t>
   </si>
   <si>
     <t>MARIA ZULMA UGARTE VASQUEZ</t>
   </si>
   <si>
-    <t>2022-11-01</t>
-  </si>
-  <si>
     <t>MILDRED ROCIO ALBORNOZ</t>
   </si>
   <si>
@@ -890,6 +890,9 @@
     <t>2022-11-03</t>
   </si>
   <si>
+    <t>JINMY WILSON SAAVEDRA CHIPANA</t>
+  </si>
+  <si>
     <t>2022-11-04</t>
   </si>
   <si>
@@ -899,30 +902,27 @@
     <t>ALVARO GONZALO ROMERO ROMERO</t>
   </si>
   <si>
-    <t>JINMY WILSON SAAVEDRA CHIPANA</t>
-  </si>
-  <si>
     <t>ELIZABETH ROMINA TORRICO DE LA VEGA</t>
   </si>
   <si>
+    <t>AMADO ARMANDO PORTAL CABEZAS</t>
+  </si>
+  <si>
     <t>2022-11-05</t>
   </si>
   <si>
+    <t>IVAN NERY ICHAZU SUSTACH</t>
+  </si>
+  <si>
+    <t>1892800-1F</t>
+  </si>
+  <si>
+    <t>PABLO FLAVIO ESPINDOLA SANCHEZ</t>
+  </si>
+  <si>
     <t>ALICIA GARECA ARROYO</t>
   </si>
   <si>
-    <t>AMADO ARMANDO PORTAL CABEZAS</t>
-  </si>
-  <si>
-    <t>IVAN NERY ICHAZU SUSTACH</t>
-  </si>
-  <si>
-    <t>1892800-1F</t>
-  </si>
-  <si>
-    <t>PABLO FLAVIO ESPINDOLA SANCHEZ</t>
-  </si>
-  <si>
     <t>2022-11-07</t>
   </si>
   <si>
@@ -941,16 +941,16 @@
     <t>MARCELA CLARA URIBURU TIRAO</t>
   </si>
   <si>
+    <t>LUIS FERNANDO PADILLA MARTINEZ</t>
+  </si>
+  <si>
+    <t>2022-11-09</t>
+  </si>
+  <si>
     <t>DIEGO GUSTAVO GARECA BALDERAS</t>
   </si>
   <si>
-    <t>2022-11-09</t>
-  </si>
-  <si>
     <t>CLAUDIA ELIZABETH FLORES ESTRADA</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO PADILLA MARTINEZ</t>
   </si>
   <si>
     <t>2022-11-10</t>
@@ -2751,16 +2751,16 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="4">
-        <v>5815577</v>
+        <v>5056800</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2769,7 +2769,7 @@
         <v>7</v>
       </c>
       <c r="K50" s="4">
-        <v>475.0</v>
+        <v>449.2</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>68</v>
@@ -2781,16 +2781,16 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="4">
-        <v>5056800</v>
+        <v>5815577</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -2799,7 +2799,7 @@
         <v>7</v>
       </c>
       <c r="K51" s="4">
-        <v>449.2</v>
+        <v>475.0</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>68</v>
@@ -3261,16 +3261,16 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="4">
-        <v>7105231</v>
+        <v>7259747</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -3279,10 +3279,10 @@
         <v>7</v>
       </c>
       <c r="K67" s="4">
-        <v>508.8</v>
+        <v>513.3</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="6" t="s">
@@ -3291,16 +3291,16 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="4">
-        <v>7217197</v>
+        <v>7105231</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -3309,10 +3309,10 @@
         <v>7</v>
       </c>
       <c r="K68" s="4">
-        <v>250.0</v>
+        <v>508.8</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="6" t="s">
@@ -3321,7 +3321,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="4">
-        <v>7259747</v>
+        <v>7217197</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>83</v>
@@ -3330,7 +3330,7 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -3339,10 +3339,10 @@
         <v>7</v>
       </c>
       <c r="K69" s="4">
-        <v>513.3</v>
+        <v>250.0</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="6" t="s">
@@ -3444,7 +3444,7 @@
         <v>7259747</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3591,16 +3591,16 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="4">
-        <v>5815577</v>
+        <v>7206055</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -3609,7 +3609,7 @@
         <v>7</v>
       </c>
       <c r="K78" s="4">
-        <v>475.0</v>
+        <v>850.0</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>88</v>
@@ -3621,16 +3621,16 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="4">
-        <v>7206055</v>
+        <v>5815577</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -3639,7 +3639,7 @@
         <v>7</v>
       </c>
       <c r="K79" s="4">
-        <v>850.0</v>
+        <v>475.0</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>88</v>
@@ -3684,7 +3684,7 @@
         <v>7259747</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="4">
-        <v>7217197</v>
+        <v>5784526</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3729,7 +3729,7 @@
         <v>7</v>
       </c>
       <c r="K82" s="4">
-        <v>950.0</v>
+        <v>498.1</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>89</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="4">
-        <v>5784526</v>
+        <v>7217197</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3759,7 +3759,7 @@
         <v>7</v>
       </c>
       <c r="K83" s="4">
-        <v>498.1</v>
+        <v>950.0</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>89</v>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="4">
-        <v>5675379</v>
+        <v>7259747</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -3849,7 +3849,7 @@
         <v>7</v>
       </c>
       <c r="K86" s="4">
-        <v>1584.6</v>
+        <v>513.3</v>
       </c>
       <c r="L86" s="5" t="s">
         <v>93</v>
@@ -3891,16 +3891,16 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="4">
-        <v>10628171</v>
+        <v>5675379</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -3909,7 +3909,7 @@
         <v>7</v>
       </c>
       <c r="K88" s="4">
-        <v>340.0</v>
+        <v>1584.6</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>93</v>
@@ -3921,16 +3921,16 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="4">
-        <v>7259747</v>
+        <v>10628171</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -3939,7 +3939,7 @@
         <v>7</v>
       </c>
       <c r="K89" s="4">
-        <v>513.3</v>
+        <v>340.0</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>93</v>
@@ -4074,7 +4074,7 @@
         <v>7259747</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -4191,16 +4191,16 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="4">
-        <v>7217197</v>
+        <v>14177626</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -4209,10 +4209,10 @@
         <v>7</v>
       </c>
       <c r="K98" s="4">
-        <v>950.0</v>
+        <v>385.0</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" s="6" t="s">
@@ -4221,16 +4221,16 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="4">
-        <v>14177626</v>
+        <v>7217197</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -4239,10 +4239,10 @@
         <v>7</v>
       </c>
       <c r="K99" s="4">
-        <v>385.0</v>
+        <v>950.0</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="6" t="s">
@@ -4314,7 +4314,7 @@
         <v>7259747</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -4401,16 +4401,16 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="4">
-        <v>7155107</v>
+        <v>5815577</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -4419,10 +4419,10 @@
         <v>7</v>
       </c>
       <c r="K105" s="4">
-        <v>256.7</v>
+        <v>475.0</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="6" t="s">
@@ -4431,10 +4431,10 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="4">
-        <v>5815577</v>
+        <v>7259747</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -4449,10 +4449,10 @@
         <v>7</v>
       </c>
       <c r="K106" s="4">
-        <v>475.0</v>
+        <v>513.3</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="6" t="s">
@@ -4461,16 +4461,16 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="4">
-        <v>7259747</v>
+        <v>7155107</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -4479,10 +4479,10 @@
         <v>7</v>
       </c>
       <c r="K107" s="4">
-        <v>513.3</v>
+        <v>256.7</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="6" t="s">
@@ -4554,7 +4554,7 @@
         <v>14177626</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -4584,7 +4584,7 @@
         <v>7217197</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -4674,7 +4674,7 @@
         <v>7259747</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -4704,7 +4704,7 @@
         <v>7155107</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -4911,16 +4911,16 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="4">
-        <v>7259747</v>
+        <v>7155107</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -4929,7 +4929,7 @@
         <v>7</v>
       </c>
       <c r="K122" s="4">
-        <v>513.3</v>
+        <v>256.7</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>124</v>
@@ -4941,16 +4941,16 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="4">
-        <v>7155107</v>
+        <v>7259747</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -4959,7 +4959,7 @@
         <v>7</v>
       </c>
       <c r="K123" s="4">
-        <v>256.7</v>
+        <v>513.3</v>
       </c>
       <c r="L123" s="5" t="s">
         <v>124</v>
@@ -5034,7 +5034,7 @@
         <v>7217197</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -5094,7 +5094,7 @@
         <v>14177626</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -5181,16 +5181,16 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="4">
-        <v>7259747</v>
+        <v>7162716</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
@@ -5199,7 +5199,7 @@
         <v>7</v>
       </c>
       <c r="K131" s="4">
-        <v>513.3</v>
+        <v>1235.0</v>
       </c>
       <c r="L131" s="5" t="s">
         <v>130</v>
@@ -5211,16 +5211,16 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="4">
-        <v>7155107</v>
+        <v>7259747</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
@@ -5229,7 +5229,7 @@
         <v>7</v>
       </c>
       <c r="K132" s="4">
-        <v>256.7</v>
+        <v>513.3</v>
       </c>
       <c r="L132" s="5" t="s">
         <v>130</v>
@@ -5241,16 +5241,16 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="4">
-        <v>7162716</v>
+        <v>7155107</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
@@ -5259,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="K133" s="4">
-        <v>1235.0</v>
+        <v>256.7</v>
       </c>
       <c r="L133" s="5" t="s">
         <v>130</v>
@@ -5451,10 +5451,10 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="4">
-        <v>2637944</v>
+        <v>7259747</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -5469,7 +5469,7 @@
         <v>7</v>
       </c>
       <c r="K140" s="4">
-        <v>475.0</v>
+        <v>513.3</v>
       </c>
       <c r="L140" s="5" t="s">
         <v>137</v>
@@ -5481,10 +5481,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="4">
-        <v>7259747</v>
+        <v>2637944</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -5499,7 +5499,7 @@
         <v>7</v>
       </c>
       <c r="K141" s="4">
-        <v>513.3</v>
+        <v>475.0</v>
       </c>
       <c r="L141" s="5" t="s">
         <v>137</v>
@@ -5514,7 +5514,7 @@
         <v>7155107</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -5721,16 +5721,16 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="4">
-        <v>4902968</v>
+        <v>7155107</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -5739,10 +5739,10 @@
         <v>7</v>
       </c>
       <c r="K149" s="4">
-        <v>3206.7</v>
+        <v>256.7</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M149" s="4"/>
       <c r="N149" s="6" t="s">
@@ -5751,10 +5751,10 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="4">
-        <v>7142667</v>
+        <v>14177626</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -5769,10 +5769,10 @@
         <v>7</v>
       </c>
       <c r="K150" s="4">
-        <v>120.8</v>
+        <v>385.0</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M150" s="4"/>
       <c r="N150" s="6" t="s">
@@ -5781,16 +5781,16 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="4">
-        <v>7259747</v>
+        <v>4902968</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -5799,10 +5799,10 @@
         <v>7</v>
       </c>
       <c r="K151" s="4">
-        <v>513.3</v>
+        <v>3206.7</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M151" s="4"/>
       <c r="N151" s="6" t="s">
@@ -5811,16 +5811,16 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="4">
-        <v>7155107</v>
+        <v>7142667</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -5829,10 +5829,10 @@
         <v>7</v>
       </c>
       <c r="K152" s="4">
-        <v>256.7</v>
+        <v>120.8</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M152" s="4"/>
       <c r="N152" s="6" t="s">
@@ -5841,16 +5841,16 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="4">
-        <v>14177626</v>
+        <v>7259747</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -5859,10 +5859,10 @@
         <v>7</v>
       </c>
       <c r="K153" s="4">
-        <v>385.0</v>
+        <v>513.3</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M153" s="4"/>
       <c r="N153" s="6" t="s">
@@ -5931,16 +5931,16 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -5949,7 +5949,7 @@
         <v>7</v>
       </c>
       <c r="K156" s="4">
-        <v>987.5</v>
+        <v>287.47</v>
       </c>
       <c r="L156" s="5" t="s">
         <v>147</v>
@@ -5961,16 +5961,16 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="4">
-        <v>7143371</v>
+        <v>6786439</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
@@ -5979,7 +5979,7 @@
         <v>7</v>
       </c>
       <c r="K157" s="4">
-        <v>287.47</v>
+        <v>987.5</v>
       </c>
       <c r="L157" s="5" t="s">
         <v>147</v>
@@ -6294,7 +6294,7 @@
         <v>14177626</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -6324,7 +6324,7 @@
         <v>4902968</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -6531,16 +6531,16 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
@@ -6549,7 +6549,7 @@
         <v>7</v>
       </c>
       <c r="K176" s="4">
-        <v>987.5</v>
+        <v>287.47</v>
       </c>
       <c r="L176" s="5" t="s">
         <v>160</v>
@@ -6561,16 +6561,16 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="4">
-        <v>7143371</v>
+        <v>6786439</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
@@ -6579,7 +6579,7 @@
         <v>7</v>
       </c>
       <c r="K177" s="4">
-        <v>287.47</v>
+        <v>987.5</v>
       </c>
       <c r="L177" s="5" t="s">
         <v>160</v>
@@ -6831,10 +6831,10 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="4">
-        <v>2637944</v>
+        <v>7211060</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -6849,7 +6849,7 @@
         <v>7</v>
       </c>
       <c r="K186" s="4">
-        <v>475.0</v>
+        <v>892.5</v>
       </c>
       <c r="L186" s="5" t="s">
         <v>168</v>
@@ -6861,10 +6861,10 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="4">
-        <v>7211060</v>
+        <v>2637944</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -6879,7 +6879,7 @@
         <v>7</v>
       </c>
       <c r="K187" s="4">
-        <v>892.5</v>
+        <v>475.0</v>
       </c>
       <c r="L187" s="5" t="s">
         <v>168</v>
@@ -6951,16 +6951,16 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="4">
-        <v>4147520</v>
+        <v>4902968</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
@@ -6969,7 +6969,7 @@
         <v>7</v>
       </c>
       <c r="K190" s="4">
-        <v>250.6</v>
+        <v>3206.7</v>
       </c>
       <c r="L190" s="5" t="s">
         <v>171</v>
@@ -6981,16 +6981,16 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="4">
-        <v>4902968</v>
+        <v>12381291</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
@@ -6999,7 +6999,7 @@
         <v>7</v>
       </c>
       <c r="K191" s="4">
-        <v>3206.7</v>
+        <v>898.3</v>
       </c>
       <c r="L191" s="5" t="s">
         <v>171</v>
@@ -7011,10 +7011,10 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="4">
-        <v>12381291</v>
+        <v>4147520</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -7029,7 +7029,7 @@
         <v>7</v>
       </c>
       <c r="K192" s="4">
-        <v>898.3</v>
+        <v>250.6</v>
       </c>
       <c r="L192" s="5" t="s">
         <v>171</v>
@@ -7041,16 +7041,16 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="4">
-        <v>5009688</v>
+        <v>7162716</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
@@ -7059,7 +7059,7 @@
         <v>7</v>
       </c>
       <c r="K193" s="4">
-        <v>875.0</v>
+        <v>1235.0</v>
       </c>
       <c r="L193" s="5" t="s">
         <v>173</v>
@@ -7071,16 +7071,16 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="4">
-        <v>7162716</v>
+        <v>5009688</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
@@ -7089,7 +7089,7 @@
         <v>7</v>
       </c>
       <c r="K194" s="4">
-        <v>1235.0</v>
+        <v>875.0</v>
       </c>
       <c r="L194" s="5" t="s">
         <v>173</v>
@@ -7191,16 +7191,16 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
@@ -7209,7 +7209,7 @@
         <v>7</v>
       </c>
       <c r="K198" s="4">
-        <v>987.5</v>
+        <v>287.47</v>
       </c>
       <c r="L198" s="5" t="s">
         <v>176</v>
@@ -7221,16 +7221,16 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="4">
-        <v>7143371</v>
+        <v>6786439</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
@@ -7239,7 +7239,7 @@
         <v>7</v>
       </c>
       <c r="K199" s="4">
-        <v>287.47</v>
+        <v>987.5</v>
       </c>
       <c r="L199" s="5" t="s">
         <v>176</v>
@@ -7311,16 +7311,16 @@
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="4">
-        <v>7668170</v>
+        <v>4147520</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
@@ -7329,10 +7329,10 @@
         <v>7</v>
       </c>
       <c r="K202" s="4">
-        <v>493.3</v>
+        <v>250.6</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M202" s="4"/>
       <c r="N202" s="6" t="s">
@@ -7341,16 +7341,16 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="4">
-        <v>4120354</v>
+        <v>4137855</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
@@ -7359,10 +7359,10 @@
         <v>7</v>
       </c>
       <c r="K203" s="4">
-        <v>670.0</v>
+        <v>986.3</v>
       </c>
       <c r="L203" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M203" s="4"/>
       <c r="N203" s="6" t="s">
@@ -7371,16 +7371,16 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="4">
-        <v>4147520</v>
+        <v>4120354</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
@@ -7389,10 +7389,10 @@
         <v>7</v>
       </c>
       <c r="K204" s="4">
-        <v>250.6</v>
+        <v>670.0</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M204" s="4"/>
       <c r="N204" s="6" t="s">
@@ -7401,10 +7401,10 @@
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="4">
-        <v>4137855</v>
+        <v>7668170</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -7419,10 +7419,10 @@
         <v>7</v>
       </c>
       <c r="K205" s="4">
-        <v>986.3</v>
+        <v>493.3</v>
       </c>
       <c r="L205" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M205" s="4"/>
       <c r="N205" s="6" t="s">
@@ -7704,7 +7704,7 @@
         <v>4902968</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -7791,10 +7791,10 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="4">
-        <v>5009688</v>
+        <v>10639263</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -7809,7 +7809,7 @@
         <v>7</v>
       </c>
       <c r="K218" s="4">
-        <v>875.0</v>
+        <v>150.0</v>
       </c>
       <c r="L218" s="5" t="s">
         <v>189</v>
@@ -7821,10 +7821,10 @@
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="4">
-        <v>10639263</v>
+        <v>5009688</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -7839,7 +7839,7 @@
         <v>7</v>
       </c>
       <c r="K219" s="4">
-        <v>150.0</v>
+        <v>875.0</v>
       </c>
       <c r="L219" s="5" t="s">
         <v>189</v>
@@ -7851,16 +7851,16 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="4">
-        <v>7162716</v>
+        <v>7211060</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
@@ -7869,7 +7869,7 @@
         <v>7</v>
       </c>
       <c r="K220" s="4">
-        <v>1235.0</v>
+        <v>892.5</v>
       </c>
       <c r="L220" s="5" t="s">
         <v>192</v>
@@ -7881,16 +7881,16 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="4">
-        <v>7211060</v>
+        <v>7162716</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
@@ -7899,7 +7899,7 @@
         <v>7</v>
       </c>
       <c r="K221" s="4">
-        <v>892.5</v>
+        <v>1235.0</v>
       </c>
       <c r="L221" s="5" t="s">
         <v>192</v>
@@ -8061,16 +8061,16 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="4">
-        <v>7668170</v>
+        <v>4120354</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
@@ -8079,7 +8079,7 @@
         <v>7</v>
       </c>
       <c r="K227" s="4">
-        <v>493.3</v>
+        <v>670.0</v>
       </c>
       <c r="L227" s="5" t="s">
         <v>196</v>
@@ -8091,16 +8091,16 @@
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="4">
-        <v>4120354</v>
+        <v>7668170</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
@@ -8109,7 +8109,7 @@
         <v>7</v>
       </c>
       <c r="K228" s="4">
-        <v>670.0</v>
+        <v>493.3</v>
       </c>
       <c r="L228" s="5" t="s">
         <v>196</v>
@@ -8121,16 +8121,16 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
@@ -8139,7 +8139,7 @@
         <v>7</v>
       </c>
       <c r="K229" s="4">
-        <v>987.5</v>
+        <v>287.47</v>
       </c>
       <c r="L229" s="5" t="s">
         <v>197</v>
@@ -8151,16 +8151,16 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="4">
-        <v>7143371</v>
+        <v>6786439</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
@@ -8169,7 +8169,7 @@
         <v>7</v>
       </c>
       <c r="K230" s="4">
-        <v>287.47</v>
+        <v>987.5</v>
       </c>
       <c r="L230" s="5" t="s">
         <v>197</v>
@@ -8331,16 +8331,16 @@
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="4">
-        <v>4141852</v>
+        <v>5787275</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
@@ -8349,7 +8349,7 @@
         <v>7</v>
       </c>
       <c r="K236" s="4">
-        <v>570.0</v>
+        <v>1010.6</v>
       </c>
       <c r="L236" s="5" t="s">
         <v>202</v>
@@ -8361,16 +8361,16 @@
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="4">
-        <v>5787275</v>
+        <v>4141852</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
@@ -8379,7 +8379,7 @@
         <v>7</v>
       </c>
       <c r="K237" s="4">
-        <v>1010.6</v>
+        <v>570.0</v>
       </c>
       <c r="L237" s="5" t="s">
         <v>202</v>
@@ -8514,7 +8514,7 @@
         <v>4902968</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -8571,16 +8571,16 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="4">
-        <v>5684823</v>
+        <v>7211060</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
@@ -8589,7 +8589,7 @@
         <v>7</v>
       </c>
       <c r="K244" s="4">
-        <v>595.0</v>
+        <v>892.5</v>
       </c>
       <c r="L244" s="5" t="s">
         <v>206</v>
@@ -8601,16 +8601,16 @@
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="4">
-        <v>7211060</v>
+        <v>5684823</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
@@ -8619,7 +8619,7 @@
         <v>7</v>
       </c>
       <c r="K245" s="4">
-        <v>892.5</v>
+        <v>595.0</v>
       </c>
       <c r="L245" s="5" t="s">
         <v>206</v>
@@ -8661,16 +8661,16 @@
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="4">
-        <v>7106747</v>
+        <v>1899950</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
@@ -8679,7 +8679,7 @@
         <v>7</v>
       </c>
       <c r="K247" s="4">
-        <v>340.0</v>
+        <v>289.0</v>
       </c>
       <c r="L247" s="5" t="s">
         <v>210</v>
@@ -8691,10 +8691,10 @@
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="4">
-        <v>1899950</v>
+        <v>1873728</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -8709,7 +8709,7 @@
         <v>7</v>
       </c>
       <c r="K248" s="4">
-        <v>289.0</v>
+        <v>692.0</v>
       </c>
       <c r="L248" s="5" t="s">
         <v>210</v>
@@ -8721,16 +8721,16 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="4">
-        <v>1873728</v>
+        <v>7106747</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
@@ -8739,7 +8739,7 @@
         <v>7</v>
       </c>
       <c r="K249" s="4">
-        <v>692.0</v>
+        <v>340.0</v>
       </c>
       <c r="L249" s="5" t="s">
         <v>210</v>
@@ -8931,10 +8931,10 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="4">
-        <v>8064094</v>
+        <v>7668170</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -8952,7 +8952,7 @@
         <v>493.3</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M256" s="4"/>
       <c r="N256" s="6" t="s">
@@ -8961,16 +8961,16 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="4">
-        <v>10629985</v>
+        <v>8064094</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
@@ -8979,10 +8979,10 @@
         <v>7</v>
       </c>
       <c r="K257" s="4">
-        <v>190.0</v>
+        <v>493.3</v>
       </c>
       <c r="L257" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M257" s="4"/>
       <c r="N257" s="6" t="s">
@@ -8991,16 +8991,16 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="4">
-        <v>1052847</v>
+        <v>10629985</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
@@ -9009,10 +9009,10 @@
         <v>7</v>
       </c>
       <c r="K258" s="4">
-        <v>138.0</v>
+        <v>190.0</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M258" s="4"/>
       <c r="N258" s="6" t="s">
@@ -9021,16 +9021,16 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="4">
-        <v>4137855</v>
+        <v>1052847</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
@@ -9039,10 +9039,10 @@
         <v>7</v>
       </c>
       <c r="K259" s="4">
-        <v>1480.0</v>
+        <v>138.0</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M259" s="4"/>
       <c r="N259" s="6" t="s">
@@ -9051,10 +9051,10 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="4">
-        <v>7668170</v>
+        <v>4137855</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -9069,10 +9069,10 @@
         <v>7</v>
       </c>
       <c r="K260" s="4">
-        <v>493.3</v>
+        <v>1480.0</v>
       </c>
       <c r="L260" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M260" s="4"/>
       <c r="N260" s="6" t="s">
@@ -9081,16 +9081,16 @@
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="4">
-        <v>7167479</v>
+        <v>5009688</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
@@ -9099,7 +9099,7 @@
         <v>7</v>
       </c>
       <c r="K261" s="4">
-        <v>533.3</v>
+        <v>875.0</v>
       </c>
       <c r="L261" s="5" t="s">
         <v>219</v>
@@ -9111,16 +9111,16 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="4">
-        <v>5009688</v>
+        <v>7167479</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
@@ -9129,7 +9129,7 @@
         <v>7</v>
       </c>
       <c r="K262" s="4">
-        <v>875.0</v>
+        <v>533.3</v>
       </c>
       <c r="L262" s="5" t="s">
         <v>219</v>
@@ -9351,16 +9351,16 @@
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="4">
-        <v>1878048</v>
+        <v>5787275</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
@@ -9369,7 +9369,7 @@
         <v>7</v>
       </c>
       <c r="K270" s="4">
-        <v>90.0</v>
+        <v>1010.6</v>
       </c>
       <c r="L270" s="5" t="s">
         <v>225</v>
@@ -9381,16 +9381,16 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="4">
-        <v>5787275</v>
+        <v>1878048</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
@@ -9399,7 +9399,7 @@
         <v>7</v>
       </c>
       <c r="K271" s="4">
-        <v>1010.6</v>
+        <v>90.0</v>
       </c>
       <c r="L271" s="5" t="s">
         <v>225</v>
@@ -9531,16 +9531,16 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="4">
-        <v>12411923</v>
+        <v>4141852</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
@@ -9549,10 +9549,10 @@
         <v>7</v>
       </c>
       <c r="K276" s="4">
-        <v>986.67</v>
+        <v>570.0</v>
       </c>
       <c r="L276" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M276" s="4"/>
       <c r="N276" s="6" t="s">
@@ -9561,16 +9561,16 @@
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="4">
-        <v>4141852</v>
+        <v>12411923</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
@@ -9579,10 +9579,10 @@
         <v>7</v>
       </c>
       <c r="K277" s="4">
-        <v>570.0</v>
+        <v>986.67</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M277" s="4"/>
       <c r="N277" s="6" t="s">
@@ -9612,7 +9612,7 @@
         <v>138.0</v>
       </c>
       <c r="L278" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M278" s="4"/>
       <c r="N278" s="6" t="s">
@@ -9621,10 +9621,10 @@
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="4">
-        <v>5009688</v>
+        <v>10635688</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -9639,10 +9639,10 @@
         <v>7</v>
       </c>
       <c r="K279" s="4">
-        <v>875.0</v>
+        <v>898.3</v>
       </c>
       <c r="L279" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M279" s="4"/>
       <c r="N279" s="6" t="s">
@@ -9651,10 +9651,10 @@
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="4">
-        <v>10635688</v>
+        <v>5009688</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -9669,10 +9669,10 @@
         <v>7</v>
       </c>
       <c r="K280" s="4">
-        <v>898.3</v>
+        <v>875.0</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M280" s="4"/>
       <c r="N280" s="6" t="s">
@@ -9741,16 +9741,16 @@
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="4">
-        <v>5684823</v>
+        <v>4902968</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
@@ -9759,7 +9759,7 @@
         <v>7</v>
       </c>
       <c r="K283" s="4">
-        <v>665.0</v>
+        <v>3206.7</v>
       </c>
       <c r="L283" s="5" t="s">
         <v>236</v>
@@ -9801,16 +9801,16 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="4">
-        <v>5039377</v>
+        <v>12381291</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
@@ -9819,7 +9819,7 @@
         <v>7</v>
       </c>
       <c r="K285" s="4">
-        <v>462.0</v>
+        <v>898.3</v>
       </c>
       <c r="L285" s="5" t="s">
         <v>236</v>
@@ -9831,16 +9831,16 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="4">
-        <v>1899950</v>
+        <v>5684823</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
@@ -9849,7 +9849,7 @@
         <v>7</v>
       </c>
       <c r="K286" s="4">
-        <v>289.0</v>
+        <v>665.0</v>
       </c>
       <c r="L286" s="5" t="s">
         <v>236</v>
@@ -9861,16 +9861,16 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="4">
-        <v>4902968</v>
+        <v>5039377</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
@@ -9879,7 +9879,7 @@
         <v>7</v>
       </c>
       <c r="K287" s="4">
-        <v>3206.7</v>
+        <v>462.0</v>
       </c>
       <c r="L287" s="5" t="s">
         <v>236</v>
@@ -9891,10 +9891,10 @@
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="4">
-        <v>12381291</v>
+        <v>1899950</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -9909,7 +9909,7 @@
         <v>7</v>
       </c>
       <c r="K288" s="4">
-        <v>898.3</v>
+        <v>289.0</v>
       </c>
       <c r="L288" s="5" t="s">
         <v>236</v>
@@ -9951,10 +9951,10 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="4">
-        <v>1873728</v>
+        <v>5037553</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -9969,7 +9969,7 @@
         <v>7</v>
       </c>
       <c r="K290" s="4">
-        <v>692.0</v>
+        <v>492.8</v>
       </c>
       <c r="L290" s="5" t="s">
         <v>237</v>
@@ -9981,10 +9981,10 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="4">
-        <v>5037553</v>
+        <v>1873728</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -9999,7 +9999,7 @@
         <v>7</v>
       </c>
       <c r="K291" s="4">
-        <v>492.8</v>
+        <v>692.0</v>
       </c>
       <c r="L291" s="5" t="s">
         <v>237</v>
@@ -10011,16 +10011,16 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="4">
-        <v>1878048</v>
+        <v>5787275</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
@@ -10029,7 +10029,7 @@
         <v>7</v>
       </c>
       <c r="K292" s="4">
-        <v>90.0</v>
+        <v>1010.6</v>
       </c>
       <c r="L292" s="5" t="s">
         <v>237</v>
@@ -10041,7 +10041,7 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="4">
-        <v>5021478</v>
+        <v>5506680</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>238</v>
@@ -10050,7 +10050,7 @@
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
@@ -10059,7 +10059,7 @@
         <v>7</v>
       </c>
       <c r="K293" s="4">
-        <v>2436.7</v>
+        <v>0.69999999999999</v>
       </c>
       <c r="L293" s="5" t="s">
         <v>237</v>
@@ -10071,16 +10071,16 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="4">
-        <v>5787275</v>
+        <v>1878048</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
@@ -10089,7 +10089,7 @@
         <v>7</v>
       </c>
       <c r="K294" s="4">
-        <v>1010.6</v>
+        <v>90.0</v>
       </c>
       <c r="L294" s="5" t="s">
         <v>237</v>
@@ -10101,7 +10101,7 @@
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="4">
-        <v>5506680</v>
+        <v>5021478</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>239</v>
@@ -10110,7 +10110,7 @@
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
@@ -10119,7 +10119,7 @@
         <v>7</v>
       </c>
       <c r="K295" s="4">
-        <v>0.69999999999999</v>
+        <v>2436.7</v>
       </c>
       <c r="L295" s="5" t="s">
         <v>237</v>
@@ -10131,16 +10131,16 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="4">
-        <v>1884070</v>
+        <v>7254095</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
@@ -10149,10 +10149,10 @@
         <v>7</v>
       </c>
       <c r="K296" s="4">
-        <v>191.7</v>
+        <v>185.1</v>
       </c>
       <c r="L296" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M296" s="4"/>
       <c r="N296" s="6" t="s">
@@ -10161,16 +10161,16 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="4">
-        <v>7259089</v>
+        <v>1884070</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
@@ -10179,10 +10179,10 @@
         <v>7</v>
       </c>
       <c r="K297" s="4">
-        <v>818.38</v>
+        <v>191.7</v>
       </c>
       <c r="L297" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M297" s="4"/>
       <c r="N297" s="6" t="s">
@@ -10191,10 +10191,10 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="4">
-        <v>7254095</v>
+        <v>7259089</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
@@ -10209,10 +10209,10 @@
         <v>7</v>
       </c>
       <c r="K298" s="4">
-        <v>185.1</v>
+        <v>818.38</v>
       </c>
       <c r="L298" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M298" s="4"/>
       <c r="N298" s="6" t="s">
@@ -10242,7 +10242,7 @@
         <v>898.3</v>
       </c>
       <c r="L299" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M299" s="4"/>
       <c r="N299" s="6" t="s">
@@ -10254,7 +10254,7 @@
         <v>8064094</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
@@ -10272,7 +10272,7 @@
         <v>2466.2</v>
       </c>
       <c r="L300" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M300" s="4"/>
       <c r="N300" s="6" t="s">
@@ -10302,7 +10302,7 @@
         <v>1450.0</v>
       </c>
       <c r="L301" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M301" s="4"/>
       <c r="N301" s="6" t="s">
@@ -10311,16 +10311,16 @@
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="4">
-        <v>1052847</v>
+        <v>1899092</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
@@ -10329,7 +10329,7 @@
         <v>7</v>
       </c>
       <c r="K302" s="4">
-        <v>138.0</v>
+        <v>770.0</v>
       </c>
       <c r="L302" s="5" t="s">
         <v>245</v>
@@ -10341,16 +10341,16 @@
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="4">
-        <v>7143371</v>
+        <v>1052847</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
@@ -10359,7 +10359,7 @@
         <v>7</v>
       </c>
       <c r="K303" s="4">
-        <v>287.47</v>
+        <v>138.0</v>
       </c>
       <c r="L303" s="5" t="s">
         <v>245</v>
@@ -10371,16 +10371,16 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
@@ -10389,7 +10389,7 @@
         <v>7</v>
       </c>
       <c r="K304" s="4">
-        <v>987.5</v>
+        <v>287.47</v>
       </c>
       <c r="L304" s="5" t="s">
         <v>245</v>
@@ -10401,16 +10401,16 @@
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="4">
-        <v>5008907</v>
+        <v>6786439</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
@@ -10419,7 +10419,7 @@
         <v>7</v>
       </c>
       <c r="K305" s="4">
-        <v>330.0</v>
+        <v>987.5</v>
       </c>
       <c r="L305" s="5" t="s">
         <v>245</v>
@@ -10461,16 +10461,16 @@
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="4">
-        <v>1899092</v>
+        <v>5008907</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
@@ -10479,7 +10479,7 @@
         <v>7</v>
       </c>
       <c r="K307" s="4">
-        <v>770.0</v>
+        <v>330.0</v>
       </c>
       <c r="L307" s="5" t="s">
         <v>245</v>
@@ -10491,10 +10491,10 @@
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="4">
-        <v>7668170</v>
+        <v>4137855</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -10509,7 +10509,7 @@
         <v>7</v>
       </c>
       <c r="K308" s="4">
-        <v>493.3</v>
+        <v>1973.3</v>
       </c>
       <c r="L308" s="5" t="s">
         <v>247</v>
@@ -10521,16 +10521,16 @@
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="4">
-        <v>454545</v>
+        <v>7668170</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
@@ -10539,7 +10539,7 @@
         <v>7</v>
       </c>
       <c r="K309" s="4">
-        <v>1083.33</v>
+        <v>493.3</v>
       </c>
       <c r="L309" s="5" t="s">
         <v>247</v>
@@ -10551,16 +10551,16 @@
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="4">
-        <v>5009688</v>
+        <v>454545</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
@@ -10569,7 +10569,7 @@
         <v>7</v>
       </c>
       <c r="K310" s="4">
-        <v>875.0</v>
+        <v>1083.33</v>
       </c>
       <c r="L310" s="5" t="s">
         <v>247</v>
@@ -10581,10 +10581,10 @@
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="4">
-        <v>10629985</v>
+        <v>5009688</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -10599,7 +10599,7 @@
         <v>7</v>
       </c>
       <c r="K311" s="4">
-        <v>340.0</v>
+        <v>875.0</v>
       </c>
       <c r="L311" s="5" t="s">
         <v>247</v>
@@ -10611,16 +10611,16 @@
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="4">
-        <v>4137855</v>
+        <v>10629985</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
@@ -10629,7 +10629,7 @@
         <v>7</v>
       </c>
       <c r="K312" s="4">
-        <v>1973.3</v>
+        <v>340.0</v>
       </c>
       <c r="L312" s="5" t="s">
         <v>247</v>
@@ -10680,7 +10680,7 @@
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
@@ -10731,16 +10731,16 @@
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="4">
-        <v>7238010</v>
+        <v>1899950</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
@@ -10749,10 +10749,10 @@
         <v>7</v>
       </c>
       <c r="K316" s="4">
-        <v>150.0</v>
+        <v>289.0</v>
       </c>
       <c r="L316" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M316" s="4"/>
       <c r="N316" s="6" t="s">
@@ -10764,7 +10764,7 @@
         <v>5006571</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -10782,7 +10782,7 @@
         <v>1973.3</v>
       </c>
       <c r="L317" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M317" s="4"/>
       <c r="N317" s="6" t="s">
@@ -10812,7 +10812,7 @@
         <v>739.7</v>
       </c>
       <c r="L318" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M318" s="4"/>
       <c r="N318" s="6" t="s">
@@ -10821,16 +10821,16 @@
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="4">
-        <v>5809785</v>
+        <v>7238010</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
@@ -10839,10 +10839,10 @@
         <v>7</v>
       </c>
       <c r="K319" s="4">
-        <v>812.5</v>
+        <v>150.0</v>
       </c>
       <c r="L319" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M319" s="4"/>
       <c r="N319" s="6" t="s">
@@ -10851,16 +10851,16 @@
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="4">
-        <v>1899950</v>
+        <v>5809785</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
@@ -10869,10 +10869,10 @@
         <v>7</v>
       </c>
       <c r="K320" s="4">
-        <v>289.0</v>
+        <v>812.5</v>
       </c>
       <c r="L320" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M320" s="4"/>
       <c r="N320" s="6" t="s">
@@ -10911,10 +10911,10 @@
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="4">
-        <v>5001200</v>
+        <v>1878048</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -10929,7 +10929,7 @@
         <v>7</v>
       </c>
       <c r="K322" s="4">
-        <v>641.7</v>
+        <v>90.0</v>
       </c>
       <c r="L322" s="5" t="s">
         <v>256</v>
@@ -10941,10 +10941,10 @@
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="4">
-        <v>12350358</v>
+        <v>5001200</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -10959,7 +10959,7 @@
         <v>7</v>
       </c>
       <c r="K323" s="4">
-        <v>300.0</v>
+        <v>641.7</v>
       </c>
       <c r="L323" s="5" t="s">
         <v>256</v>
@@ -10971,16 +10971,16 @@
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="4">
-        <v>5004813</v>
+        <v>12350358</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
@@ -10989,7 +10989,7 @@
         <v>7</v>
       </c>
       <c r="K324" s="4">
-        <v>448.3</v>
+        <v>300.0</v>
       </c>
       <c r="L324" s="5" t="s">
         <v>256</v>
@@ -11001,16 +11001,16 @@
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="4">
-        <v>1878048</v>
+        <v>5004813</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
@@ -11019,7 +11019,7 @@
         <v>7</v>
       </c>
       <c r="K325" s="4">
-        <v>90.0</v>
+        <v>448.3</v>
       </c>
       <c r="L325" s="5" t="s">
         <v>256</v>
@@ -11031,16 +11031,16 @@
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="4">
-        <v>4141852</v>
+        <v>12411923</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
@@ -11049,7 +11049,7 @@
         <v>7</v>
       </c>
       <c r="K326" s="4">
-        <v>570.0</v>
+        <v>1726.67</v>
       </c>
       <c r="L326" s="5" t="s">
         <v>258</v>
@@ -11061,16 +11061,16 @@
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="4">
-        <v>7259089</v>
+        <v>4141852</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
@@ -11079,7 +11079,7 @@
         <v>7</v>
       </c>
       <c r="K327" s="4">
-        <v>818.38</v>
+        <v>570.0</v>
       </c>
       <c r="L327" s="5" t="s">
         <v>258</v>
@@ -11121,16 +11121,16 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="4">
-        <v>12411923</v>
+        <v>7259089</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
@@ -11139,7 +11139,7 @@
         <v>7</v>
       </c>
       <c r="K329" s="4">
-        <v>1726.67</v>
+        <v>818.38</v>
       </c>
       <c r="L329" s="5" t="s">
         <v>258</v>
@@ -11181,16 +11181,16 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="4">
-        <v>4143978</v>
+        <v>10719735</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
@@ -11199,7 +11199,7 @@
         <v>7</v>
       </c>
       <c r="K331" s="4">
-        <v>250.0</v>
+        <v>1180.0</v>
       </c>
       <c r="L331" s="5" t="s">
         <v>259</v>
@@ -11214,13 +11214,13 @@
         <v>7177540</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
@@ -11241,16 +11241,16 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="4">
-        <v>7185499</v>
+        <v>4143978</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
@@ -11259,7 +11259,7 @@
         <v>7</v>
       </c>
       <c r="K333" s="4">
-        <v>32.32</v>
+        <v>250.0</v>
       </c>
       <c r="L333" s="5" t="s">
         <v>259</v>
@@ -11271,16 +11271,16 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="4">
-        <v>7197800</v>
+        <v>7185499</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
@@ -11289,7 +11289,7 @@
         <v>7</v>
       </c>
       <c r="K334" s="4">
-        <v>680.0</v>
+        <v>32.32</v>
       </c>
       <c r="L334" s="5" t="s">
         <v>259</v>
@@ -11301,16 +11301,16 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="4">
-        <v>5805990</v>
+        <v>7197800</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
@@ -11319,7 +11319,7 @@
         <v>7</v>
       </c>
       <c r="K335" s="4">
-        <v>10.0</v>
+        <v>680.0</v>
       </c>
       <c r="L335" s="5" t="s">
         <v>259</v>
@@ -11331,16 +11331,16 @@
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="4">
-        <v>1052847</v>
+        <v>5805990</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
@@ -11349,7 +11349,7 @@
         <v>7</v>
       </c>
       <c r="K336" s="4">
-        <v>138.0</v>
+        <v>10.0</v>
       </c>
       <c r="L336" s="5" t="s">
         <v>259</v>
@@ -11361,16 +11361,16 @@
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="4">
-        <v>10719735</v>
+        <v>1052847</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
@@ -11379,7 +11379,7 @@
         <v>7</v>
       </c>
       <c r="K337" s="4">
-        <v>1180.0</v>
+        <v>138.0</v>
       </c>
       <c r="L337" s="5" t="s">
         <v>259</v>
@@ -11391,10 +11391,10 @@
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="4">
-        <v>7245064</v>
+        <v>5009688</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -11409,10 +11409,10 @@
         <v>7</v>
       </c>
       <c r="K338" s="4">
-        <v>513.3</v>
+        <v>875.0</v>
       </c>
       <c r="L338" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M338" s="4"/>
       <c r="N338" s="6" t="s">
@@ -11421,16 +11421,16 @@
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="4">
-        <v>7185499</v>
+        <v>7245064</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
@@ -11439,10 +11439,10 @@
         <v>7</v>
       </c>
       <c r="K339" s="4">
-        <v>39.33</v>
+        <v>513.3</v>
       </c>
       <c r="L339" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M339" s="4"/>
       <c r="N339" s="6" t="s">
@@ -11451,16 +11451,16 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="4">
-        <v>454545</v>
+        <v>7185499</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
@@ -11469,10 +11469,10 @@
         <v>7</v>
       </c>
       <c r="K340" s="4">
-        <v>1083.33</v>
+        <v>39.33</v>
       </c>
       <c r="L340" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M340" s="4"/>
       <c r="N340" s="6" t="s">
@@ -11481,16 +11481,16 @@
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="4">
-        <v>5009688</v>
+        <v>454545</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
@@ -11499,10 +11499,10 @@
         <v>7</v>
       </c>
       <c r="K341" s="4">
-        <v>875.0</v>
+        <v>1083.33</v>
       </c>
       <c r="L341" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M341" s="4"/>
       <c r="N341" s="6" t="s">
@@ -11511,16 +11511,16 @@
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="4">
-        <v>7211060</v>
+        <v>7185499</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
@@ -11529,7 +11529,7 @@
         <v>7</v>
       </c>
       <c r="K342" s="4">
-        <v>892.5</v>
+        <v>39.33</v>
       </c>
       <c r="L342" s="5" t="s">
         <v>266</v>
@@ -11541,16 +11541,16 @@
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="4">
-        <v>10635688</v>
+        <v>7211060</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
@@ -11559,7 +11559,7 @@
         <v>7</v>
       </c>
       <c r="K343" s="4">
-        <v>898.3</v>
+        <v>892.5</v>
       </c>
       <c r="L343" s="5" t="s">
         <v>266</v>
@@ -11571,16 +11571,16 @@
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="4">
-        <v>5006333</v>
+        <v>10635688</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
@@ -11589,7 +11589,7 @@
         <v>7</v>
       </c>
       <c r="K344" s="4">
-        <v>263.5</v>
+        <v>898.3</v>
       </c>
       <c r="L344" s="5" t="s">
         <v>266</v>
@@ -11601,10 +11601,10 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="4">
-        <v>7203812</v>
+        <v>5006333</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -11619,7 +11619,7 @@
         <v>7</v>
       </c>
       <c r="K345" s="4">
-        <v>260.48</v>
+        <v>263.5</v>
       </c>
       <c r="L345" s="5" t="s">
         <v>266</v>
@@ -11631,16 +11631,16 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="4">
-        <v>7185499</v>
+        <v>7203812</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
@@ -11649,7 +11649,7 @@
         <v>7</v>
       </c>
       <c r="K346" s="4">
-        <v>39.33</v>
+        <v>260.48</v>
       </c>
       <c r="L346" s="5" t="s">
         <v>266</v>
@@ -11661,7 +11661,7 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="4">
-        <v>10644416</v>
+        <v>7103441</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>268</v>
@@ -11670,7 +11670,7 @@
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
@@ -11679,7 +11679,7 @@
         <v>7</v>
       </c>
       <c r="K347" s="4">
-        <v>300.0</v>
+        <v>1480.0</v>
       </c>
       <c r="L347" s="5" t="s">
         <v>269</v>
@@ -11691,7 +11691,7 @@
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="4">
-        <v>1886834</v>
+        <v>10644416</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>270</v>
@@ -11709,7 +11709,7 @@
         <v>7</v>
       </c>
       <c r="K348" s="4">
-        <v>218.75</v>
+        <v>300.0</v>
       </c>
       <c r="L348" s="5" t="s">
         <v>269</v>
@@ -11721,7 +11721,7 @@
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="4">
-        <v>7203440</v>
+        <v>1886834</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>271</v>
@@ -11730,7 +11730,7 @@
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
@@ -11739,7 +11739,7 @@
         <v>7</v>
       </c>
       <c r="K349" s="4">
-        <v>590.0</v>
+        <v>218.75</v>
       </c>
       <c r="L349" s="5" t="s">
         <v>269</v>
@@ -11751,16 +11751,16 @@
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="4">
-        <v>7185499</v>
+        <v>7203440</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
@@ -11769,7 +11769,7 @@
         <v>7</v>
       </c>
       <c r="K350" s="4">
-        <v>39.33</v>
+        <v>590.0</v>
       </c>
       <c r="L350" s="5" t="s">
         <v>269</v>
@@ -11781,16 +11781,16 @@
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="4">
-        <v>1899950</v>
+        <v>7185499</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
@@ -11799,7 +11799,7 @@
         <v>7</v>
       </c>
       <c r="K351" s="4">
-        <v>289.0</v>
+        <v>39.33</v>
       </c>
       <c r="L351" s="5" t="s">
         <v>269</v>
@@ -11811,16 +11811,16 @@
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="4">
-        <v>7105285</v>
+        <v>1899950</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
@@ -11829,7 +11829,7 @@
         <v>7</v>
       </c>
       <c r="K352" s="4">
-        <v>590.0</v>
+        <v>289.0</v>
       </c>
       <c r="L352" s="5" t="s">
         <v>269</v>
@@ -11841,16 +11841,16 @@
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="4">
-        <v>7238010</v>
+        <v>7105285</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
@@ -11859,7 +11859,7 @@
         <v>7</v>
       </c>
       <c r="K353" s="4">
-        <v>150.0</v>
+        <v>590.0</v>
       </c>
       <c r="L353" s="5" t="s">
         <v>269</v>
@@ -11901,10 +11901,10 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="4">
-        <v>7103441</v>
+        <v>7238010</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -11919,7 +11919,7 @@
         <v>7</v>
       </c>
       <c r="K355" s="4">
-        <v>1480.0</v>
+        <v>150.0</v>
       </c>
       <c r="L355" s="5" t="s">
         <v>269</v>
@@ -11931,7 +11931,7 @@
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="4">
-        <v>1836015</v>
+        <v>7212958</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>274</v>
@@ -11940,7 +11940,7 @@
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
@@ -11949,7 +11949,7 @@
         <v>7</v>
       </c>
       <c r="K356" s="4">
-        <v>513.3</v>
+        <v>1059.08</v>
       </c>
       <c r="L356" s="5" t="s">
         <v>275</v>
@@ -11961,16 +11961,16 @@
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="4">
-        <v>1878048</v>
+        <v>1836015</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
@@ -11979,7 +11979,7 @@
         <v>7</v>
       </c>
       <c r="K357" s="4">
-        <v>90.0</v>
+        <v>513.3</v>
       </c>
       <c r="L357" s="5" t="s">
         <v>275</v>
@@ -11991,16 +11991,16 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="4">
-        <v>12381291</v>
+        <v>5787275</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
@@ -12009,7 +12009,7 @@
         <v>7</v>
       </c>
       <c r="K358" s="4">
-        <v>898.3</v>
+        <v>1010.6</v>
       </c>
       <c r="L358" s="5" t="s">
         <v>275</v>
@@ -12021,16 +12021,16 @@
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="4">
-        <v>5787275</v>
+        <v>1878048</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
@@ -12039,7 +12039,7 @@
         <v>7</v>
       </c>
       <c r="K359" s="4">
-        <v>1010.6</v>
+        <v>90.0</v>
       </c>
       <c r="L359" s="5" t="s">
         <v>275</v>
@@ -12051,16 +12051,16 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="4">
-        <v>5684823</v>
+        <v>12381291</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
@@ -12069,7 +12069,7 @@
         <v>7</v>
       </c>
       <c r="K360" s="4">
-        <v>665.0</v>
+        <v>898.3</v>
       </c>
       <c r="L360" s="5" t="s">
         <v>275</v>
@@ -12081,16 +12081,16 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="4">
-        <v>7185499</v>
+        <v>5684823</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
@@ -12099,7 +12099,7 @@
         <v>7</v>
       </c>
       <c r="K361" s="4">
-        <v>39.33</v>
+        <v>665.0</v>
       </c>
       <c r="L361" s="5" t="s">
         <v>275</v>
@@ -12111,16 +12111,16 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="4">
-        <v>7212958</v>
+        <v>7185499</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
@@ -12129,7 +12129,7 @@
         <v>7</v>
       </c>
       <c r="K362" s="4">
-        <v>1059.08</v>
+        <v>39.33</v>
       </c>
       <c r="L362" s="5" t="s">
         <v>275</v>
@@ -12171,10 +12171,10 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="4">
-        <v>7141330</v>
+        <v>7136623</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -12189,7 +12189,7 @@
         <v>7</v>
       </c>
       <c r="K364" s="4">
-        <v>385.0</v>
+        <v>770.0</v>
       </c>
       <c r="L364" s="5" t="s">
         <v>278</v>
@@ -12201,16 +12201,16 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="4">
-        <v>1899092</v>
+        <v>7141330</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
@@ -12219,7 +12219,7 @@
         <v>7</v>
       </c>
       <c r="K365" s="4">
-        <v>770.0</v>
+        <v>385.0</v>
       </c>
       <c r="L365" s="5" t="s">
         <v>278</v>
@@ -12231,16 +12231,16 @@
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="4">
-        <v>7185499</v>
+        <v>1899092</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
@@ -12249,7 +12249,7 @@
         <v>7</v>
       </c>
       <c r="K366" s="4">
-        <v>39.33</v>
+        <v>770.0</v>
       </c>
       <c r="L366" s="5" t="s">
         <v>278</v>
@@ -12261,16 +12261,16 @@
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="4">
-        <v>7259089</v>
+        <v>7185499</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
@@ -12279,7 +12279,7 @@
         <v>7</v>
       </c>
       <c r="K367" s="4">
-        <v>818.38</v>
+        <v>39.33</v>
       </c>
       <c r="L367" s="5" t="s">
         <v>278</v>
@@ -12291,16 +12291,16 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="4">
-        <v>5050637</v>
+        <v>7254095</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
@@ -12309,7 +12309,7 @@
         <v>7</v>
       </c>
       <c r="K368" s="4">
-        <v>1726.7</v>
+        <v>185.1</v>
       </c>
       <c r="L368" s="5" t="s">
         <v>278</v>
@@ -12321,10 +12321,10 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="4">
-        <v>7254095</v>
+        <v>7259089</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
@@ -12339,7 +12339,7 @@
         <v>7</v>
       </c>
       <c r="K369" s="4">
-        <v>185.1</v>
+        <v>818.38</v>
       </c>
       <c r="L369" s="5" t="s">
         <v>278</v>
@@ -12351,7 +12351,7 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="4">
-        <v>7136623</v>
+        <v>5050637</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>280</v>
@@ -12360,7 +12360,7 @@
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
@@ -12369,7 +12369,7 @@
         <v>7</v>
       </c>
       <c r="K370" s="4">
-        <v>770.0</v>
+        <v>1726.7</v>
       </c>
       <c r="L370" s="5" t="s">
         <v>278</v>
@@ -12381,16 +12381,16 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="4">
-        <v>1847138</v>
+        <v>5802105</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
@@ -12399,10 +12399,10 @@
         <v>7</v>
       </c>
       <c r="K371" s="4">
-        <v>680.0</v>
+        <v>1450.0</v>
       </c>
       <c r="L371" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M371" s="4"/>
       <c r="N371" s="6" t="s">
@@ -12414,7 +12414,7 @@
         <v>5506680</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -12432,7 +12432,7 @@
         <v>256.7</v>
       </c>
       <c r="L372" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M372" s="4"/>
       <c r="N372" s="6" t="s">
@@ -12441,16 +12441,16 @@
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="4">
-        <v>5008907</v>
+        <v>7185499</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="G373" s="4"/>
       <c r="H373" s="4"/>
@@ -12459,10 +12459,10 @@
         <v>7</v>
       </c>
       <c r="K373" s="4">
-        <v>2310.0</v>
+        <v>39.33</v>
       </c>
       <c r="L373" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M373" s="4"/>
       <c r="N373" s="6" t="s">
@@ -12471,16 +12471,16 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="4">
-        <v>1884070</v>
+        <v>1847138</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
@@ -12489,10 +12489,10 @@
         <v>7</v>
       </c>
       <c r="K374" s="4">
-        <v>641.7</v>
+        <v>680.0</v>
       </c>
       <c r="L374" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M374" s="4"/>
       <c r="N374" s="6" t="s">
@@ -12501,16 +12501,16 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="4">
-        <v>7106747</v>
+        <v>5008907</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
@@ -12519,10 +12519,10 @@
         <v>7</v>
       </c>
       <c r="K375" s="4">
-        <v>340.0</v>
+        <v>2310.0</v>
       </c>
       <c r="L375" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M375" s="4"/>
       <c r="N375" s="6" t="s">
@@ -12531,16 +12531,16 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="4">
-        <v>4143978</v>
+        <v>7106747</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
@@ -12549,10 +12549,10 @@
         <v>7</v>
       </c>
       <c r="K376" s="4">
-        <v>250.0</v>
+        <v>340.0</v>
       </c>
       <c r="L376" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M376" s="4"/>
       <c r="N376" s="6" t="s">
@@ -12561,10 +12561,10 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="4">
-        <v>5790037</v>
+        <v>1884070</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
@@ -12579,10 +12579,10 @@
         <v>7</v>
       </c>
       <c r="K377" s="4">
-        <v>898.3</v>
+        <v>641.7</v>
       </c>
       <c r="L377" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M377" s="4"/>
       <c r="N377" s="6" t="s">
@@ -12591,16 +12591,16 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="4">
-        <v>1873728</v>
+        <v>4143978</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
@@ -12609,10 +12609,10 @@
         <v>7</v>
       </c>
       <c r="K378" s="4">
-        <v>692.0</v>
+        <v>250.0</v>
       </c>
       <c r="L378" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M378" s="4"/>
       <c r="N378" s="6" t="s">
@@ -12621,16 +12621,16 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="4">
-        <v>7185499</v>
+        <v>5037553</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
@@ -12639,10 +12639,10 @@
         <v>7</v>
       </c>
       <c r="K379" s="4">
-        <v>39.33</v>
+        <v>1603.3</v>
       </c>
       <c r="L379" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M379" s="4"/>
       <c r="N379" s="6" t="s">
@@ -12651,16 +12651,16 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="4">
-        <v>5037553</v>
+        <v>7238521</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
@@ -12669,10 +12669,10 @@
         <v>7</v>
       </c>
       <c r="K380" s="4">
-        <v>1603.3</v>
+        <v>1283.3</v>
       </c>
       <c r="L380" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M380" s="4"/>
       <c r="N380" s="6" t="s">
@@ -12681,16 +12681,16 @@
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="4">
-        <v>7238521</v>
+        <v>5790037</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
@@ -12699,10 +12699,10 @@
         <v>7</v>
       </c>
       <c r="K381" s="4">
-        <v>1283.3</v>
+        <v>898.3</v>
       </c>
       <c r="L381" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M381" s="4"/>
       <c r="N381" s="6" t="s">
@@ -12711,10 +12711,10 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="4">
-        <v>5802105</v>
+        <v>1873728</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
@@ -12729,10 +12729,10 @@
         <v>7</v>
       </c>
       <c r="K382" s="4">
-        <v>1450.0</v>
+        <v>692.0</v>
       </c>
       <c r="L382" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M382" s="4"/>
       <c r="N382" s="6" t="s">
@@ -12762,7 +12762,7 @@
         <v>39.33</v>
       </c>
       <c r="L383" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M383" s="4"/>
       <c r="N383" s="6" t="s">
@@ -12792,7 +12792,7 @@
         <v>138.0</v>
       </c>
       <c r="L384" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M384" s="4"/>
       <c r="N384" s="6" t="s">
@@ -12801,16 +12801,16 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="4">
-        <v>454545</v>
+        <v>7185499</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
@@ -12819,7 +12819,7 @@
         <v>7</v>
       </c>
       <c r="K385" s="4">
-        <v>1083.33</v>
+        <v>39.33</v>
       </c>
       <c r="L385" s="5" t="s">
         <v>284</v>
@@ -12831,16 +12831,16 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="4">
-        <v>7228075</v>
+        <v>454545</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
@@ -12849,7 +12849,7 @@
         <v>7</v>
       </c>
       <c r="K386" s="4">
-        <v>320.83</v>
+        <v>1083.33</v>
       </c>
       <c r="L386" s="5" t="s">
         <v>284</v>
@@ -12861,10 +12861,10 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="4">
-        <v>1836215</v>
+        <v>7228075</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
@@ -12879,7 +12879,7 @@
         <v>7</v>
       </c>
       <c r="K387" s="4">
-        <v>192.5</v>
+        <v>320.83</v>
       </c>
       <c r="L387" s="5" t="s">
         <v>284</v>
@@ -12891,16 +12891,16 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="4">
-        <v>1848994</v>
+        <v>1836215</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
@@ -12909,7 +12909,7 @@
         <v>7</v>
       </c>
       <c r="K388" s="4">
-        <v>1180.0</v>
+        <v>192.5</v>
       </c>
       <c r="L388" s="5" t="s">
         <v>284</v>
@@ -12921,16 +12921,16 @@
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="4">
-        <v>6786439</v>
+        <v>1848994</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
@@ -12939,7 +12939,7 @@
         <v>7</v>
       </c>
       <c r="K389" s="4">
-        <v>987.5</v>
+        <v>1180.0</v>
       </c>
       <c r="L389" s="5" t="s">
         <v>284</v>
@@ -12951,16 +12951,16 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="4">
-        <v>7113724</v>
+        <v>6786439</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
@@ -12969,7 +12969,7 @@
         <v>7</v>
       </c>
       <c r="K390" s="4">
-        <v>680.0</v>
+        <v>987.5</v>
       </c>
       <c r="L390" s="5" t="s">
         <v>284</v>
@@ -12981,10 +12981,10 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="4">
-        <v>7185499</v>
+        <v>7113724</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
@@ -12999,7 +12999,7 @@
         <v>7</v>
       </c>
       <c r="K391" s="4">
-        <v>39.33</v>
+        <v>680.0</v>
       </c>
       <c r="L391" s="5" t="s">
         <v>284</v>
@@ -13041,16 +13041,16 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="4">
-        <v>7185499</v>
+        <v>7203812</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
@@ -13059,7 +13059,7 @@
         <v>7</v>
       </c>
       <c r="K393" s="4">
-        <v>39.33</v>
+        <v>260.48</v>
       </c>
       <c r="L393" s="5" t="s">
         <v>290</v>
@@ -13071,16 +13071,16 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="4">
-        <v>7211060</v>
+        <v>7185499</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
@@ -13089,7 +13089,7 @@
         <v>7</v>
       </c>
       <c r="K394" s="4">
-        <v>892.5</v>
+        <v>39.33</v>
       </c>
       <c r="L394" s="5" t="s">
         <v>290</v>
@@ -13101,16 +13101,16 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="4">
-        <v>7668170</v>
+        <v>7211060</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
@@ -13119,7 +13119,7 @@
         <v>7</v>
       </c>
       <c r="K395" s="4">
-        <v>493.3</v>
+        <v>892.5</v>
       </c>
       <c r="L395" s="5" t="s">
         <v>290</v>
@@ -13161,16 +13161,16 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="4">
-        <v>7203812</v>
+        <v>7668170</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
@@ -13179,7 +13179,7 @@
         <v>7</v>
       </c>
       <c r="K397" s="4">
-        <v>260.48</v>
+        <v>493.3</v>
       </c>
       <c r="L397" s="5" t="s">
         <v>290</v>
@@ -13221,16 +13221,16 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="4">
-        <v>7238010</v>
+        <v>5041294</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
@@ -13239,10 +13239,10 @@
         <v>7</v>
       </c>
       <c r="K399" s="4">
-        <v>150.0</v>
+        <v>680.0</v>
       </c>
       <c r="L399" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M399" s="4"/>
       <c r="N399" s="6" t="s">
@@ -13251,16 +13251,16 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="4">
-        <v>7148877</v>
+        <v>7238010</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
@@ -13269,10 +13269,10 @@
         <v>7</v>
       </c>
       <c r="K400" s="4">
-        <v>632.4</v>
+        <v>150.0</v>
       </c>
       <c r="L400" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M400" s="4"/>
       <c r="N400" s="6" t="s">
@@ -13281,16 +13281,16 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="4">
-        <v>1884314</v>
+        <v>7148877</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
@@ -13299,10 +13299,10 @@
         <v>7</v>
       </c>
       <c r="K401" s="4">
-        <v>511.6</v>
+        <v>632.4</v>
       </c>
       <c r="L401" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M401" s="4"/>
       <c r="N401" s="6" t="s">
@@ -13311,7 +13311,7 @@
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="4">
-        <v>7259959</v>
+        <v>1884314</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>293</v>
@@ -13320,7 +13320,7 @@
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
@@ -13329,10 +13329,10 @@
         <v>7</v>
       </c>
       <c r="K402" s="4">
-        <v>680.0</v>
+        <v>511.6</v>
       </c>
       <c r="L402" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M402" s="4"/>
       <c r="N402" s="6" t="s">
@@ -13341,16 +13341,16 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="4">
-        <v>1886834</v>
+        <v>7259959</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
@@ -13359,10 +13359,10 @@
         <v>7</v>
       </c>
       <c r="K403" s="4">
-        <v>218.75</v>
+        <v>680.0</v>
       </c>
       <c r="L403" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M403" s="4"/>
       <c r="N403" s="6" t="s">
@@ -13371,10 +13371,10 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="4">
-        <v>7185499</v>
+        <v>1886834</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
@@ -13389,10 +13389,10 @@
         <v>7</v>
       </c>
       <c r="K404" s="4">
-        <v>39.33</v>
+        <v>218.75</v>
       </c>
       <c r="L404" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M404" s="4"/>
       <c r="N404" s="6" t="s">
@@ -13401,16 +13401,16 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="4">
-        <v>5041294</v>
+        <v>7185499</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
@@ -13419,10 +13419,10 @@
         <v>7</v>
       </c>
       <c r="K405" s="4">
-        <v>680.0</v>
+        <v>39.33</v>
       </c>
       <c r="L405" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M405" s="4"/>
       <c r="N405" s="6" t="s">
@@ -13452,7 +13452,7 @@
         <v>1973.3</v>
       </c>
       <c r="L406" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M406" s="4"/>
       <c r="N406" s="6" t="s">
@@ -13461,16 +13461,16 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="4">
-        <v>7185499</v>
+        <v>7172461</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
@@ -13479,10 +13479,10 @@
         <v>7</v>
       </c>
       <c r="K407" s="4">
-        <v>39.33</v>
+        <v>19.2</v>
       </c>
       <c r="L407" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M407" s="4"/>
       <c r="N407" s="6" t="s">
@@ -13491,16 +13491,16 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="4">
-        <v>5783738</v>
+        <v>5801048</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
@@ -13509,10 +13509,10 @@
         <v>7</v>
       </c>
       <c r="K408" s="4">
-        <v>31.56</v>
+        <v>696.2</v>
       </c>
       <c r="L408" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M408" s="4"/>
       <c r="N408" s="6" t="s">
@@ -13520,17 +13520,17 @@
       </c>
     </row>
     <row r="409" spans="1:14">
-      <c r="A409" s="4">
-        <v>5787275</v>
+      <c r="A409" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G409" s="4"/>
       <c r="H409" s="4"/>
@@ -13539,10 +13539,10 @@
         <v>7</v>
       </c>
       <c r="K409" s="4">
-        <v>1010.6</v>
+        <v>363.8</v>
       </c>
       <c r="L409" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M409" s="4"/>
       <c r="N409" s="6" t="s">
@@ -13551,16 +13551,16 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="4">
-        <v>7172461</v>
+        <v>7167479</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
@@ -13569,10 +13569,10 @@
         <v>7</v>
       </c>
       <c r="K410" s="4">
-        <v>19.2</v>
+        <v>533.3</v>
       </c>
       <c r="L410" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M410" s="4"/>
       <c r="N410" s="6" t="s">
@@ -13581,10 +13581,10 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="4">
-        <v>5809785</v>
+        <v>7185499</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
@@ -13599,10 +13599,10 @@
         <v>7</v>
       </c>
       <c r="K411" s="4">
-        <v>812.5</v>
+        <v>39.33</v>
       </c>
       <c r="L411" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M411" s="4"/>
       <c r="N411" s="6" t="s">
@@ -13611,16 +13611,16 @@
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="4">
-        <v>5801048</v>
+        <v>5783738</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
@@ -13629,10 +13629,10 @@
         <v>7</v>
       </c>
       <c r="K412" s="4">
-        <v>696.2</v>
+        <v>31.56</v>
       </c>
       <c r="L412" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M412" s="4"/>
       <c r="N412" s="6" t="s">
@@ -13640,17 +13640,17 @@
       </c>
     </row>
     <row r="413" spans="1:14">
-      <c r="A413" s="4" t="s">
-        <v>300</v>
+      <c r="A413" s="4">
+        <v>5787275</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
@@ -13659,10 +13659,10 @@
         <v>7</v>
       </c>
       <c r="K413" s="4">
-        <v>363.8</v>
+        <v>1010.6</v>
       </c>
       <c r="L413" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M413" s="4"/>
       <c r="N413" s="6" t="s">
@@ -13671,16 +13671,16 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="4">
-        <v>7167479</v>
+        <v>5809785</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
@@ -13689,10 +13689,10 @@
         <v>7</v>
       </c>
       <c r="K414" s="4">
-        <v>533.3</v>
+        <v>812.5</v>
       </c>
       <c r="L414" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M414" s="4"/>
       <c r="N414" s="6" t="s">
@@ -13701,10 +13701,10 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="4">
-        <v>7259089</v>
+        <v>7254095</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
@@ -13719,7 +13719,7 @@
         <v>7</v>
       </c>
       <c r="K415" s="4">
-        <v>818.38</v>
+        <v>185.1</v>
       </c>
       <c r="L415" s="5" t="s">
         <v>302</v>
@@ -13734,7 +13734,7 @@
         <v>5783738</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
@@ -13761,10 +13761,10 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="4">
-        <v>7254095</v>
+        <v>7259089</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
@@ -13779,7 +13779,7 @@
         <v>7</v>
       </c>
       <c r="K417" s="4">
-        <v>185.1</v>
+        <v>818.38</v>
       </c>
       <c r="L417" s="5" t="s">
         <v>302</v>
@@ -13794,7 +13794,7 @@
         <v>7172461</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -13824,13 +13824,13 @@
         <v>7177540</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
@@ -13854,7 +13854,7 @@
         <v>7172461</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
@@ -13881,16 +13881,16 @@
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="4">
-        <v>5783738</v>
+        <v>5805990</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="G421" s="4"/>
       <c r="H421" s="4"/>
@@ -13899,7 +13899,7 @@
         <v>7</v>
       </c>
       <c r="K421" s="4">
-        <v>31.56</v>
+        <v>510.0</v>
       </c>
       <c r="L421" s="5" t="s">
         <v>302</v>
@@ -13911,16 +13911,16 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="4">
-        <v>7185499</v>
+        <v>5783738</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
@@ -13929,7 +13929,7 @@
         <v>7</v>
       </c>
       <c r="K422" s="4">
-        <v>39.33</v>
+        <v>31.56</v>
       </c>
       <c r="L422" s="5" t="s">
         <v>302</v>
@@ -13941,16 +13941,16 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="4">
-        <v>5805990</v>
+        <v>7185499</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
@@ -13959,7 +13959,7 @@
         <v>7</v>
       </c>
       <c r="K423" s="4">
-        <v>510.0</v>
+        <v>39.33</v>
       </c>
       <c r="L423" s="5" t="s">
         <v>302</v>
@@ -13971,16 +13971,16 @@
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="4">
-        <v>7185499</v>
+        <v>4143978</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
@@ -13989,7 +13989,7 @@
         <v>7</v>
       </c>
       <c r="K424" s="4">
-        <v>39.33</v>
+        <v>250.0</v>
       </c>
       <c r="L424" s="5" t="s">
         <v>303</v>
@@ -14001,16 +14001,16 @@
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="4">
-        <v>12411923</v>
+        <v>7172461</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
@@ -14019,7 +14019,7 @@
         <v>7</v>
       </c>
       <c r="K425" s="4">
-        <v>1726.67</v>
+        <v>19.2</v>
       </c>
       <c r="L425" s="5" t="s">
         <v>303</v>
@@ -14061,10 +14061,10 @@
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="4">
-        <v>5049517</v>
+        <v>7185499</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -14079,7 +14079,7 @@
         <v>7</v>
       </c>
       <c r="K427" s="4">
-        <v>1132.8</v>
+        <v>39.33</v>
       </c>
       <c r="L427" s="5" t="s">
         <v>303</v>
@@ -14121,16 +14121,16 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="4">
-        <v>5783738</v>
+        <v>12411923</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
@@ -14139,7 +14139,7 @@
         <v>7</v>
       </c>
       <c r="K429" s="4">
-        <v>31.56</v>
+        <v>1726.67</v>
       </c>
       <c r="L429" s="5" t="s">
         <v>303</v>
@@ -14151,10 +14151,10 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="4">
-        <v>7185499</v>
+        <v>5049517</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
@@ -14169,7 +14169,7 @@
         <v>7</v>
       </c>
       <c r="K430" s="4">
-        <v>39.33</v>
+        <v>1132.8</v>
       </c>
       <c r="L430" s="5" t="s">
         <v>303</v>
@@ -14181,16 +14181,16 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="4">
-        <v>5008907</v>
+        <v>5783738</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
@@ -14199,7 +14199,7 @@
         <v>7</v>
       </c>
       <c r="K431" s="4">
-        <v>2310.0</v>
+        <v>31.56</v>
       </c>
       <c r="L431" s="5" t="s">
         <v>303</v>
@@ -14211,16 +14211,16 @@
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="4">
-        <v>4141852</v>
+        <v>7185499</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
@@ -14229,7 +14229,7 @@
         <v>7</v>
       </c>
       <c r="K432" s="4">
-        <v>570.0</v>
+        <v>39.33</v>
       </c>
       <c r="L432" s="5" t="s">
         <v>303</v>
@@ -14241,16 +14241,16 @@
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="4">
-        <v>5816019</v>
+        <v>5008907</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="G433" s="4"/>
       <c r="H433" s="4"/>
@@ -14259,7 +14259,7 @@
         <v>7</v>
       </c>
       <c r="K433" s="4">
-        <v>1356.67</v>
+        <v>2310.0</v>
       </c>
       <c r="L433" s="5" t="s">
         <v>303</v>
@@ -14271,16 +14271,16 @@
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="4">
-        <v>7112976</v>
+        <v>5001200</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
@@ -14289,7 +14289,7 @@
         <v>7</v>
       </c>
       <c r="K434" s="4">
-        <v>680.0</v>
+        <v>641.7</v>
       </c>
       <c r="L434" s="5" t="s">
         <v>303</v>
@@ -14301,10 +14301,10 @@
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="4">
-        <v>5001200</v>
+        <v>4141852</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
@@ -14319,7 +14319,7 @@
         <v>7</v>
       </c>
       <c r="K435" s="4">
-        <v>641.7</v>
+        <v>570.0</v>
       </c>
       <c r="L435" s="5" t="s">
         <v>303</v>
@@ -14331,16 +14331,16 @@
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="4">
-        <v>4143978</v>
+        <v>5816019</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
@@ -14349,7 +14349,7 @@
         <v>7</v>
       </c>
       <c r="K436" s="4">
-        <v>250.0</v>
+        <v>1356.67</v>
       </c>
       <c r="L436" s="5" t="s">
         <v>303</v>
@@ -14361,16 +14361,16 @@
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="4">
-        <v>7172461</v>
+        <v>7112976</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="G437" s="4"/>
       <c r="H437" s="4"/>
@@ -14379,7 +14379,7 @@
         <v>7</v>
       </c>
       <c r="K437" s="4">
-        <v>19.2</v>
+        <v>680.0</v>
       </c>
       <c r="L437" s="5" t="s">
         <v>303</v>
@@ -14421,7 +14421,7 @@
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="4">
-        <v>5800232</v>
+        <v>10722849</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>308</v>
@@ -14430,7 +14430,7 @@
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="G439" s="4"/>
       <c r="H439" s="4"/>
@@ -14439,7 +14439,7 @@
         <v>7</v>
       </c>
       <c r="K439" s="4">
-        <v>770.0</v>
+        <v>580.0</v>
       </c>
       <c r="L439" s="5" t="s">
         <v>309</v>
@@ -14451,16 +14451,16 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="4">
-        <v>7172461</v>
+        <v>5800232</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
@@ -14469,7 +14469,7 @@
         <v>7</v>
       </c>
       <c r="K440" s="4">
-        <v>19.2</v>
+        <v>770.0</v>
       </c>
       <c r="L440" s="5" t="s">
         <v>309</v>
@@ -14484,7 +14484,7 @@
         <v>5052427</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
@@ -14511,16 +14511,16 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="4">
-        <v>454545</v>
+        <v>7172461</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4" t="s">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="G442" s="4"/>
       <c r="H442" s="4"/>
@@ -14529,7 +14529,7 @@
         <v>7</v>
       </c>
       <c r="K442" s="4">
-        <v>1083.33</v>
+        <v>19.2</v>
       </c>
       <c r="L442" s="5" t="s">
         <v>309</v>
@@ -14541,16 +14541,16 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="4">
-        <v>7228075</v>
+        <v>454545</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
@@ -14559,7 +14559,7 @@
         <v>7</v>
       </c>
       <c r="K443" s="4">
-        <v>320.83</v>
+        <v>1083.33</v>
       </c>
       <c r="L443" s="5" t="s">
         <v>309</v>
@@ -14571,10 +14571,10 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="4">
-        <v>1836215</v>
+        <v>7228075</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -14589,7 +14589,7 @@
         <v>7</v>
       </c>
       <c r="K444" s="4">
-        <v>192.5</v>
+        <v>320.83</v>
       </c>
       <c r="L444" s="5" t="s">
         <v>309</v>
@@ -14601,16 +14601,16 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="4">
-        <v>7185499</v>
+        <v>1836215</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G445" s="4"/>
       <c r="H445" s="4"/>
@@ -14619,7 +14619,7 @@
         <v>7</v>
       </c>
       <c r="K445" s="4">
-        <v>39.33</v>
+        <v>192.5</v>
       </c>
       <c r="L445" s="5" t="s">
         <v>309</v>
@@ -14631,16 +14631,16 @@
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="4">
-        <v>5783738</v>
+        <v>7185499</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
@@ -14649,7 +14649,7 @@
         <v>7</v>
       </c>
       <c r="K446" s="4">
-        <v>31.56</v>
+        <v>39.33</v>
       </c>
       <c r="L446" s="5" t="s">
         <v>309</v>
@@ -14661,16 +14661,16 @@
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="4">
-        <v>10722849</v>
+        <v>5783738</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="G447" s="4"/>
       <c r="H447" s="4"/>
@@ -14679,7 +14679,7 @@
         <v>7</v>
       </c>
       <c r="K447" s="4">
-        <v>580.0</v>
+        <v>31.56</v>
       </c>
       <c r="L447" s="5" t="s">
         <v>309</v>
@@ -14691,16 +14691,16 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="4">
-        <v>7211060</v>
+        <v>7185499</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
@@ -14709,7 +14709,7 @@
         <v>7</v>
       </c>
       <c r="K448" s="4">
-        <v>892.5</v>
+        <v>39.33</v>
       </c>
       <c r="L448" s="5" t="s">
         <v>312</v>
@@ -14721,16 +14721,16 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="4">
-        <v>5783738</v>
+        <v>5006333</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>297</v>
+        <v>207</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
@@ -14739,7 +14739,7 @@
         <v>7</v>
       </c>
       <c r="K449" s="4">
-        <v>31.56</v>
+        <v>263.5</v>
       </c>
       <c r="L449" s="5" t="s">
         <v>312</v>
@@ -14751,16 +14751,16 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="4">
-        <v>5006333</v>
+        <v>7211060</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
@@ -14769,7 +14769,7 @@
         <v>7</v>
       </c>
       <c r="K450" s="4">
-        <v>263.5</v>
+        <v>892.5</v>
       </c>
       <c r="L450" s="5" t="s">
         <v>312</v>
@@ -14781,16 +14781,16 @@
     </row>
     <row r="451" spans="1:14">
       <c r="A451" s="4">
-        <v>7203812</v>
+        <v>5783738</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G451" s="4"/>
       <c r="H451" s="4"/>
@@ -14799,7 +14799,7 @@
         <v>7</v>
       </c>
       <c r="K451" s="4">
-        <v>260.48</v>
+        <v>31.56</v>
       </c>
       <c r="L451" s="5" t="s">
         <v>312</v>
@@ -14811,16 +14811,16 @@
     </row>
     <row r="452" spans="1:14">
       <c r="A452" s="4">
-        <v>7180798</v>
+        <v>7203812</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
@@ -14829,7 +14829,7 @@
         <v>7</v>
       </c>
       <c r="K452" s="4">
-        <v>989.4</v>
+        <v>260.48</v>
       </c>
       <c r="L452" s="5" t="s">
         <v>312</v>
@@ -14841,16 +14841,16 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="4">
-        <v>7172461</v>
+        <v>7180798</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
@@ -14859,7 +14859,7 @@
         <v>7</v>
       </c>
       <c r="K453" s="4">
-        <v>19.2</v>
+        <v>989.4</v>
       </c>
       <c r="L453" s="5" t="s">
         <v>312</v>
@@ -14871,25 +14871,25 @@
     </row>
     <row r="454" spans="1:14">
       <c r="A454" s="4">
-        <v>1893814</v>
+        <v>7172461</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G454" s="4"/>
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K454" s="4">
-        <v>3.8</v>
+        <v>19.2</v>
       </c>
       <c r="L454" s="5" t="s">
         <v>312</v>
@@ -14901,25 +14901,25 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455" s="4">
-        <v>7185499</v>
+        <v>1893814</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K455" s="4">
-        <v>39.33</v>
+        <v>3.8</v>
       </c>
       <c r="L455" s="5" t="s">
         <v>312</v>
@@ -14931,25 +14931,25 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456" s="4">
-        <v>1893814</v>
+        <v>1886834</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K456" s="4">
-        <v>3.8</v>
+        <v>218.75</v>
       </c>
       <c r="L456" s="5" t="s">
         <v>315</v>
@@ -14961,16 +14961,16 @@
     </row>
     <row r="457" spans="1:14">
       <c r="A457" s="4">
-        <v>7185499</v>
+        <v>7172461</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G457" s="4"/>
       <c r="H457" s="4"/>
@@ -14979,7 +14979,7 @@
         <v>7</v>
       </c>
       <c r="K457" s="4">
-        <v>39.33</v>
+        <v>19.2</v>
       </c>
       <c r="L457" s="5" t="s">
         <v>315</v>
@@ -14991,25 +14991,25 @@
     </row>
     <row r="458" spans="1:14">
       <c r="A458" s="4">
-        <v>4124277</v>
+        <v>1893814</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
       <c r="J458" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K458" s="4">
-        <v>255.0</v>
+        <v>3.8</v>
       </c>
       <c r="L458" s="5" t="s">
         <v>315</v>
@@ -15021,16 +15021,16 @@
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="4">
-        <v>5783738</v>
+        <v>7185499</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
@@ -15039,7 +15039,7 @@
         <v>7</v>
       </c>
       <c r="K459" s="4">
-        <v>31.56</v>
+        <v>39.33</v>
       </c>
       <c r="L459" s="5" t="s">
         <v>315</v>
@@ -15051,16 +15051,16 @@
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="4">
-        <v>10635688</v>
+        <v>4124277</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G460" s="4"/>
       <c r="H460" s="4"/>
@@ -15069,7 +15069,7 @@
         <v>7</v>
       </c>
       <c r="K460" s="4">
-        <v>898.3</v>
+        <v>255.0</v>
       </c>
       <c r="L460" s="5" t="s">
         <v>315</v>
@@ -15081,16 +15081,16 @@
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="4">
-        <v>7144066</v>
+        <v>5783738</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
@@ -15099,7 +15099,7 @@
         <v>7</v>
       </c>
       <c r="K461" s="4">
-        <v>513.33</v>
+        <v>31.56</v>
       </c>
       <c r="L461" s="5" t="s">
         <v>315</v>
@@ -15111,16 +15111,16 @@
     </row>
     <row r="462" spans="1:14">
       <c r="A462" s="4">
-        <v>1886834</v>
+        <v>10635688</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
@@ -15129,7 +15129,7 @@
         <v>7</v>
       </c>
       <c r="K462" s="4">
-        <v>218.75</v>
+        <v>898.3</v>
       </c>
       <c r="L462" s="5" t="s">
         <v>315</v>
@@ -15141,16 +15141,16 @@
     </row>
     <row r="463" spans="1:14">
       <c r="A463" s="4">
-        <v>7172461</v>
+        <v>7144066</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G463" s="4"/>
       <c r="H463" s="4"/>
@@ -15159,7 +15159,7 @@
         <v>7</v>
       </c>
       <c r="K463" s="4">
-        <v>19.2</v>
+        <v>513.33</v>
       </c>
       <c r="L463" s="5" t="s">
         <v>315</v>
@@ -15171,16 +15171,16 @@
     </row>
     <row r="464" spans="1:14">
       <c r="A464" s="4">
-        <v>5787275</v>
+        <v>7105285</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G464" s="4"/>
       <c r="H464" s="4"/>
@@ -15189,7 +15189,7 @@
         <v>7</v>
       </c>
       <c r="K464" s="4">
-        <v>1010.6</v>
+        <v>590.0</v>
       </c>
       <c r="L464" s="5" t="s">
         <v>318</v>
@@ -15201,10 +15201,10 @@
     </row>
     <row r="465" spans="1:14">
       <c r="A465" s="4">
-        <v>7103441</v>
+        <v>5787275</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
@@ -15219,7 +15219,7 @@
         <v>7</v>
       </c>
       <c r="K465" s="4">
-        <v>1480.0</v>
+        <v>1010.6</v>
       </c>
       <c r="L465" s="5" t="s">
         <v>318</v>
@@ -15231,10 +15231,10 @@
     </row>
     <row r="466" spans="1:14">
       <c r="A466" s="4">
-        <v>7172461</v>
+        <v>7103441</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
@@ -15249,7 +15249,7 @@
         <v>7</v>
       </c>
       <c r="K466" s="4">
-        <v>19.2</v>
+        <v>1480.0</v>
       </c>
       <c r="L466" s="5" t="s">
         <v>318</v>
@@ -15261,25 +15261,25 @@
     </row>
     <row r="467" spans="1:14">
       <c r="A467" s="4">
-        <v>1893814</v>
+        <v>7172461</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G467" s="4"/>
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
       <c r="J467" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K467" s="4">
-        <v>3.8</v>
+        <v>19.2</v>
       </c>
       <c r="L467" s="5" t="s">
         <v>318</v>
@@ -15291,25 +15291,25 @@
     </row>
     <row r="468" spans="1:14">
       <c r="A468" s="4">
-        <v>7185499</v>
+        <v>1893814</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
       <c r="J468" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K468" s="4">
-        <v>39.33</v>
+        <v>3.8</v>
       </c>
       <c r="L468" s="5" t="s">
         <v>318</v>
@@ -15321,10 +15321,10 @@
     </row>
     <row r="469" spans="1:14">
       <c r="A469" s="4">
-        <v>10644416</v>
+        <v>7185499</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
@@ -15339,7 +15339,7 @@
         <v>7</v>
       </c>
       <c r="K469" s="4">
-        <v>300.0</v>
+        <v>39.33</v>
       </c>
       <c r="L469" s="5" t="s">
         <v>318</v>
@@ -15351,16 +15351,16 @@
     </row>
     <row r="470" spans="1:14">
       <c r="A470" s="4">
-        <v>5783738</v>
+        <v>10644416</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
@@ -15369,7 +15369,7 @@
         <v>7</v>
       </c>
       <c r="K470" s="4">
-        <v>31.56</v>
+        <v>300.0</v>
       </c>
       <c r="L470" s="5" t="s">
         <v>318</v>
@@ -15381,16 +15381,16 @@
     </row>
     <row r="471" spans="1:14">
       <c r="A471" s="4">
-        <v>7105285</v>
+        <v>5783738</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G471" s="4"/>
       <c r="H471" s="4"/>
@@ -15399,7 +15399,7 @@
         <v>7</v>
       </c>
       <c r="K471" s="4">
-        <v>590.0</v>
+        <v>31.56</v>
       </c>
       <c r="L471" s="5" t="s">
         <v>318</v>
@@ -15411,25 +15411,25 @@
     </row>
     <row r="472" spans="1:14">
       <c r="A472" s="4">
-        <v>1893814</v>
+        <v>5037553</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
       <c r="J472" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K472" s="4">
-        <v>3.8</v>
+        <v>1603.3</v>
       </c>
       <c r="L472" s="5" t="s">
         <v>319</v>
@@ -15441,10 +15441,10 @@
     </row>
     <row r="473" spans="1:14">
       <c r="A473" s="4">
-        <v>5037553</v>
+        <v>1873728</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
@@ -15459,7 +15459,7 @@
         <v>7</v>
       </c>
       <c r="K473" s="4">
-        <v>1603.3</v>
+        <v>692.0</v>
       </c>
       <c r="L473" s="5" t="s">
         <v>319</v>
@@ -15471,10 +15471,10 @@
     </row>
     <row r="474" spans="1:14">
       <c r="A474" s="4">
-        <v>5783738</v>
+        <v>7172461</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -15489,7 +15489,7 @@
         <v>7</v>
       </c>
       <c r="K474" s="4">
-        <v>31.56</v>
+        <v>19.2</v>
       </c>
       <c r="L474" s="5" t="s">
         <v>319</v>
@@ -15501,25 +15501,25 @@
     </row>
     <row r="475" spans="1:14">
       <c r="A475" s="4">
-        <v>7185499</v>
+        <v>1893814</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
       <c r="J475" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K475" s="4">
-        <v>39.33</v>
+        <v>3.8</v>
       </c>
       <c r="L475" s="5" t="s">
         <v>319</v>
@@ -15531,10 +15531,10 @@
     </row>
     <row r="476" spans="1:14">
       <c r="A476" s="4">
-        <v>7259089</v>
+        <v>5783738</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
@@ -15549,7 +15549,7 @@
         <v>7</v>
       </c>
       <c r="K476" s="4">
-        <v>818.38</v>
+        <v>31.56</v>
       </c>
       <c r="L476" s="5" t="s">
         <v>319</v>
@@ -15561,16 +15561,16 @@
     </row>
     <row r="477" spans="1:14">
       <c r="A477" s="4">
-        <v>5506680</v>
+        <v>7185499</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
@@ -15579,7 +15579,7 @@
         <v>7</v>
       </c>
       <c r="K477" s="4">
-        <v>256.7</v>
+        <v>39.33</v>
       </c>
       <c r="L477" s="5" t="s">
         <v>319</v>
@@ -15591,16 +15591,16 @@
     </row>
     <row r="478" spans="1:14">
       <c r="A478" s="4">
-        <v>5783738</v>
+        <v>5506680</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G478" s="4"/>
       <c r="H478" s="4"/>
@@ -15609,7 +15609,7 @@
         <v>7</v>
       </c>
       <c r="K478" s="4">
-        <v>31.56</v>
+        <v>256.7</v>
       </c>
       <c r="L478" s="5" t="s">
         <v>319</v>
@@ -15651,10 +15651,10 @@
     </row>
     <row r="480" spans="1:14">
       <c r="A480" s="4">
-        <v>7172461</v>
+        <v>7259089</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
@@ -15669,7 +15669,7 @@
         <v>7</v>
       </c>
       <c r="K480" s="4">
-        <v>19.2</v>
+        <v>818.38</v>
       </c>
       <c r="L480" s="5" t="s">
         <v>319</v>
@@ -15681,16 +15681,16 @@
     </row>
     <row r="481" spans="1:14">
       <c r="A481" s="4">
-        <v>7109398</v>
+        <v>5783738</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G481" s="4"/>
       <c r="H481" s="4"/>
@@ -15699,7 +15699,7 @@
         <v>7</v>
       </c>
       <c r="K481" s="4">
-        <v>2869.76</v>
+        <v>31.56</v>
       </c>
       <c r="L481" s="5" t="s">
         <v>319</v>
@@ -15711,10 +15711,10 @@
     </row>
     <row r="482" spans="1:14">
       <c r="A482" s="4">
-        <v>1893814</v>
+        <v>7106747</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
@@ -15726,10 +15726,10 @@
       <c r="H482" s="4"/>
       <c r="I482" s="4"/>
       <c r="J482" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K482" s="4">
-        <v>3.8</v>
+        <v>340.0</v>
       </c>
       <c r="L482" s="5" t="s">
         <v>319</v>
@@ -15741,16 +15741,16 @@
     </row>
     <row r="483" spans="1:14">
       <c r="A483" s="4">
-        <v>7106747</v>
+        <v>7172461</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G483" s="4"/>
       <c r="H483" s="4"/>
@@ -15759,7 +15759,7 @@
         <v>7</v>
       </c>
       <c r="K483" s="4">
-        <v>340.0</v>
+        <v>19.2</v>
       </c>
       <c r="L483" s="5" t="s">
         <v>319</v>
@@ -15771,25 +15771,25 @@
     </row>
     <row r="484" spans="1:14">
       <c r="A484" s="4">
-        <v>1873728</v>
+        <v>1893814</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>193</v>
+        <v>314</v>
       </c>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G484" s="4"/>
       <c r="H484" s="4"/>
       <c r="I484" s="4"/>
       <c r="J484" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K484" s="4">
-        <v>692.0</v>
+        <v>3.8</v>
       </c>
       <c r="L484" s="5" t="s">
         <v>319</v>
@@ -15801,16 +15801,16 @@
     </row>
     <row r="485" spans="1:14">
       <c r="A485" s="4">
-        <v>7172461</v>
+        <v>7109398</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G485" s="4"/>
       <c r="H485" s="4"/>
@@ -15819,7 +15819,7 @@
         <v>7</v>
       </c>
       <c r="K485" s="4">
-        <v>19.2</v>
+        <v>2869.76</v>
       </c>
       <c r="L485" s="5" t="s">
         <v>319</v>
@@ -15831,10 +15831,10 @@
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="4">
-        <v>4143978</v>
+        <v>5783738</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
@@ -15849,7 +15849,7 @@
         <v>7</v>
       </c>
       <c r="K486" s="4">
-        <v>250.0</v>
+        <v>31.56</v>
       </c>
       <c r="L486" s="5" t="s">
         <v>321</v>
@@ -15861,16 +15861,16 @@
     </row>
     <row r="487" spans="1:14">
       <c r="A487" s="4">
-        <v>7136623</v>
+        <v>7185499</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G487" s="4"/>
       <c r="H487" s="4"/>
@@ -15879,7 +15879,7 @@
         <v>7</v>
       </c>
       <c r="K487" s="4">
-        <v>770.0</v>
+        <v>39.33</v>
       </c>
       <c r="L487" s="5" t="s">
         <v>321</v>
@@ -15891,10 +15891,10 @@
     </row>
     <row r="488" spans="1:14">
       <c r="A488" s="4">
-        <v>7172461</v>
+        <v>4143978</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
@@ -15909,7 +15909,7 @@
         <v>7</v>
       </c>
       <c r="K488" s="4">
-        <v>19.2</v>
+        <v>250.0</v>
       </c>
       <c r="L488" s="5" t="s">
         <v>321</v>
@@ -15921,16 +15921,16 @@
     </row>
     <row r="489" spans="1:14">
       <c r="A489" s="4">
-        <v>7212958</v>
+        <v>5232977</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="G489" s="4"/>
       <c r="H489" s="4"/>
@@ -15939,7 +15939,7 @@
         <v>7</v>
       </c>
       <c r="K489" s="4">
-        <v>1059.08</v>
+        <v>1726.7</v>
       </c>
       <c r="L489" s="5" t="s">
         <v>321</v>
@@ -15951,25 +15951,25 @@
     </row>
     <row r="490" spans="1:14">
       <c r="A490" s="4">
-        <v>1893814</v>
+        <v>7136623</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G490" s="4"/>
       <c r="H490" s="4"/>
       <c r="I490" s="4"/>
       <c r="J490" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K490" s="4">
-        <v>3.8</v>
+        <v>770.0</v>
       </c>
       <c r="L490" s="5" t="s">
         <v>321</v>
@@ -15981,16 +15981,16 @@
     </row>
     <row r="491" spans="1:14">
       <c r="A491" s="4">
-        <v>5232977</v>
+        <v>7172461</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="G491" s="4"/>
       <c r="H491" s="4"/>
@@ -15999,7 +15999,7 @@
         <v>7</v>
       </c>
       <c r="K491" s="4">
-        <v>1726.7</v>
+        <v>19.2</v>
       </c>
       <c r="L491" s="5" t="s">
         <v>321</v>
@@ -16011,16 +16011,16 @@
     </row>
     <row r="492" spans="1:14">
       <c r="A492" s="4">
-        <v>7185499</v>
+        <v>7212958</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G492" s="4"/>
       <c r="H492" s="4"/>
@@ -16029,7 +16029,7 @@
         <v>7</v>
       </c>
       <c r="K492" s="4">
-        <v>39.33</v>
+        <v>1059.08</v>
       </c>
       <c r="L492" s="5" t="s">
         <v>321</v>
@@ -16044,7 +16044,7 @@
         <v>1836015</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
@@ -16071,25 +16071,25 @@
     </row>
     <row r="494" spans="1:14">
       <c r="A494" s="4">
-        <v>1899092</v>
+        <v>1893814</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G494" s="4"/>
       <c r="H494" s="4"/>
       <c r="I494" s="4"/>
       <c r="J494" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K494" s="4">
-        <v>770.0</v>
+        <v>3.8</v>
       </c>
       <c r="L494" s="5" t="s">
         <v>321</v>
@@ -16131,16 +16131,16 @@
     </row>
     <row r="496" spans="1:14">
       <c r="A496" s="4">
-        <v>12381291</v>
+        <v>7185499</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
@@ -16149,7 +16149,7 @@
         <v>7</v>
       </c>
       <c r="K496" s="4">
-        <v>898.3</v>
+        <v>39.33</v>
       </c>
       <c r="L496" s="5" t="s">
         <v>321</v>
@@ -16161,10 +16161,10 @@
     </row>
     <row r="497" spans="1:14">
       <c r="A497" s="4">
-        <v>5684823</v>
+        <v>1899092</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
@@ -16179,7 +16179,7 @@
         <v>7</v>
       </c>
       <c r="K497" s="4">
-        <v>665.0</v>
+        <v>770.0</v>
       </c>
       <c r="L497" s="5" t="s">
         <v>321</v>
@@ -16191,16 +16191,16 @@
     </row>
     <row r="498" spans="1:14">
       <c r="A498" s="4">
-        <v>5008907</v>
+        <v>12381291</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4" t="s">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="G498" s="4"/>
       <c r="H498" s="4"/>
@@ -16209,7 +16209,7 @@
         <v>7</v>
       </c>
       <c r="K498" s="4">
-        <v>2310.0</v>
+        <v>898.3</v>
       </c>
       <c r="L498" s="5" t="s">
         <v>321</v>
@@ -16221,10 +16221,10 @@
     </row>
     <row r="499" spans="1:14">
       <c r="A499" s="4">
-        <v>5783738</v>
+        <v>5684823</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
@@ -16239,7 +16239,7 @@
         <v>7</v>
       </c>
       <c r="K499" s="4">
-        <v>31.56</v>
+        <v>665.0</v>
       </c>
       <c r="L499" s="5" t="s">
         <v>321</v>
@@ -16251,16 +16251,16 @@
     </row>
     <row r="500" spans="1:14">
       <c r="A500" s="4">
-        <v>7185499</v>
+        <v>5008907</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="G500" s="4"/>
       <c r="H500" s="4"/>
@@ -16269,7 +16269,7 @@
         <v>7</v>
       </c>
       <c r="K500" s="4">
-        <v>39.33</v>
+        <v>2310.0</v>
       </c>
       <c r="L500" s="5" t="s">
         <v>321</v>
@@ -16281,16 +16281,16 @@
     </row>
     <row r="501" spans="1:14">
       <c r="A501" s="4">
-        <v>5783738</v>
+        <v>7185499</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G501" s="4"/>
       <c r="H501" s="4"/>
@@ -16299,7 +16299,7 @@
         <v>7</v>
       </c>
       <c r="K501" s="4">
-        <v>31.56</v>
+        <v>39.33</v>
       </c>
       <c r="L501" s="5" t="s">
         <v>322</v>
@@ -16311,10 +16311,10 @@
     </row>
     <row r="502" spans="1:14">
       <c r="A502" s="4">
-        <v>7172461</v>
+        <v>5783738</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
@@ -16329,7 +16329,7 @@
         <v>7</v>
       </c>
       <c r="K502" s="4">
-        <v>19.2</v>
+        <v>31.56</v>
       </c>
       <c r="L502" s="5" t="s">
         <v>322</v>
@@ -16341,16 +16341,16 @@
     </row>
     <row r="503" spans="1:14">
       <c r="A503" s="4">
-        <v>1884070</v>
+        <v>7172461</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G503" s="4"/>
       <c r="H503" s="4"/>
@@ -16359,7 +16359,7 @@
         <v>7</v>
       </c>
       <c r="K503" s="4">
-        <v>641.7</v>
+        <v>19.2</v>
       </c>
       <c r="L503" s="5" t="s">
         <v>322</v>
@@ -16371,25 +16371,25 @@
     </row>
     <row r="504" spans="1:14">
       <c r="A504" s="4">
-        <v>1893814</v>
+        <v>1884070</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G504" s="4"/>
       <c r="H504" s="4"/>
       <c r="I504" s="4"/>
       <c r="J504" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K504" s="4">
-        <v>3.8</v>
+        <v>641.7</v>
       </c>
       <c r="L504" s="5" t="s">
         <v>322</v>
@@ -16431,25 +16431,25 @@
     </row>
     <row r="506" spans="1:14">
       <c r="A506" s="4">
-        <v>7228075</v>
+        <v>1893814</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G506" s="4"/>
       <c r="H506" s="4"/>
       <c r="I506" s="4"/>
       <c r="J506" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K506" s="4">
-        <v>320.83</v>
+        <v>3.8</v>
       </c>
       <c r="L506" s="5" t="s">
         <v>322</v>
@@ -16461,10 +16461,10 @@
     </row>
     <row r="507" spans="1:14">
       <c r="A507" s="4">
-        <v>1836215</v>
+        <v>7228075</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
@@ -16479,7 +16479,7 @@
         <v>7</v>
       </c>
       <c r="K507" s="4">
-        <v>192.5</v>
+        <v>320.83</v>
       </c>
       <c r="L507" s="5" t="s">
         <v>322</v>
@@ -16491,16 +16491,16 @@
     </row>
     <row r="508" spans="1:14">
       <c r="A508" s="4">
-        <v>7185499</v>
+        <v>1836215</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G508" s="4"/>
       <c r="H508" s="4"/>
@@ -16509,7 +16509,7 @@
         <v>7</v>
       </c>
       <c r="K508" s="4">
-        <v>39.33</v>
+        <v>192.5</v>
       </c>
       <c r="L508" s="5" t="s">
         <v>322</v>
@@ -16521,25 +16521,25 @@
     </row>
     <row r="509" spans="1:14">
       <c r="A509" s="4">
-        <v>1893814</v>
+        <v>7172461</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G509" s="4"/>
       <c r="H509" s="4"/>
       <c r="I509" s="4"/>
       <c r="J509" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K509" s="4">
-        <v>3.8</v>
+        <v>19.2</v>
       </c>
       <c r="L509" s="5" t="s">
         <v>323</v>
@@ -16551,25 +16551,25 @@
     </row>
     <row r="510" spans="1:14">
       <c r="A510" s="4">
-        <v>7113724</v>
+        <v>1893814</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
       <c r="I510" s="4"/>
       <c r="J510" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K510" s="4">
-        <v>680.0</v>
+        <v>3.8</v>
       </c>
       <c r="L510" s="5" t="s">
         <v>323</v>
@@ -16581,10 +16581,10 @@
     </row>
     <row r="511" spans="1:14">
       <c r="A511" s="4">
-        <v>7185499</v>
+        <v>7113724</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
@@ -16599,7 +16599,7 @@
         <v>7</v>
       </c>
       <c r="K511" s="4">
-        <v>39.33</v>
+        <v>680.0</v>
       </c>
       <c r="L511" s="5" t="s">
         <v>323</v>
@@ -16611,16 +16611,16 @@
     </row>
     <row r="512" spans="1:14">
       <c r="A512" s="4">
-        <v>7211060</v>
+        <v>7185499</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G512" s="4"/>
       <c r="H512" s="4"/>
@@ -16629,7 +16629,7 @@
         <v>7</v>
       </c>
       <c r="K512" s="4">
-        <v>892.5</v>
+        <v>39.33</v>
       </c>
       <c r="L512" s="5" t="s">
         <v>323</v>
@@ -16641,16 +16641,16 @@
     </row>
     <row r="513" spans="1:14">
       <c r="A513" s="4">
-        <v>5783738</v>
+        <v>7211060</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G513" s="4"/>
       <c r="H513" s="4"/>
@@ -16659,7 +16659,7 @@
         <v>7</v>
       </c>
       <c r="K513" s="4">
-        <v>31.56</v>
+        <v>892.5</v>
       </c>
       <c r="L513" s="5" t="s">
         <v>323</v>
@@ -16671,16 +16671,16 @@
     </row>
     <row r="514" spans="1:14">
       <c r="A514" s="4">
-        <v>7203812</v>
+        <v>5783738</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G514" s="4"/>
       <c r="H514" s="4"/>
@@ -16689,7 +16689,7 @@
         <v>7</v>
       </c>
       <c r="K514" s="4">
-        <v>260.48</v>
+        <v>31.56</v>
       </c>
       <c r="L514" s="5" t="s">
         <v>323</v>
@@ -16701,16 +16701,16 @@
     </row>
     <row r="515" spans="1:14">
       <c r="A515" s="4">
-        <v>1848994</v>
+        <v>7203812</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
@@ -16719,7 +16719,7 @@
         <v>7</v>
       </c>
       <c r="K515" s="4">
-        <v>1180.0</v>
+        <v>260.48</v>
       </c>
       <c r="L515" s="5" t="s">
         <v>323</v>
@@ -16731,10 +16731,10 @@
     </row>
     <row r="516" spans="1:14">
       <c r="A516" s="4">
-        <v>7172461</v>
+        <v>1848994</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
@@ -16749,7 +16749,7 @@
         <v>7</v>
       </c>
       <c r="K516" s="4">
-        <v>19.2</v>
+        <v>1180.0</v>
       </c>
       <c r="L516" s="5" t="s">
         <v>323</v>

--- a/public/week_data.xlsx
+++ b/public/week_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
   <si>
     <t>USUARIO ORLANDO BEJARANO FERNANDEZ</t>
   </si>
@@ -209,15 +209,15 @@
     <t>ROBERT PABLO SANCHEZ TAPIA</t>
   </si>
   <si>
+    <t>GONZALO ANTEZANO RAMOS</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
     <t>MARIA MAYDA TITIZANO JEREZ</t>
   </si>
   <si>
-    <t>2022-05-17</t>
-  </si>
-  <si>
-    <t>GONZALO ANTEZANO RAMOS</t>
-  </si>
-  <si>
     <t>2022-05-18</t>
   </si>
   <si>
@@ -260,12 +260,12 @@
     <t>2022-06-15</t>
   </si>
   <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
     <t>JHONNY GABRIEL ONTIVEROS RASGUIDO</t>
   </si>
   <si>
-    <t>2022-06-16</t>
-  </si>
-  <si>
     <t>2022-06-17</t>
   </si>
   <si>
@@ -281,12 +281,12 @@
     <t>2022-06-27</t>
   </si>
   <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
     <t>LUIS ALFREDO CHOQUE REYNOSO</t>
   </si>
   <si>
-    <t>2022-06-28</t>
-  </si>
-  <si>
     <t>JESUS CASTILLO CASTRO</t>
   </si>
   <si>
@@ -323,12 +323,12 @@
     <t>2022-07-08</t>
   </si>
   <si>
+    <t>2022-07-09</t>
+  </si>
+  <si>
     <t>PAOLA PATRICIA CAMPERO</t>
   </si>
   <si>
-    <t>2022-07-09</t>
-  </si>
-  <si>
     <t>2022-07-11</t>
   </si>
   <si>
@@ -344,21 +344,21 @@
     <t>2022-07-16</t>
   </si>
   <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
     <t>CRISTIAN OLIVER RAMOS VELIZ</t>
   </si>
   <si>
-    <t>2022-07-18</t>
-  </si>
-  <si>
     <t>2022-07-19</t>
   </si>
   <si>
+    <t>CAROLINA PAOLA GALEAN</t>
+  </si>
+  <si>
     <t>2022-07-20</t>
   </si>
   <si>
-    <t>CAROLINA PAOLA GALEAN</t>
-  </si>
-  <si>
     <t>CELESTE NARELLA ROCHA ALARCON</t>
   </si>
   <si>
@@ -371,33 +371,33 @@
     <t>2022-07-23</t>
   </si>
   <si>
+    <t>2022-07-26</t>
+  </si>
+  <si>
     <t>ANA MARIA SARMIENTO</t>
   </si>
   <si>
-    <t>2022-07-26</t>
-  </si>
-  <si>
     <t>2022-07-27</t>
   </si>
   <si>
     <t>2022-07-28</t>
   </si>
   <si>
+    <t>2022-07-30</t>
+  </si>
+  <si>
     <t>POLONIA JEREZ RUEDA</t>
   </si>
   <si>
-    <t>2022-07-30</t>
-  </si>
-  <si>
     <t>2022-08-01</t>
   </si>
   <si>
+    <t>ELIANA ELIZABETH PACHECO CHOQUE</t>
+  </si>
+  <si>
     <t>2022-08-02</t>
   </si>
   <si>
-    <t>ELIANA ELIZABETH PACHECO CHOQUE</t>
-  </si>
-  <si>
     <t>2022-08-03</t>
   </si>
   <si>
@@ -437,10 +437,16 @@
     <t>2022-08-18</t>
   </si>
   <si>
+    <t>NOEMI LILA LOPEZ CANEDO</t>
+  </si>
+  <si>
     <t>2022-08-19</t>
   </si>
   <si>
-    <t>NOEMI LILA LOPEZ CANEDO</t>
+    <t>SABINO CHOQUE</t>
+  </si>
+  <si>
+    <t>2022-08-20</t>
   </si>
   <si>
     <t>ANA LIA GARCIA MEDRANO</t>
@@ -449,21 +455,15 @@
     <t>SR. ADALID ALFREDO ZEBALLOS TEJERINA</t>
   </si>
   <si>
-    <t>2022-08-20</t>
-  </si>
-  <si>
-    <t>SABINO CHOQUE</t>
-  </si>
-  <si>
     <t>2022-08-23</t>
   </si>
   <si>
+    <t>WALTER LUCAS PIMENTEL LAURA</t>
+  </si>
+  <si>
     <t>2022-08-24</t>
   </si>
   <si>
-    <t>WALTER LUCAS PIMENTEL LAURA</t>
-  </si>
-  <si>
     <t>2022-08-25</t>
   </si>
   <si>
@@ -494,12 +494,12 @@
     <t>2022-09-05</t>
   </si>
   <si>
+    <t>FIDEL FALON GALEAN</t>
+  </si>
+  <si>
     <t>2022-09-06</t>
   </si>
   <si>
-    <t>FIDEL FALON GALEAN</t>
-  </si>
-  <si>
     <t>2022-09-07</t>
   </si>
   <si>
@@ -515,18 +515,18 @@
     <t>2022-09-10</t>
   </si>
   <si>
+    <t>2022-09-13</t>
+  </si>
+  <si>
     <t>LUCIA ISABEL ROMERO FARFAN</t>
   </si>
   <si>
-    <t>2022-09-13</t>
+    <t>MARIBEL CASTILLO MELA</t>
   </si>
   <si>
     <t>2022-09-14</t>
   </si>
   <si>
-    <t>MARIBEL CASTILLO MELA</t>
-  </si>
-  <si>
     <t>2022-09-15</t>
   </si>
   <si>
@@ -557,12 +557,12 @@
     <t>2022-09-23</t>
   </si>
   <si>
+    <t>KARINA CASTILLO CARDOZO</t>
+  </si>
+  <si>
     <t>2022-09-24</t>
   </si>
   <si>
-    <t>KARINA CASTILLO CARDOZO</t>
-  </si>
-  <si>
     <t>ROLY ALEJANDRO VELASCO VACA</t>
   </si>
   <si>
@@ -587,57 +587,57 @@
     <t>BARBARITA CRISTINA ZENTENO MARISCAL</t>
   </si>
   <si>
+    <t>LILIANA TORRICO ROMERO DE CONDORI</t>
+  </si>
+  <si>
     <t>2022-09-30</t>
   </si>
   <si>
     <t>CYNTIA YOVANA VELASCO VACA</t>
   </si>
   <si>
-    <t>LILIANA TORRICO ROMERO DE CONDORI</t>
+    <t>2022-10-01</t>
   </si>
   <si>
     <t>TATIANA TRUJILLO VASQUEZ</t>
   </si>
   <si>
-    <t>2022-10-01</t>
-  </si>
-  <si>
     <t>2022-10-03</t>
   </si>
   <si>
+    <t>2022-10-04</t>
+  </si>
+  <si>
+    <t>BERTHA CUEVAS FLORES</t>
+  </si>
+  <si>
     <t>MARIA JOSE FLORES TORREZ</t>
   </si>
   <si>
-    <t>2022-10-04</t>
-  </si>
-  <si>
-    <t>BERTHA CUEVAS FLORES</t>
-  </si>
-  <si>
     <t>2022-10-05</t>
   </si>
   <si>
+    <t>GABRIELA PATRICIA CASTILLO TOLABA</t>
+  </si>
+  <si>
+    <t>2022-10-06</t>
+  </si>
+  <si>
     <t>RENE COLQUECHAMBI FLORES</t>
   </si>
   <si>
-    <t>2022-10-06</t>
-  </si>
-  <si>
-    <t>GABRIELA PATRICIA CASTILLO TOLABA</t>
+    <t>NESTOR JOSE ANDRADE ZAPATA</t>
+  </si>
+  <si>
+    <t>2022-10-07</t>
   </si>
   <si>
     <t>YOLANDA FLORES AYARDE</t>
   </si>
   <si>
-    <t>2022-10-07</t>
-  </si>
-  <si>
     <t>ROSA ELENA GARECA ACOSTA</t>
   </si>
   <si>
-    <t>NESTOR JOSE ANDRADE ZAPATA</t>
-  </si>
-  <si>
     <t>2022-10-08</t>
   </si>
   <si>
@@ -650,15 +650,15 @@
     <t>2022-10-10</t>
   </si>
   <si>
+    <t>2022-10-11</t>
+  </si>
+  <si>
     <t>KATHIA BELEN RAMIREZ QUISPE</t>
   </si>
   <si>
     <t>ING. RUSSETT RODRIGUEZ VELIZ</t>
   </si>
   <si>
-    <t>2022-10-11</t>
-  </si>
-  <si>
     <t>MARIANA NOEMI RIOS MENDOZA</t>
   </si>
   <si>
@@ -683,12 +683,12 @@
     <t>MARISOL DANIELA RAMOS</t>
   </si>
   <si>
+    <t>2022-10-18</t>
+  </si>
+  <si>
     <t>LEONOR ARENAS TOLABA</t>
   </si>
   <si>
-    <t>2022-10-18</t>
-  </si>
-  <si>
     <t>2022-10-19</t>
   </si>
   <si>
@@ -698,18 +698,18 @@
     <t xml:space="preserve"> PRUEBA PRUEBA</t>
   </si>
   <si>
+    <t>2022-10-20</t>
+  </si>
+  <si>
     <t>DAYSI CUELLAR SAGREDO</t>
   </si>
   <si>
-    <t>2022-10-20</t>
+    <t>2022-10-21</t>
   </si>
   <si>
     <t>RUTH MARIBEL ANDRADE ZAPATA</t>
   </si>
   <si>
-    <t>2022-10-21</t>
-  </si>
-  <si>
     <t>FIDEL FABIAN GARECA ACOSTA</t>
   </si>
   <si>
@@ -719,42 +719,42 @@
     <t>2022-10-24</t>
   </si>
   <si>
+    <t>YOSHIMAR MENDIETA ROCA</t>
+  </si>
+  <si>
     <t>2022-10-25</t>
   </si>
   <si>
+    <t>MARIA LOURDES VACA RAMOS DE VELASCO</t>
+  </si>
+  <si>
+    <t>MARIA DEL ROSARIO RIOS VALDEZ</t>
+  </si>
+  <si>
     <t>JAQUELINE TEODORA MAULLCU CONDORI</t>
   </si>
   <si>
-    <t>YOSHIMAR MENDIETA ROCA</t>
-  </si>
-  <si>
-    <t>MARIA DEL ROSARIO RIOS VALDEZ</t>
-  </si>
-  <si>
-    <t>MARIA LOURDES VACA RAMOS DE VELASCO</t>
-  </si>
-  <si>
     <t>2022-10-26</t>
   </si>
   <si>
     <t>2022-10-27</t>
   </si>
   <si>
+    <t>2022-10-28</t>
+  </si>
+  <si>
     <t>LUIS FERNANDO NIEVES MARQUEZ</t>
   </si>
   <si>
-    <t>2022-10-28</t>
-  </si>
-  <si>
     <t>NELSON RICARDO AGUERO ROJAS</t>
   </si>
   <si>
+    <t>EMELDA ARMELLA SOLIZ</t>
+  </si>
+  <si>
     <t>2022-10-29</t>
   </si>
   <si>
-    <t>EMELDA ARMELLA SOLIZ</t>
-  </si>
-  <si>
     <t>2022-10-31</t>
   </si>
   <si>
@@ -767,12 +767,12 @@
     <t>2022-11-01</t>
   </si>
   <si>
+    <t>HILDA ELVA CASTRILLO PIZARRO VDA. DE GAMBARTE</t>
+  </si>
+  <si>
     <t>CRISTHIAN HAROLD ROCHA MENDEZ</t>
   </si>
   <si>
-    <t>HILDA ELVA CASTRILLO PIZARRO VDA. DE GAMBARTE</t>
-  </si>
-  <si>
     <t>2022-11-02</t>
   </si>
   <si>
@@ -806,18 +806,18 @@
     <t>2022-11-08</t>
   </si>
   <si>
+    <t>MAXIMA BANEGAS ENCINAS</t>
+  </si>
+  <si>
     <t>SERGIO DANIEL GUERRERO ARENAS</t>
   </si>
   <si>
-    <t>MAXIMA BANEGAS ENCINAS</t>
+    <t>DIEGO GUSTAVO GARECA BALDERAS</t>
   </si>
   <si>
     <t>2022-11-09</t>
   </si>
   <si>
-    <t>DIEGO GUSTAVO GARECA BALDERAS</t>
-  </si>
-  <si>
     <t>2022-11-10</t>
   </si>
   <si>
@@ -830,63 +830,63 @@
     <t>MARIO SOSSA VASQUEZ</t>
   </si>
   <si>
+    <t>JUANA ESTHER MICHEL CRUZ</t>
+  </si>
+  <si>
     <t>2022-11-12</t>
   </si>
   <si>
     <t>MARCO ANTONIO LOPEZ ZARATE</t>
   </si>
   <si>
-    <t>JUANA ESTHER MICHEL CRUZ</t>
-  </si>
-  <si>
     <t>2022-11-14</t>
   </si>
   <si>
+    <t>LOURDES PADILLA</t>
+  </si>
+  <si>
     <t>2022-11-15</t>
   </si>
   <si>
-    <t>LOURDES PADILLA</t>
-  </si>
-  <si>
     <t>PALMIRA BUTRON TABOADA</t>
   </si>
   <si>
+    <t>MARIZOL MARTINEZ COCA</t>
+  </si>
+  <si>
     <t>2022-11-16</t>
   </si>
   <si>
     <t>VICTOR HUGO CAMARGO</t>
   </si>
   <si>
-    <t>MARIZOL MARTINEZ COCA</t>
+    <t>YESSICA PAMELA TRIGO RUIZ</t>
   </si>
   <si>
     <t>2022-11-17</t>
   </si>
   <si>
-    <t>YESSICA PAMELA TRIGO RUIZ</t>
-  </si>
-  <si>
     <t>2022-11-18</t>
   </si>
   <si>
+    <t>JINMY WILSON SAAVEDRA CHIPANA</t>
+  </si>
+  <si>
+    <t>2022-11-19</t>
+  </si>
+  <si>
+    <t>ELIZABETH ROMINA TORRICO DE LA VEGA</t>
+  </si>
+  <si>
+    <t>ALVARO GONZALO ROMERO ROMERO</t>
+  </si>
+  <si>
+    <t>MIRKA LARA VILCA</t>
+  </si>
+  <si>
     <t>SANTOS RODOLFO FERNANDEZ CHAUQUE</t>
   </si>
   <si>
-    <t>2022-11-19</t>
-  </si>
-  <si>
-    <t>JINMY WILSON SAAVEDRA CHIPANA</t>
-  </si>
-  <si>
-    <t>MIRKA LARA VILCA</t>
-  </si>
-  <si>
-    <t>ALVARO GONZALO ROMERO ROMERO</t>
-  </si>
-  <si>
-    <t>ELIZABETH ROMINA TORRICO DE LA VEGA</t>
-  </si>
-  <si>
     <t>2022-11-21</t>
   </si>
   <si>
@@ -914,12 +914,12 @@
     <t>LUIS FERNANDO PADILLA MARTINEZ</t>
   </si>
   <si>
+    <t>CLAUDIA ELIZABETH FLORES ESTRADA</t>
+  </si>
+  <si>
     <t>WILBER ALVARO GARCIA PADILLA</t>
   </si>
   <si>
-    <t>CLAUDIA ELIZABETH FLORES ESTRADA</t>
-  </si>
-  <si>
     <t>2022-11-25</t>
   </si>
   <si>
@@ -927,6 +927,9 @@
   </si>
   <si>
     <t>2022-11-26</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
   </si>
   <si>
     <t xml:space="preserve">FILTRO: </t>
@@ -1392,10 +1395,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N471"/>
+  <dimension ref="A1:N476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B471" sqref="B471"/>
+      <selection activeCell="B476" sqref="B476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1432,16 +1435,16 @@
         <v>7</v>
       </c>
       <c r="K6" s="4">
-        <v>269324.66</v>
+        <v>275040.49</v>
       </c>
       <c r="L6" s="4">
-        <v>5715.83</v>
+        <v>3715.58</v>
       </c>
       <c r="M6" s="4">
-        <v>24085.97</v>
+        <v>22591.47</v>
       </c>
       <c r="N6" s="4">
-        <v>299126.46</v>
+        <v>301347.54</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2226,16 +2229,16 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="4">
-        <v>5815577</v>
+        <v>5056800</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2244,7 +2247,7 @@
         <v>7</v>
       </c>
       <c r="K34" s="4">
-        <v>475.0</v>
+        <v>449.2</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>51</v>
@@ -2256,16 +2259,16 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="4">
-        <v>5056800</v>
+        <v>5815577</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2274,7 +2277,7 @@
         <v>7</v>
       </c>
       <c r="K35" s="4">
-        <v>449.2</v>
+        <v>475.0</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>51</v>
@@ -2466,16 +2469,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="4">
-        <v>10628171</v>
+        <v>5787673</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2484,7 +2487,7 @@
         <v>7</v>
       </c>
       <c r="K42" s="4">
-        <v>340.0</v>
+        <v>1190.0</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>59</v>
@@ -2496,16 +2499,16 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="4">
-        <v>5787673</v>
+        <v>10628171</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -2514,7 +2517,7 @@
         <v>7</v>
       </c>
       <c r="K43" s="4">
-        <v>1190.0</v>
+        <v>340.0</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>59</v>
@@ -2676,7 +2679,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="4">
-        <v>7217197</v>
+        <v>7259747</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>64</v>
@@ -2685,7 +2688,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2694,7 +2697,7 @@
         <v>7</v>
       </c>
       <c r="K49" s="4">
-        <v>250.0</v>
+        <v>513.3</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>65</v>
@@ -2706,7 +2709,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="4">
-        <v>7259747</v>
+        <v>7217197</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>66</v>
@@ -2715,7 +2718,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2724,7 +2727,7 @@
         <v>7</v>
       </c>
       <c r="K50" s="4">
-        <v>513.3</v>
+        <v>250.0</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>65</v>
@@ -2829,7 +2832,7 @@
         <v>7259747</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2856,16 +2859,16 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="4">
-        <v>5787673</v>
+        <v>5784526</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2874,7 +2877,7 @@
         <v>7</v>
       </c>
       <c r="K55" s="4">
-        <v>1190.0</v>
+        <v>498.1</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>70</v>
@@ -2886,16 +2889,16 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="4">
-        <v>5784526</v>
+        <v>5787673</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -2904,7 +2907,7 @@
         <v>7</v>
       </c>
       <c r="K56" s="4">
-        <v>498.1</v>
+        <v>1190.0</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>70</v>
@@ -2916,10 +2919,10 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="4">
-        <v>5815577</v>
+        <v>7259747</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2934,7 +2937,7 @@
         <v>7</v>
       </c>
       <c r="K57" s="4">
-        <v>475.0</v>
+        <v>513.3</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>71</v>
@@ -3006,10 +3009,10 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="4">
-        <v>7259747</v>
+        <v>5815577</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -3024,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="K60" s="4">
-        <v>513.3</v>
+        <v>475.0</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>71</v>
@@ -3036,10 +3039,10 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="4">
-        <v>7217197</v>
+        <v>5784526</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -3054,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="K61" s="4">
-        <v>950.0</v>
+        <v>498.1</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>72</v>
@@ -3066,10 +3069,10 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="4">
-        <v>5784526</v>
+        <v>7217197</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -3084,7 +3087,7 @@
         <v>7</v>
       </c>
       <c r="K62" s="4">
-        <v>498.1</v>
+        <v>950.0</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>72</v>
@@ -3126,16 +3129,16 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="4">
-        <v>7259747</v>
+        <v>10628171</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3144,7 +3147,7 @@
         <v>7</v>
       </c>
       <c r="K64" s="4">
-        <v>513.3</v>
+        <v>340.0</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>74</v>
@@ -3156,16 +3159,16 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="4">
-        <v>10628171</v>
+        <v>7259747</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -3174,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="K65" s="4">
-        <v>340.0</v>
+        <v>513.3</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>74</v>
@@ -3309,7 +3312,7 @@
         <v>7259747</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3396,16 +3399,16 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="4">
-        <v>14177626</v>
+        <v>7217197</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -3414,10 +3417,10 @@
         <v>7</v>
       </c>
       <c r="K73" s="4">
-        <v>385.0</v>
+        <v>950.0</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="6" t="s">
@@ -3426,16 +3429,16 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="4">
-        <v>7217197</v>
+        <v>14177626</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -3444,10 +3447,10 @@
         <v>7</v>
       </c>
       <c r="K74" s="4">
-        <v>950.0</v>
+        <v>385.0</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="6" t="s">
@@ -3489,7 +3492,7 @@
         <v>7259747</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3576,16 +3579,16 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="4">
-        <v>7155107</v>
+        <v>5815577</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -3594,10 +3597,10 @@
         <v>7</v>
       </c>
       <c r="K79" s="4">
-        <v>256.7</v>
+        <v>475.0</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="6" t="s">
@@ -3606,16 +3609,16 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="4">
-        <v>7259747</v>
+        <v>7155107</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -3624,10 +3627,10 @@
         <v>7</v>
       </c>
       <c r="K80" s="4">
-        <v>513.3</v>
+        <v>256.7</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="6" t="s">
@@ -3636,10 +3639,10 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="4">
-        <v>5815577</v>
+        <v>7259747</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3654,10 +3657,10 @@
         <v>7</v>
       </c>
       <c r="K81" s="4">
-        <v>475.0</v>
+        <v>513.3</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="6" t="s">
@@ -3726,16 +3729,16 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="4">
-        <v>14177626</v>
+        <v>7217197</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -3744,7 +3747,7 @@
         <v>7</v>
       </c>
       <c r="K84" s="4">
-        <v>385.0</v>
+        <v>950.0</v>
       </c>
       <c r="L84" s="5" t="s">
         <v>93</v>
@@ -3756,16 +3759,16 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="4">
-        <v>7217197</v>
+        <v>14177626</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -3774,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="K85" s="4">
-        <v>950.0</v>
+        <v>385.0</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>93</v>
@@ -3849,7 +3852,7 @@
         <v>7155107</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3879,7 +3882,7 @@
         <v>7259747</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3996,16 +3999,16 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="4">
-        <v>1860839</v>
+        <v>7127438</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -4014,10 +4017,10 @@
         <v>7</v>
       </c>
       <c r="K93" s="4">
-        <v>83.0</v>
+        <v>898.3</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="6" t="s">
@@ -4026,16 +4029,16 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="4">
-        <v>7127438</v>
+        <v>1860839</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -4044,10 +4047,10 @@
         <v>7</v>
       </c>
       <c r="K94" s="4">
-        <v>898.3</v>
+        <v>83.0</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="6" t="s">
@@ -4086,16 +4089,16 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="4">
-        <v>7155107</v>
+        <v>7259747</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -4104,7 +4107,7 @@
         <v>7</v>
       </c>
       <c r="K96" s="4">
-        <v>256.7</v>
+        <v>513.3</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>105</v>
@@ -4116,16 +4119,16 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="4">
-        <v>7259747</v>
+        <v>7155107</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -4134,7 +4137,7 @@
         <v>7</v>
       </c>
       <c r="K97" s="4">
-        <v>513.3</v>
+        <v>256.7</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>105</v>
@@ -4209,7 +4212,7 @@
         <v>7217197</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -4236,16 +4239,16 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="4">
-        <v>1860839</v>
+        <v>14177626</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -4254,7 +4257,7 @@
         <v>7</v>
       </c>
       <c r="K101" s="4">
-        <v>269.0</v>
+        <v>385.0</v>
       </c>
       <c r="L101" s="5" t="s">
         <v>108</v>
@@ -4266,16 +4269,16 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="4">
-        <v>14177626</v>
+        <v>1860839</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -4284,7 +4287,7 @@
         <v>7</v>
       </c>
       <c r="K102" s="4">
-        <v>385.0</v>
+        <v>269.0</v>
       </c>
       <c r="L102" s="5" t="s">
         <v>108</v>
@@ -4296,16 +4299,16 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="4">
-        <v>7142667</v>
+        <v>2785290</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -4314,10 +4317,10 @@
         <v>7</v>
       </c>
       <c r="K103" s="4">
-        <v>120.8</v>
+        <v>292.6</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M103" s="4"/>
       <c r="N103" s="6" t="s">
@@ -4326,16 +4329,16 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="4">
-        <v>2785290</v>
+        <v>7142667</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -4344,10 +4347,10 @@
         <v>7</v>
       </c>
       <c r="K104" s="4">
-        <v>292.6</v>
+        <v>120.8</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" s="6" t="s">
@@ -4356,16 +4359,16 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="4">
-        <v>7162716</v>
+        <v>7155107</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -4374,7 +4377,7 @@
         <v>7</v>
       </c>
       <c r="K105" s="4">
-        <v>1235.0</v>
+        <v>256.7</v>
       </c>
       <c r="L105" s="5" t="s">
         <v>111</v>
@@ -4386,16 +4389,16 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="4">
-        <v>7155107</v>
+        <v>7259747</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -4404,7 +4407,7 @@
         <v>7</v>
       </c>
       <c r="K106" s="4">
-        <v>256.7</v>
+        <v>513.3</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>111</v>
@@ -4416,16 +4419,16 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="4">
-        <v>7259747</v>
+        <v>7162716</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -4434,7 +4437,7 @@
         <v>7</v>
       </c>
       <c r="K107" s="4">
-        <v>513.3</v>
+        <v>1235.0</v>
       </c>
       <c r="L107" s="5" t="s">
         <v>111</v>
@@ -4446,16 +4449,16 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="4">
-        <v>5009688</v>
+        <v>6786439</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -4464,10 +4467,10 @@
         <v>7</v>
       </c>
       <c r="K108" s="4">
-        <v>875.0</v>
+        <v>987.5</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="6" t="s">
@@ -4476,16 +4479,16 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="4">
-        <v>6786439</v>
+        <v>5009688</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -4494,10 +4497,10 @@
         <v>7</v>
       </c>
       <c r="K109" s="4">
-        <v>987.5</v>
+        <v>875.0</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="6" t="s">
@@ -4569,7 +4572,7 @@
         <v>1860839</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -4596,16 +4599,16 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="4">
-        <v>2637944</v>
+        <v>7155107</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -4614,10 +4617,10 @@
         <v>7</v>
       </c>
       <c r="K113" s="4">
-        <v>475.0</v>
+        <v>256.7</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="6" t="s">
@@ -4626,16 +4629,16 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="4">
-        <v>7155107</v>
+        <v>7259747</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -4644,10 +4647,10 @@
         <v>7</v>
       </c>
       <c r="K114" s="4">
-        <v>256.7</v>
+        <v>513.3</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="6" t="s">
@@ -4677,7 +4680,7 @@
         <v>898.3</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M115" s="4"/>
       <c r="N115" s="6" t="s">
@@ -4686,10 +4689,10 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="4">
-        <v>7259747</v>
+        <v>2637944</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -4704,10 +4707,10 @@
         <v>7</v>
       </c>
       <c r="K116" s="4">
-        <v>513.3</v>
+        <v>475.0</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" s="6" t="s">
@@ -4776,10 +4779,10 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="4">
-        <v>5787275</v>
+        <v>10651336</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -4794,10 +4797,10 @@
         <v>7</v>
       </c>
       <c r="K119" s="4">
-        <v>210.6</v>
+        <v>665.0</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" s="6" t="s">
@@ -4806,16 +4809,16 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="4">
-        <v>1860839</v>
+        <v>5787275</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -4824,10 +4827,10 @@
         <v>7</v>
       </c>
       <c r="K120" s="4">
-        <v>269.0</v>
+        <v>210.6</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M120" s="4"/>
       <c r="N120" s="6" t="s">
@@ -4836,16 +4839,16 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="4">
-        <v>10651336</v>
+        <v>1860839</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -4854,10 +4857,10 @@
         <v>7</v>
       </c>
       <c r="K121" s="4">
-        <v>665.0</v>
+        <v>269.0</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M121" s="4"/>
       <c r="N121" s="6" t="s">
@@ -4896,16 +4899,16 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="4">
-        <v>7259747</v>
+        <v>4902968</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -4914,10 +4917,10 @@
         <v>7</v>
       </c>
       <c r="K123" s="4">
-        <v>513.3</v>
+        <v>3206.7</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M123" s="4"/>
       <c r="N123" s="6" t="s">
@@ -4929,7 +4932,7 @@
         <v>7142667</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -4947,7 +4950,7 @@
         <v>120.8</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M124" s="4"/>
       <c r="N124" s="6" t="s">
@@ -4956,16 +4959,16 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="4">
-        <v>14177626</v>
+        <v>7155107</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -4974,10 +4977,10 @@
         <v>7</v>
       </c>
       <c r="K125" s="4">
-        <v>385.0</v>
+        <v>256.7</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M125" s="4"/>
       <c r="N125" s="6" t="s">
@@ -4986,16 +4989,16 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="4">
-        <v>4902968</v>
+        <v>7259747</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -5004,10 +5007,10 @@
         <v>7</v>
       </c>
       <c r="K126" s="4">
-        <v>3206.7</v>
+        <v>513.3</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M126" s="4"/>
       <c r="N126" s="6" t="s">
@@ -5016,16 +5019,16 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="4">
-        <v>7155107</v>
+        <v>14177626</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -5034,10 +5037,10 @@
         <v>7</v>
       </c>
       <c r="K127" s="4">
-        <v>256.7</v>
+        <v>385.0</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M127" s="4"/>
       <c r="N127" s="6" t="s">
@@ -5076,10 +5079,10 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="4">
-        <v>6786439</v>
+        <v>7211060</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -5094,7 +5097,7 @@
         <v>7</v>
       </c>
       <c r="K129" s="4">
-        <v>987.5</v>
+        <v>892.5</v>
       </c>
       <c r="L129" s="5" t="s">
         <v>128</v>
@@ -5106,10 +5109,10 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="4">
-        <v>7211060</v>
+        <v>6786439</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -5124,7 +5127,7 @@
         <v>7</v>
       </c>
       <c r="K130" s="4">
-        <v>892.5</v>
+        <v>987.5</v>
       </c>
       <c r="L130" s="5" t="s">
         <v>128</v>
@@ -5136,16 +5139,16 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="4">
-        <v>1860839</v>
+        <v>5787275</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
@@ -5154,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="K131" s="4">
-        <v>269.0</v>
+        <v>1010.6</v>
       </c>
       <c r="L131" s="5" t="s">
         <v>129</v>
@@ -5166,16 +5169,16 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="4">
-        <v>5784463</v>
+        <v>1860839</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
@@ -5184,7 +5187,7 @@
         <v>7</v>
       </c>
       <c r="K132" s="4">
-        <v>670.0</v>
+        <v>269.0</v>
       </c>
       <c r="L132" s="5" t="s">
         <v>129</v>
@@ -5196,16 +5199,16 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="4">
-        <v>7118244</v>
+        <v>5784463</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
@@ -5214,7 +5217,7 @@
         <v>7</v>
       </c>
       <c r="K133" s="4">
-        <v>1980.0</v>
+        <v>670.0</v>
       </c>
       <c r="L133" s="5" t="s">
         <v>129</v>
@@ -5226,10 +5229,10 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="4">
-        <v>5787275</v>
+        <v>7118244</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -5244,7 +5247,7 @@
         <v>7</v>
       </c>
       <c r="K134" s="4">
-        <v>1010.6</v>
+        <v>1980.0</v>
       </c>
       <c r="L134" s="5" t="s">
         <v>129</v>
@@ -5289,7 +5292,7 @@
         <v>2637944</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -5379,7 +5382,7 @@
         <v>5787275</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -5409,7 +5412,7 @@
         <v>1860839</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -5436,16 +5439,16 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="4">
-        <v>4902968</v>
+        <v>14177626</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -5454,7 +5457,7 @@
         <v>7</v>
       </c>
       <c r="K141" s="4">
-        <v>3206.7</v>
+        <v>385.0</v>
       </c>
       <c r="L141" s="5" t="s">
         <v>135</v>
@@ -5466,16 +5469,16 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="4">
-        <v>14177626</v>
+        <v>4902968</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
@@ -5484,7 +5487,7 @@
         <v>7</v>
       </c>
       <c r="K142" s="4">
-        <v>385.0</v>
+        <v>3206.7</v>
       </c>
       <c r="L142" s="5" t="s">
         <v>135</v>
@@ -5619,7 +5622,7 @@
         <v>7142667</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -5676,16 +5679,16 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -5694,10 +5697,10 @@
         <v>7</v>
       </c>
       <c r="K149" s="4">
-        <v>987.5</v>
+        <v>74.94</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M149" s="4"/>
       <c r="N149" s="6" t="s">
@@ -5706,16 +5709,16 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="4">
-        <v>7143371</v>
+        <v>6786439</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -5724,10 +5727,10 @@
         <v>7</v>
       </c>
       <c r="K150" s="4">
-        <v>74.94</v>
+        <v>987.5</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M150" s="4"/>
       <c r="N150" s="6" t="s">
@@ -5736,7 +5739,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="4">
-        <v>4137855</v>
+        <v>4120354</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>142</v>
@@ -5745,7 +5748,7 @@
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -5754,10 +5757,10 @@
         <v>7</v>
       </c>
       <c r="K151" s="4">
-        <v>786.3</v>
+        <v>490.0</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M151" s="4"/>
       <c r="N151" s="6" t="s">
@@ -5769,7 +5772,7 @@
         <v>5787275</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -5787,7 +5790,7 @@
         <v>1010.6</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M152" s="4"/>
       <c r="N152" s="6" t="s">
@@ -5796,16 +5799,16 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="4">
-        <v>4120354</v>
+        <v>4137855</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -5814,10 +5817,10 @@
         <v>7</v>
       </c>
       <c r="K153" s="4">
-        <v>490.0</v>
+        <v>786.3</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M153" s="4"/>
       <c r="N153" s="6" t="s">
@@ -5826,16 +5829,16 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="4">
-        <v>4147520</v>
+        <v>7118244</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
@@ -5844,7 +5847,7 @@
         <v>7</v>
       </c>
       <c r="K154" s="4">
-        <v>250.6</v>
+        <v>1980.0</v>
       </c>
       <c r="L154" s="5" t="s">
         <v>146</v>
@@ -5856,16 +5859,16 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="4">
-        <v>5784463</v>
+        <v>4147520</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -5874,7 +5877,7 @@
         <v>7</v>
       </c>
       <c r="K155" s="4">
-        <v>670.0</v>
+        <v>250.6</v>
       </c>
       <c r="L155" s="5" t="s">
         <v>146</v>
@@ -5886,16 +5889,16 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="4">
-        <v>7118244</v>
+        <v>5784463</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -5904,7 +5907,7 @@
         <v>7</v>
       </c>
       <c r="K156" s="4">
-        <v>1980.0</v>
+        <v>670.0</v>
       </c>
       <c r="L156" s="5" t="s">
         <v>146</v>
@@ -5916,16 +5919,16 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="4">
-        <v>5009688</v>
+        <v>7109217</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
@@ -5934,10 +5937,10 @@
         <v>7</v>
       </c>
       <c r="K157" s="4">
-        <v>875.0</v>
+        <v>370.0</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M157" s="4"/>
       <c r="N157" s="6" t="s">
@@ -5946,16 +5949,16 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="4">
-        <v>7109217</v>
+        <v>5009688</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
@@ -5964,10 +5967,10 @@
         <v>7</v>
       </c>
       <c r="K158" s="4">
-        <v>370.0</v>
+        <v>875.0</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M158" s="4"/>
       <c r="N158" s="6" t="s">
@@ -5976,10 +5979,10 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="4">
-        <v>7211060</v>
+        <v>2637944</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -5994,7 +5997,7 @@
         <v>7</v>
       </c>
       <c r="K159" s="4">
-        <v>892.5</v>
+        <v>475.0</v>
       </c>
       <c r="L159" s="5" t="s">
         <v>149</v>
@@ -6006,10 +6009,10 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="4">
-        <v>2637944</v>
+        <v>7211060</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -6024,7 +6027,7 @@
         <v>7</v>
       </c>
       <c r="K160" s="4">
-        <v>475.0</v>
+        <v>892.5</v>
       </c>
       <c r="L160" s="5" t="s">
         <v>149</v>
@@ -6069,7 +6072,7 @@
         <v>5787275</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -6159,7 +6162,7 @@
         <v>4902968</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -6249,7 +6252,7 @@
         <v>7142667</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -6309,7 +6312,7 @@
         <v>5787275</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -6336,16 +6339,16 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -6354,7 +6357,7 @@
         <v>7</v>
       </c>
       <c r="K171" s="4">
-        <v>987.5</v>
+        <v>287.47</v>
       </c>
       <c r="L171" s="5" t="s">
         <v>156</v>
@@ -6366,16 +6369,16 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="4">
-        <v>7143371</v>
+        <v>6786439</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
@@ -6384,7 +6387,7 @@
         <v>7</v>
       </c>
       <c r="K172" s="4">
-        <v>287.47</v>
+        <v>987.5</v>
       </c>
       <c r="L172" s="5" t="s">
         <v>156</v>
@@ -6426,16 +6429,16 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="4">
-        <v>4147520</v>
+        <v>7668170</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -6444,10 +6447,10 @@
         <v>7</v>
       </c>
       <c r="K174" s="4">
-        <v>250.6</v>
+        <v>493.3</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M174" s="4"/>
       <c r="N174" s="6" t="s">
@@ -6459,7 +6462,7 @@
         <v>4120354</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -6477,7 +6480,7 @@
         <v>670.0</v>
       </c>
       <c r="L175" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M175" s="4"/>
       <c r="N175" s="6" t="s">
@@ -6489,13 +6492,13 @@
         <v>4137855</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
@@ -6507,7 +6510,7 @@
         <v>986.3</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M176" s="4"/>
       <c r="N176" s="6" t="s">
@@ -6516,16 +6519,16 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="4">
-        <v>7668170</v>
+        <v>4147520</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
@@ -6534,10 +6537,10 @@
         <v>7</v>
       </c>
       <c r="K177" s="4">
-        <v>493.3</v>
+        <v>250.6</v>
       </c>
       <c r="L177" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" s="6" t="s">
@@ -6576,16 +6579,16 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="4">
-        <v>7211060</v>
+        <v>7109217</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
@@ -6594,7 +6597,7 @@
         <v>7</v>
       </c>
       <c r="K179" s="4">
-        <v>892.5</v>
+        <v>385.0</v>
       </c>
       <c r="L179" s="5" t="s">
         <v>162</v>
@@ -6606,16 +6609,16 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="4">
-        <v>7197800</v>
+        <v>7211060</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
@@ -6624,7 +6627,7 @@
         <v>7</v>
       </c>
       <c r="K180" s="4">
-        <v>680.0</v>
+        <v>892.5</v>
       </c>
       <c r="L180" s="5" t="s">
         <v>162</v>
@@ -6636,16 +6639,16 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="4">
-        <v>7109217</v>
+        <v>7197800</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
@@ -6654,7 +6657,7 @@
         <v>7</v>
       </c>
       <c r="K181" s="4">
-        <v>385.0</v>
+        <v>680.0</v>
       </c>
       <c r="L181" s="5" t="s">
         <v>162</v>
@@ -6669,7 +6672,7 @@
         <v>2637944</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -6699,7 +6702,7 @@
         <v>5787275</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -6726,16 +6729,16 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="4">
-        <v>7112058</v>
+        <v>4147520</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
@@ -6744,10 +6747,10 @@
         <v>7</v>
       </c>
       <c r="K184" s="4">
-        <v>1980.0</v>
+        <v>250.6</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M184" s="4"/>
       <c r="N184" s="6" t="s">
@@ -6756,16 +6759,16 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="4">
-        <v>4147520</v>
+        <v>7112058</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
@@ -6774,10 +6777,10 @@
         <v>7</v>
       </c>
       <c r="K185" s="4">
-        <v>250.6</v>
+        <v>1980.0</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M185" s="4"/>
       <c r="N185" s="6" t="s">
@@ -6786,16 +6789,16 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="4">
-        <v>4902968</v>
+        <v>10639263</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
@@ -6804,10 +6807,10 @@
         <v>7</v>
       </c>
       <c r="K186" s="4">
-        <v>3206.7</v>
+        <v>150.0</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M186" s="4"/>
       <c r="N186" s="6" t="s">
@@ -6837,7 +6840,7 @@
         <v>875.0</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M187" s="4"/>
       <c r="N187" s="6" t="s">
@@ -6846,10 +6849,10 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="4">
-        <v>10639263</v>
+        <v>12381291</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -6864,10 +6867,10 @@
         <v>7</v>
       </c>
       <c r="K188" s="4">
-        <v>150.0</v>
+        <v>898.3</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M188" s="4"/>
       <c r="N188" s="6" t="s">
@@ -6876,16 +6879,16 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="4">
-        <v>12381291</v>
+        <v>4902968</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
@@ -6894,10 +6897,10 @@
         <v>7</v>
       </c>
       <c r="K189" s="4">
-        <v>898.3</v>
+        <v>3206.7</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M189" s="4"/>
       <c r="N189" s="6" t="s">
@@ -6906,16 +6909,16 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="4">
-        <v>7162716</v>
+        <v>7211060</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
@@ -6924,7 +6927,7 @@
         <v>7</v>
       </c>
       <c r="K190" s="4">
-        <v>1235.0</v>
+        <v>892.5</v>
       </c>
       <c r="L190" s="5" t="s">
         <v>170</v>
@@ -6936,16 +6939,16 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="4">
-        <v>1873728</v>
+        <v>7162716</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
@@ -6954,7 +6957,7 @@
         <v>7</v>
       </c>
       <c r="K191" s="4">
-        <v>692.0</v>
+        <v>1235.0</v>
       </c>
       <c r="L191" s="5" t="s">
         <v>170</v>
@@ -6966,16 +6969,16 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="4">
-        <v>7211060</v>
+        <v>1873728</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
@@ -6984,7 +6987,7 @@
         <v>7</v>
       </c>
       <c r="K192" s="4">
-        <v>892.5</v>
+        <v>692.0</v>
       </c>
       <c r="L192" s="5" t="s">
         <v>170</v>
@@ -7029,7 +7032,7 @@
         <v>7142667</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -7059,7 +7062,7 @@
         <v>5787275</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -7089,7 +7092,7 @@
         <v>4120354</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -7119,13 +7122,13 @@
         <v>4137855</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
@@ -7149,13 +7152,13 @@
         <v>7668170</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
@@ -7176,16 +7179,16 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
@@ -7194,7 +7197,7 @@
         <v>7</v>
       </c>
       <c r="K199" s="4">
-        <v>987.5</v>
+        <v>287.47</v>
       </c>
       <c r="L199" s="5" t="s">
         <v>176</v>
@@ -7206,16 +7209,16 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="4">
-        <v>7143371</v>
+        <v>6786439</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
@@ -7224,7 +7227,7 @@
         <v>7</v>
       </c>
       <c r="K200" s="4">
-        <v>287.47</v>
+        <v>987.5</v>
       </c>
       <c r="L200" s="5" t="s">
         <v>176</v>
@@ -7329,7 +7332,7 @@
         <v>7109217</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -7356,16 +7359,16 @@
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="4">
-        <v>5787275</v>
+        <v>4141852</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
@@ -7374,10 +7377,10 @@
         <v>7</v>
       </c>
       <c r="K205" s="4">
-        <v>1010.6</v>
+        <v>390.0</v>
       </c>
       <c r="L205" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M205" s="4"/>
       <c r="N205" s="6" t="s">
@@ -7386,16 +7389,16 @@
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="4">
-        <v>4141852</v>
+        <v>5787275</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
@@ -7404,10 +7407,10 @@
         <v>7</v>
       </c>
       <c r="K206" s="4">
-        <v>390.0</v>
+        <v>1010.6</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" s="6" t="s">
@@ -7506,16 +7509,16 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="4">
-        <v>4902968</v>
+        <v>12381291</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
@@ -7524,7 +7527,7 @@
         <v>7</v>
       </c>
       <c r="K210" s="4">
-        <v>3206.7</v>
+        <v>898.3</v>
       </c>
       <c r="L210" s="5" t="s">
         <v>187</v>
@@ -7596,16 +7599,16 @@
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="4">
-        <v>12381291</v>
+        <v>4902968</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
@@ -7614,7 +7617,7 @@
         <v>7</v>
       </c>
       <c r="K213" s="4">
-        <v>898.3</v>
+        <v>3206.7</v>
       </c>
       <c r="L213" s="5" t="s">
         <v>187</v>
@@ -7656,10 +7659,10 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="4">
-        <v>1873728</v>
+        <v>5037553</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -7674,10 +7677,10 @@
         <v>7</v>
       </c>
       <c r="K215" s="4">
-        <v>692.0</v>
+        <v>292.8</v>
       </c>
       <c r="L215" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M215" s="4"/>
       <c r="N215" s="6" t="s">
@@ -7686,16 +7689,16 @@
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="4">
-        <v>7106747</v>
+        <v>1873728</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
@@ -7704,10 +7707,10 @@
         <v>7</v>
       </c>
       <c r="K216" s="4">
-        <v>140.0</v>
+        <v>692.0</v>
       </c>
       <c r="L216" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M216" s="4"/>
       <c r="N216" s="6" t="s">
@@ -7716,7 +7719,7 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="4">
-        <v>5037553</v>
+        <v>7106747</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>192</v>
@@ -7725,7 +7728,7 @@
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
@@ -7734,10 +7737,10 @@
         <v>7</v>
       </c>
       <c r="K217" s="4">
-        <v>292.8</v>
+        <v>140.0</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M217" s="4"/>
       <c r="N217" s="6" t="s">
@@ -7746,16 +7749,16 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="4">
-        <v>1899092</v>
+        <v>7141330</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
@@ -7764,10 +7767,10 @@
         <v>7</v>
       </c>
       <c r="K218" s="4">
-        <v>770.0</v>
+        <v>385.0</v>
       </c>
       <c r="L218" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M218" s="4"/>
       <c r="N218" s="6" t="s">
@@ -7779,7 +7782,7 @@
         <v>5787275</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -7797,7 +7800,7 @@
         <v>1010.6</v>
       </c>
       <c r="L219" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M219" s="4"/>
       <c r="N219" s="6" t="s">
@@ -7806,16 +7809,16 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="4">
-        <v>7141330</v>
+        <v>1899092</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
@@ -7824,10 +7827,10 @@
         <v>7</v>
       </c>
       <c r="K220" s="4">
-        <v>385.0</v>
+        <v>770.0</v>
       </c>
       <c r="L220" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M220" s="4"/>
       <c r="N220" s="6" t="s">
@@ -7836,16 +7839,16 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
@@ -7854,7 +7857,7 @@
         <v>7</v>
       </c>
       <c r="K221" s="4">
-        <v>987.5</v>
+        <v>287.47</v>
       </c>
       <c r="L221" s="5" t="s">
         <v>195</v>
@@ -7866,10 +7869,10 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="4">
-        <v>7143371</v>
+        <v>7254095</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -7884,7 +7887,7 @@
         <v>7</v>
       </c>
       <c r="K222" s="4">
-        <v>287.47</v>
+        <v>185.1</v>
       </c>
       <c r="L222" s="5" t="s">
         <v>195</v>
@@ -7896,16 +7899,16 @@
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="4">
-        <v>7254095</v>
+        <v>6786439</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
@@ -7914,7 +7917,7 @@
         <v>7</v>
       </c>
       <c r="K223" s="4">
-        <v>185.1</v>
+        <v>987.5</v>
       </c>
       <c r="L223" s="5" t="s">
         <v>195</v>
@@ -7926,16 +7929,16 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="4">
-        <v>10629985</v>
+        <v>7668170</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
@@ -7944,10 +7947,10 @@
         <v>7</v>
       </c>
       <c r="K224" s="4">
-        <v>40.0</v>
+        <v>493.3</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M224" s="4"/>
       <c r="N224" s="6" t="s">
@@ -7956,16 +7959,16 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="4">
-        <v>4137855</v>
+        <v>8064094</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
@@ -7974,10 +7977,10 @@
         <v>7</v>
       </c>
       <c r="K225" s="4">
-        <v>1480.0</v>
+        <v>493.3</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M225" s="4"/>
       <c r="N225" s="6" t="s">
@@ -7986,16 +7989,16 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="4">
-        <v>7668170</v>
+        <v>10629985</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
@@ -8004,10 +8007,10 @@
         <v>7</v>
       </c>
       <c r="K226" s="4">
-        <v>493.3</v>
+        <v>40.0</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M226" s="4"/>
       <c r="N226" s="6" t="s">
@@ -8016,16 +8019,16 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="4">
-        <v>8064094</v>
+        <v>4137855</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
@@ -8034,10 +8037,10 @@
         <v>7</v>
       </c>
       <c r="K227" s="4">
-        <v>493.3</v>
+        <v>1480.0</v>
       </c>
       <c r="L227" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" s="6" t="s">
@@ -8046,16 +8049,16 @@
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="4">
-        <v>7167479</v>
+        <v>5009688</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
@@ -8064,7 +8067,7 @@
         <v>7</v>
       </c>
       <c r="K228" s="4">
-        <v>533.3</v>
+        <v>875.0</v>
       </c>
       <c r="L228" s="5" t="s">
         <v>199</v>
@@ -8076,16 +8079,16 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="4">
-        <v>5009688</v>
+        <v>7167479</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
@@ -8094,7 +8097,7 @@
         <v>7</v>
       </c>
       <c r="K229" s="4">
-        <v>875.0</v>
+        <v>533.3</v>
       </c>
       <c r="L229" s="5" t="s">
         <v>199</v>
@@ -8106,7 +8109,7 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="4">
-        <v>5809785</v>
+        <v>5006333</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>200</v>
@@ -8115,7 +8118,7 @@
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
@@ -8124,7 +8127,7 @@
         <v>7</v>
       </c>
       <c r="K230" s="4">
-        <v>625.0</v>
+        <v>10.5</v>
       </c>
       <c r="L230" s="5" t="s">
         <v>201</v>
@@ -8136,16 +8139,16 @@
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="4">
-        <v>7211060</v>
+        <v>5809785</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
@@ -8154,7 +8157,7 @@
         <v>7</v>
       </c>
       <c r="K231" s="4">
-        <v>892.5</v>
+        <v>625.0</v>
       </c>
       <c r="L231" s="5" t="s">
         <v>201</v>
@@ -8166,16 +8169,16 @@
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="4">
-        <v>5006333</v>
+        <v>7211060</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
@@ -8184,7 +8187,7 @@
         <v>7</v>
       </c>
       <c r="K232" s="4">
-        <v>10.5</v>
+        <v>892.5</v>
       </c>
       <c r="L232" s="5" t="s">
         <v>201</v>
@@ -8196,7 +8199,7 @@
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="4">
-        <v>5001200</v>
+        <v>5001461</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>203</v>
@@ -8205,7 +8208,7 @@
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
@@ -8214,7 +8217,7 @@
         <v>7</v>
       </c>
       <c r="K233" s="4">
-        <v>241.7</v>
+        <v>245.7</v>
       </c>
       <c r="L233" s="5" t="s">
         <v>204</v>
@@ -8226,7 +8229,7 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="4">
-        <v>12350358</v>
+        <v>5001200</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>205</v>
@@ -8244,7 +8247,7 @@
         <v>7</v>
       </c>
       <c r="K234" s="4">
-        <v>300.0</v>
+        <v>241.7</v>
       </c>
       <c r="L234" s="5" t="s">
         <v>204</v>
@@ -8256,7 +8259,7 @@
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="4">
-        <v>5001461</v>
+        <v>12350358</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>206</v>
@@ -8265,7 +8268,7 @@
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
@@ -8274,7 +8277,7 @@
         <v>7</v>
       </c>
       <c r="K235" s="4">
-        <v>245.7</v>
+        <v>300.0</v>
       </c>
       <c r="L235" s="5" t="s">
         <v>204</v>
@@ -8286,16 +8289,16 @@
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="4">
-        <v>7109217</v>
+        <v>5787275</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
@@ -8304,7 +8307,7 @@
         <v>7</v>
       </c>
       <c r="K236" s="4">
-        <v>385.0</v>
+        <v>1010.6</v>
       </c>
       <c r="L236" s="5" t="s">
         <v>207</v>
@@ -8316,16 +8319,16 @@
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="4">
-        <v>10719735</v>
+        <v>7109217</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
@@ -8334,7 +8337,7 @@
         <v>7</v>
       </c>
       <c r="K237" s="4">
-        <v>1180.0</v>
+        <v>385.0</v>
       </c>
       <c r="L237" s="5" t="s">
         <v>207</v>
@@ -8346,16 +8349,16 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="4">
-        <v>1878048</v>
+        <v>10719735</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
@@ -8364,7 +8367,7 @@
         <v>7</v>
       </c>
       <c r="K238" s="4">
-        <v>90.0</v>
+        <v>1180.0</v>
       </c>
       <c r="L238" s="5" t="s">
         <v>207</v>
@@ -8376,16 +8379,16 @@
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="4">
-        <v>7197800</v>
+        <v>1878048</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
@@ -8394,7 +8397,7 @@
         <v>7</v>
       </c>
       <c r="K239" s="4">
-        <v>680.0</v>
+        <v>90.0</v>
       </c>
       <c r="L239" s="5" t="s">
         <v>207</v>
@@ -8406,16 +8409,16 @@
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="4">
-        <v>5787275</v>
+        <v>7197800</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
@@ -8424,7 +8427,7 @@
         <v>7</v>
       </c>
       <c r="K240" s="4">
-        <v>1010.6</v>
+        <v>680.0</v>
       </c>
       <c r="L240" s="5" t="s">
         <v>207</v>
@@ -8436,16 +8439,16 @@
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="4">
-        <v>7254095</v>
+        <v>5817517</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
@@ -8454,7 +8457,7 @@
         <v>7</v>
       </c>
       <c r="K241" s="4">
-        <v>185.1</v>
+        <v>340.0</v>
       </c>
       <c r="L241" s="5" t="s">
         <v>210</v>
@@ -8466,16 +8469,16 @@
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="4">
-        <v>5817517</v>
+        <v>7254095</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
@@ -8484,7 +8487,7 @@
         <v>7</v>
       </c>
       <c r="K242" s="4">
-        <v>340.0</v>
+        <v>185.1</v>
       </c>
       <c r="L242" s="5" t="s">
         <v>210</v>
@@ -8496,16 +8499,16 @@
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="4">
-        <v>12411923</v>
+        <v>4141852</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
@@ -8514,10 +8517,10 @@
         <v>7</v>
       </c>
       <c r="K243" s="4">
-        <v>986.67</v>
+        <v>570.0</v>
       </c>
       <c r="L243" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M243" s="4"/>
       <c r="N243" s="6" t="s">
@@ -8526,16 +8529,16 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="4">
-        <v>4141852</v>
+        <v>12411923</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
@@ -8544,10 +8547,10 @@
         <v>7</v>
       </c>
       <c r="K244" s="4">
-        <v>570.0</v>
+        <v>986.67</v>
       </c>
       <c r="L244" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M244" s="4"/>
       <c r="N244" s="6" t="s">
@@ -8649,7 +8652,7 @@
         <v>5006333</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -8676,16 +8679,16 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="4">
-        <v>12381291</v>
+        <v>4902968</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
@@ -8694,7 +8697,7 @@
         <v>7</v>
       </c>
       <c r="K249" s="4">
-        <v>898.3</v>
+        <v>3206.7</v>
       </c>
       <c r="L249" s="5" t="s">
         <v>217</v>
@@ -8739,7 +8742,7 @@
         <v>5001461</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -8766,16 +8769,16 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="4">
-        <v>4902968</v>
+        <v>12381291</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
@@ -8784,7 +8787,7 @@
         <v>7</v>
       </c>
       <c r="K252" s="4">
-        <v>3206.7</v>
+        <v>898.3</v>
       </c>
       <c r="L252" s="5" t="s">
         <v>217</v>
@@ -8826,16 +8829,16 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="4">
-        <v>1873728</v>
+        <v>1878048</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
@@ -8844,7 +8847,7 @@
         <v>7</v>
       </c>
       <c r="K254" s="4">
-        <v>692.0</v>
+        <v>90.0</v>
       </c>
       <c r="L254" s="5" t="s">
         <v>218</v>
@@ -8859,7 +8862,7 @@
         <v>7106747</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -8886,16 +8889,16 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="4">
-        <v>5037553</v>
+        <v>5787275</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
@@ -8904,7 +8907,7 @@
         <v>7</v>
       </c>
       <c r="K256" s="4">
-        <v>492.8</v>
+        <v>1010.6</v>
       </c>
       <c r="L256" s="5" t="s">
         <v>218</v>
@@ -8916,16 +8919,16 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="4">
-        <v>5787275</v>
+        <v>5037553</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
@@ -8934,7 +8937,7 @@
         <v>7</v>
       </c>
       <c r="K257" s="4">
-        <v>1010.6</v>
+        <v>492.8</v>
       </c>
       <c r="L257" s="5" t="s">
         <v>218</v>
@@ -8946,16 +8949,16 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="4">
-        <v>5506680</v>
+        <v>1873728</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
@@ -8964,7 +8967,7 @@
         <v>7</v>
       </c>
       <c r="K258" s="4">
-        <v>0.69999999999999</v>
+        <v>692.0</v>
       </c>
       <c r="L258" s="5" t="s">
         <v>218</v>
@@ -8976,16 +8979,16 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="4">
-        <v>1878048</v>
+        <v>5506680</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
@@ -8994,7 +8997,7 @@
         <v>7</v>
       </c>
       <c r="K259" s="4">
-        <v>90.0</v>
+        <v>0.69999999999999</v>
       </c>
       <c r="L259" s="5" t="s">
         <v>218</v>
@@ -9009,13 +9012,13 @@
         <v>8064094</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
@@ -9096,16 +9099,16 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="4">
-        <v>5008907</v>
+        <v>7143371</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
@@ -9114,10 +9117,10 @@
         <v>7</v>
       </c>
       <c r="K263" s="4">
-        <v>330.0</v>
+        <v>287.47</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M263" s="4"/>
       <c r="N263" s="6" t="s">
@@ -9126,16 +9129,16 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="4">
-        <v>7141330</v>
+        <v>5008907</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
@@ -9144,10 +9147,10 @@
         <v>7</v>
       </c>
       <c r="K264" s="4">
-        <v>385.0</v>
+        <v>330.0</v>
       </c>
       <c r="L264" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M264" s="4"/>
       <c r="N264" s="6" t="s">
@@ -9156,16 +9159,16 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="4">
-        <v>6786439</v>
+        <v>1899092</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
@@ -9174,10 +9177,10 @@
         <v>7</v>
       </c>
       <c r="K265" s="4">
-        <v>987.5</v>
+        <v>770.0</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M265" s="4"/>
       <c r="N265" s="6" t="s">
@@ -9186,16 +9189,16 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="4">
-        <v>1899092</v>
+        <v>6786439</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
@@ -9204,10 +9207,10 @@
         <v>7</v>
       </c>
       <c r="K266" s="4">
-        <v>770.0</v>
+        <v>987.5</v>
       </c>
       <c r="L266" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M266" s="4"/>
       <c r="N266" s="6" t="s">
@@ -9216,16 +9219,16 @@
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="4">
-        <v>7143371</v>
+        <v>7141330</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
@@ -9234,10 +9237,10 @@
         <v>7</v>
       </c>
       <c r="K267" s="4">
-        <v>287.47</v>
+        <v>385.0</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M267" s="4"/>
       <c r="N267" s="6" t="s">
@@ -9246,16 +9249,16 @@
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="4">
-        <v>10629985</v>
+        <v>7668170</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
@@ -9264,7 +9267,7 @@
         <v>7</v>
       </c>
       <c r="K268" s="4">
-        <v>340.0</v>
+        <v>493.3</v>
       </c>
       <c r="L268" s="5" t="s">
         <v>224</v>
@@ -9276,16 +9279,16 @@
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="4">
-        <v>454545</v>
+        <v>5009688</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
@@ -9294,7 +9297,7 @@
         <v>7</v>
       </c>
       <c r="K269" s="4">
-        <v>1083.33</v>
+        <v>875.0</v>
       </c>
       <c r="L269" s="5" t="s">
         <v>224</v>
@@ -9306,16 +9309,16 @@
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="4">
-        <v>4137855</v>
+        <v>10629985</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
@@ -9324,7 +9327,7 @@
         <v>7</v>
       </c>
       <c r="K270" s="4">
-        <v>1973.3</v>
+        <v>340.0</v>
       </c>
       <c r="L270" s="5" t="s">
         <v>224</v>
@@ -9336,16 +9339,16 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="4">
-        <v>7668170</v>
+        <v>454545</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
@@ -9354,7 +9357,7 @@
         <v>7</v>
       </c>
       <c r="K271" s="4">
-        <v>493.3</v>
+        <v>1083.33</v>
       </c>
       <c r="L271" s="5" t="s">
         <v>224</v>
@@ -9366,16 +9369,16 @@
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="4">
-        <v>5009688</v>
+        <v>4137855</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
@@ -9384,7 +9387,7 @@
         <v>7</v>
       </c>
       <c r="K272" s="4">
-        <v>875.0</v>
+        <v>1973.3</v>
       </c>
       <c r="L272" s="5" t="s">
         <v>224</v>
@@ -9396,10 +9399,10 @@
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="4">
-        <v>7203812</v>
+        <v>5006333</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -9414,10 +9417,10 @@
         <v>7</v>
       </c>
       <c r="K273" s="4">
-        <v>260.48</v>
+        <v>263.5</v>
       </c>
       <c r="L273" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M273" s="4"/>
       <c r="N273" s="6" t="s">
@@ -9426,16 +9429,16 @@
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="4">
-        <v>7211060</v>
+        <v>7203812</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
@@ -9444,10 +9447,10 @@
         <v>7</v>
       </c>
       <c r="K274" s="4">
-        <v>892.5</v>
+        <v>260.48</v>
       </c>
       <c r="L274" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M274" s="4"/>
       <c r="N274" s="6" t="s">
@@ -9456,16 +9459,16 @@
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="4">
-        <v>5006333</v>
+        <v>7211060</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
@@ -9474,10 +9477,10 @@
         <v>7</v>
       </c>
       <c r="K275" s="4">
-        <v>263.5</v>
+        <v>892.5</v>
       </c>
       <c r="L275" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M275" s="4"/>
       <c r="N275" s="6" t="s">
@@ -9486,16 +9489,16 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="4">
-        <v>5006571</v>
+        <v>5809785</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
@@ -9504,10 +9507,10 @@
         <v>7</v>
       </c>
       <c r="K276" s="4">
-        <v>1973.3</v>
+        <v>812.5</v>
       </c>
       <c r="L276" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M276" s="4"/>
       <c r="N276" s="6" t="s">
@@ -9516,10 +9519,10 @@
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="4">
-        <v>7238010</v>
+        <v>5001461</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -9534,10 +9537,10 @@
         <v>7</v>
       </c>
       <c r="K277" s="4">
-        <v>150.0</v>
+        <v>492.7</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M277" s="4"/>
       <c r="N277" s="6" t="s">
@@ -9546,16 +9549,16 @@
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="4">
-        <v>5809785</v>
+        <v>5006571</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
@@ -9564,10 +9567,10 @@
         <v>7</v>
       </c>
       <c r="K278" s="4">
-        <v>812.5</v>
+        <v>1973.3</v>
       </c>
       <c r="L278" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M278" s="4"/>
       <c r="N278" s="6" t="s">
@@ -9576,10 +9579,10 @@
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="4">
-        <v>5001461</v>
+        <v>7238010</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -9594,10 +9597,10 @@
         <v>7</v>
       </c>
       <c r="K279" s="4">
-        <v>492.7</v>
+        <v>150.0</v>
       </c>
       <c r="L279" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M279" s="4"/>
       <c r="N279" s="6" t="s">
@@ -9606,16 +9609,16 @@
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="4">
-        <v>5787275</v>
+        <v>5001200</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
@@ -9624,7 +9627,7 @@
         <v>7</v>
       </c>
       <c r="K280" s="4">
-        <v>1010.6</v>
+        <v>641.7</v>
       </c>
       <c r="L280" s="5" t="s">
         <v>232</v>
@@ -9636,16 +9639,16 @@
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="4">
-        <v>1878048</v>
+        <v>5787275</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
@@ -9654,7 +9657,7 @@
         <v>7</v>
       </c>
       <c r="K281" s="4">
-        <v>90.0</v>
+        <v>1010.6</v>
       </c>
       <c r="L281" s="5" t="s">
         <v>232</v>
@@ -9666,10 +9669,10 @@
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="4">
-        <v>5001200</v>
+        <v>12350358</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
@@ -9684,7 +9687,7 @@
         <v>7</v>
       </c>
       <c r="K282" s="4">
-        <v>641.7</v>
+        <v>300.0</v>
       </c>
       <c r="L282" s="5" t="s">
         <v>232</v>
@@ -9696,10 +9699,10 @@
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="4">
-        <v>12350358</v>
+        <v>1878048</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -9714,7 +9717,7 @@
         <v>7</v>
       </c>
       <c r="K283" s="4">
-        <v>300.0</v>
+        <v>90.0</v>
       </c>
       <c r="L283" s="5" t="s">
         <v>232</v>
@@ -9726,16 +9729,16 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="4">
-        <v>4141852</v>
+        <v>12411923</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
@@ -9744,7 +9747,7 @@
         <v>7</v>
       </c>
       <c r="K284" s="4">
-        <v>570.0</v>
+        <v>1726.67</v>
       </c>
       <c r="L284" s="5" t="s">
         <v>233</v>
@@ -9756,10 +9759,10 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="4">
-        <v>7259089</v>
+        <v>7254095</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -9774,7 +9777,7 @@
         <v>7</v>
       </c>
       <c r="K285" s="4">
-        <v>818.38</v>
+        <v>185.1</v>
       </c>
       <c r="L285" s="5" t="s">
         <v>233</v>
@@ -9786,10 +9789,10 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="4">
-        <v>7254095</v>
+        <v>7259089</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -9804,7 +9807,7 @@
         <v>7</v>
       </c>
       <c r="K286" s="4">
-        <v>185.1</v>
+        <v>818.38</v>
       </c>
       <c r="L286" s="5" t="s">
         <v>233</v>
@@ -9816,16 +9819,16 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="4">
-        <v>12411923</v>
+        <v>4141852</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
@@ -9834,7 +9837,7 @@
         <v>7</v>
       </c>
       <c r="K287" s="4">
-        <v>1726.67</v>
+        <v>570.0</v>
       </c>
       <c r="L287" s="5" t="s">
         <v>233</v>
@@ -9846,16 +9849,16 @@
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="4">
-        <v>7197800</v>
+        <v>5805990</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
@@ -9864,10 +9867,10 @@
         <v>7</v>
       </c>
       <c r="K288" s="4">
-        <v>680.0</v>
+        <v>10.0</v>
       </c>
       <c r="L288" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M288" s="4"/>
       <c r="N288" s="6" t="s">
@@ -9876,16 +9879,16 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="4">
-        <v>7177540</v>
+        <v>10719735</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
@@ -9894,10 +9897,10 @@
         <v>7</v>
       </c>
       <c r="K289" s="4">
-        <v>510.0</v>
+        <v>1180.0</v>
       </c>
       <c r="L289" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M289" s="4"/>
       <c r="N289" s="6" t="s">
@@ -9906,10 +9909,10 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="4">
-        <v>7109217</v>
+        <v>1052847</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -9924,10 +9927,10 @@
         <v>7</v>
       </c>
       <c r="K290" s="4">
-        <v>385.0</v>
+        <v>138.0</v>
       </c>
       <c r="L290" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M290" s="4"/>
       <c r="N290" s="6" t="s">
@@ -9936,16 +9939,16 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="4">
-        <v>5805990</v>
+        <v>7197800</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
@@ -9954,10 +9957,10 @@
         <v>7</v>
       </c>
       <c r="K291" s="4">
-        <v>10.0</v>
+        <v>680.0</v>
       </c>
       <c r="L291" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M291" s="4"/>
       <c r="N291" s="6" t="s">
@@ -9987,7 +9990,7 @@
         <v>100.0</v>
       </c>
       <c r="L292" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M292" s="4"/>
       <c r="N292" s="6" t="s">
@@ -9996,16 +9999,16 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="4">
-        <v>10719735</v>
+        <v>7177540</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
@@ -10014,10 +10017,10 @@
         <v>7</v>
       </c>
       <c r="K293" s="4">
-        <v>1180.0</v>
+        <v>510.0</v>
       </c>
       <c r="L293" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M293" s="4"/>
       <c r="N293" s="6" t="s">
@@ -10026,10 +10029,10 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="4">
-        <v>1052847</v>
+        <v>7109217</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -10044,10 +10047,10 @@
         <v>7</v>
       </c>
       <c r="K294" s="4">
-        <v>138.0</v>
+        <v>385.0</v>
       </c>
       <c r="L294" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M294" s="4"/>
       <c r="N294" s="6" t="s">
@@ -10056,16 +10059,16 @@
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="4">
-        <v>5009688</v>
+        <v>454545</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
@@ -10074,7 +10077,7 @@
         <v>7</v>
       </c>
       <c r="K295" s="4">
-        <v>875.0</v>
+        <v>1083.33</v>
       </c>
       <c r="L295" s="5" t="s">
         <v>239</v>
@@ -10086,16 +10089,16 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="4">
-        <v>454545</v>
+        <v>5009688</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
@@ -10104,7 +10107,7 @@
         <v>7</v>
       </c>
       <c r="K296" s="4">
-        <v>1083.33</v>
+        <v>875.0</v>
       </c>
       <c r="L296" s="5" t="s">
         <v>239</v>
@@ -10116,16 +10119,16 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="4">
-        <v>10635688</v>
+        <v>7203812</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
@@ -10134,7 +10137,7 @@
         <v>7</v>
       </c>
       <c r="K297" s="4">
-        <v>898.3</v>
+        <v>260.48</v>
       </c>
       <c r="L297" s="5" t="s">
         <v>240</v>
@@ -10179,7 +10182,7 @@
         <v>5006333</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -10206,16 +10209,16 @@
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="4">
-        <v>7203812</v>
+        <v>10635688</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
@@ -10224,7 +10227,7 @@
         <v>7</v>
       </c>
       <c r="K300" s="4">
-        <v>260.48</v>
+        <v>898.3</v>
       </c>
       <c r="L300" s="5" t="s">
         <v>240</v>
@@ -10236,16 +10239,16 @@
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="4">
-        <v>7105285</v>
+        <v>7238010</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
@@ -10254,10 +10257,10 @@
         <v>7</v>
       </c>
       <c r="K301" s="4">
-        <v>590.0</v>
+        <v>150.0</v>
       </c>
       <c r="L301" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M301" s="4"/>
       <c r="N301" s="6" t="s">
@@ -10269,7 +10272,7 @@
         <v>5001461</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -10287,7 +10290,7 @@
         <v>739.7</v>
       </c>
       <c r="L302" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M302" s="4"/>
       <c r="N302" s="6" t="s">
@@ -10296,16 +10299,16 @@
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="4">
-        <v>10644416</v>
+        <v>7105285</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
@@ -10314,10 +10317,10 @@
         <v>7</v>
       </c>
       <c r="K303" s="4">
-        <v>300.0</v>
+        <v>590.0</v>
       </c>
       <c r="L303" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M303" s="4"/>
       <c r="N303" s="6" t="s">
@@ -10326,16 +10329,16 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="4">
-        <v>7238010</v>
+        <v>10644416</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
@@ -10344,10 +10347,10 @@
         <v>7</v>
       </c>
       <c r="K304" s="4">
-        <v>150.0</v>
+        <v>300.0</v>
       </c>
       <c r="L304" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M304" s="4"/>
       <c r="N304" s="6" t="s">
@@ -10356,16 +10359,16 @@
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="4">
-        <v>1878048</v>
+        <v>7212958</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
@@ -10374,10 +10377,10 @@
         <v>7</v>
       </c>
       <c r="K305" s="4">
-        <v>90.0</v>
+        <v>1059.08</v>
       </c>
       <c r="L305" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M305" s="4"/>
       <c r="N305" s="6" t="s">
@@ -10386,16 +10389,16 @@
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="4">
-        <v>5684823</v>
+        <v>12381291</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
@@ -10404,10 +10407,10 @@
         <v>7</v>
       </c>
       <c r="K306" s="4">
-        <v>665.0</v>
+        <v>898.3</v>
       </c>
       <c r="L306" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M306" s="4"/>
       <c r="N306" s="6" t="s">
@@ -10416,16 +10419,16 @@
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="4">
-        <v>7212958</v>
+        <v>1878048</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
@@ -10434,10 +10437,10 @@
         <v>7</v>
       </c>
       <c r="K307" s="4">
-        <v>1059.08</v>
+        <v>90.0</v>
       </c>
       <c r="L307" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M307" s="4"/>
       <c r="N307" s="6" t="s">
@@ -10446,16 +10449,16 @@
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="4">
-        <v>12381291</v>
+        <v>5684823</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
@@ -10464,10 +10467,10 @@
         <v>7</v>
       </c>
       <c r="K308" s="4">
-        <v>898.3</v>
+        <v>665.0</v>
       </c>
       <c r="L308" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M308" s="4"/>
       <c r="N308" s="6" t="s">
@@ -10479,7 +10482,7 @@
         <v>5787275</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -10497,7 +10500,7 @@
         <v>1010.6</v>
       </c>
       <c r="L309" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M309" s="4"/>
       <c r="N309" s="6" t="s">
@@ -10506,16 +10509,16 @@
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="4">
-        <v>7141330</v>
+        <v>1899092</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
@@ -10524,7 +10527,7 @@
         <v>7</v>
       </c>
       <c r="K310" s="4">
-        <v>385.0</v>
+        <v>770.0</v>
       </c>
       <c r="L310" s="5" t="s">
         <v>246</v>
@@ -10536,10 +10539,10 @@
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="4">
-        <v>1899092</v>
+        <v>7254095</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -10554,7 +10557,7 @@
         <v>7</v>
       </c>
       <c r="K311" s="4">
-        <v>770.0</v>
+        <v>185.1</v>
       </c>
       <c r="L311" s="5" t="s">
         <v>246</v>
@@ -10566,16 +10569,16 @@
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="4">
-        <v>7136623</v>
+        <v>7259089</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
@@ -10584,7 +10587,7 @@
         <v>7</v>
       </c>
       <c r="K312" s="4">
-        <v>770.0</v>
+        <v>818.38</v>
       </c>
       <c r="L312" s="5" t="s">
         <v>246</v>
@@ -10596,16 +10599,16 @@
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="4">
-        <v>7259089</v>
+        <v>7136623</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
@@ -10614,7 +10617,7 @@
         <v>7</v>
       </c>
       <c r="K313" s="4">
-        <v>818.38</v>
+        <v>770.0</v>
       </c>
       <c r="L313" s="5" t="s">
         <v>246</v>
@@ -10626,16 +10629,16 @@
     </row>
     <row r="314" spans="1:14">
       <c r="A314" s="4">
-        <v>7254095</v>
+        <v>7141330</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
@@ -10644,7 +10647,7 @@
         <v>7</v>
       </c>
       <c r="K314" s="4">
-        <v>185.1</v>
+        <v>385.0</v>
       </c>
       <c r="L314" s="5" t="s">
         <v>246</v>
@@ -10686,16 +10689,16 @@
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="4">
-        <v>4143978</v>
+        <v>7106747</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
@@ -10704,7 +10707,7 @@
         <v>7</v>
       </c>
       <c r="K316" s="4">
-        <v>250.0</v>
+        <v>340.0</v>
       </c>
       <c r="L316" s="5" t="s">
         <v>249</v>
@@ -10716,16 +10719,16 @@
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="4">
-        <v>7185499</v>
+        <v>5037553</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
@@ -10734,7 +10737,7 @@
         <v>7</v>
       </c>
       <c r="K317" s="4">
-        <v>28.97</v>
+        <v>1603.3</v>
       </c>
       <c r="L317" s="5" t="s">
         <v>249</v>
@@ -10746,16 +10749,16 @@
     </row>
     <row r="318" spans="1:14">
       <c r="A318" s="4">
-        <v>1052847</v>
+        <v>4143978</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
@@ -10764,7 +10767,7 @@
         <v>7</v>
       </c>
       <c r="K318" s="4">
-        <v>138.0</v>
+        <v>250.0</v>
       </c>
       <c r="L318" s="5" t="s">
         <v>249</v>
@@ -10776,16 +10779,16 @@
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="4">
-        <v>7185499</v>
+        <v>1873728</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
@@ -10794,7 +10797,7 @@
         <v>7</v>
       </c>
       <c r="K319" s="4">
-        <v>39.33</v>
+        <v>692.0</v>
       </c>
       <c r="L319" s="5" t="s">
         <v>249</v>
@@ -10806,16 +10809,16 @@
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="4">
-        <v>7109398</v>
+        <v>7185499</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
@@ -10824,7 +10827,7 @@
         <v>7</v>
       </c>
       <c r="K320" s="4">
-        <v>2869.76</v>
+        <v>28.97</v>
       </c>
       <c r="L320" s="5" t="s">
         <v>249</v>
@@ -10836,10 +10839,10 @@
     </row>
     <row r="321" spans="1:14">
       <c r="A321" s="4">
-        <v>1873728</v>
+        <v>1884070</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -10854,7 +10857,7 @@
         <v>7</v>
       </c>
       <c r="K321" s="4">
-        <v>692.0</v>
+        <v>641.7</v>
       </c>
       <c r="L321" s="5" t="s">
         <v>249</v>
@@ -10866,16 +10869,16 @@
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="4">
-        <v>5008907</v>
+        <v>7185499</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
@@ -10884,7 +10887,7 @@
         <v>7</v>
       </c>
       <c r="K322" s="4">
-        <v>1220.0</v>
+        <v>39.33</v>
       </c>
       <c r="L322" s="5" t="s">
         <v>249</v>
@@ -10896,16 +10899,16 @@
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="4">
-        <v>7106747</v>
+        <v>1052847</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
@@ -10914,7 +10917,7 @@
         <v>7</v>
       </c>
       <c r="K323" s="4">
-        <v>340.0</v>
+        <v>138.0</v>
       </c>
       <c r="L323" s="5" t="s">
         <v>249</v>
@@ -10926,7 +10929,7 @@
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="4">
-        <v>1884070</v>
+        <v>7109398</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>251</v>
@@ -10935,7 +10938,7 @@
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
@@ -10944,7 +10947,7 @@
         <v>7</v>
       </c>
       <c r="K324" s="4">
-        <v>641.7</v>
+        <v>2869.76</v>
       </c>
       <c r="L324" s="5" t="s">
         <v>249</v>
@@ -10956,16 +10959,16 @@
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="4">
-        <v>5037553</v>
+        <v>5008907</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
@@ -10974,7 +10977,7 @@
         <v>7</v>
       </c>
       <c r="K325" s="4">
-        <v>1603.3</v>
+        <v>1220.0</v>
       </c>
       <c r="L325" s="5" t="s">
         <v>249</v>
@@ -11016,16 +11019,16 @@
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="4">
-        <v>454545</v>
+        <v>6786439</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
@@ -11034,7 +11037,7 @@
         <v>7</v>
       </c>
       <c r="K327" s="4">
-        <v>1083.33</v>
+        <v>987.5</v>
       </c>
       <c r="L327" s="5" t="s">
         <v>252</v>
@@ -11046,16 +11049,16 @@
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="4">
-        <v>6786439</v>
+        <v>1848994</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
@@ -11064,7 +11067,7 @@
         <v>7</v>
       </c>
       <c r="K328" s="4">
-        <v>987.5</v>
+        <v>1180.0</v>
       </c>
       <c r="L328" s="5" t="s">
         <v>252</v>
@@ -11076,16 +11079,16 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="4">
-        <v>1848994</v>
+        <v>454545</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4" t="s">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
@@ -11094,7 +11097,7 @@
         <v>7</v>
       </c>
       <c r="K329" s="4">
-        <v>1180.0</v>
+        <v>1083.33</v>
       </c>
       <c r="L329" s="5" t="s">
         <v>252</v>
@@ -11106,16 +11109,16 @@
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="4">
-        <v>5006333</v>
+        <v>7211060</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
@@ -11124,7 +11127,7 @@
         <v>7</v>
       </c>
       <c r="K330" s="4">
-        <v>263.5</v>
+        <v>892.5</v>
       </c>
       <c r="L330" s="5" t="s">
         <v>254</v>
@@ -11136,16 +11139,16 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="4">
-        <v>7203812</v>
+        <v>4137855</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
@@ -11154,7 +11157,7 @@
         <v>7</v>
       </c>
       <c r="K331" s="4">
-        <v>260.48</v>
+        <v>1973.3</v>
       </c>
       <c r="L331" s="5" t="s">
         <v>254</v>
@@ -11166,16 +11169,16 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="4">
-        <v>7185499</v>
+        <v>5006333</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
@@ -11184,7 +11187,7 @@
         <v>7</v>
       </c>
       <c r="K332" s="4">
-        <v>39.33</v>
+        <v>263.5</v>
       </c>
       <c r="L332" s="5" t="s">
         <v>254</v>
@@ -11196,16 +11199,16 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="4">
-        <v>4137855</v>
+        <v>7185499</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
@@ -11214,7 +11217,7 @@
         <v>7</v>
       </c>
       <c r="K333" s="4">
-        <v>1973.3</v>
+        <v>39.33</v>
       </c>
       <c r="L333" s="5" t="s">
         <v>254</v>
@@ -11226,16 +11229,16 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="4">
-        <v>7211060</v>
+        <v>7668170</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
@@ -11244,7 +11247,7 @@
         <v>7</v>
       </c>
       <c r="K334" s="4">
-        <v>892.5</v>
+        <v>493.3</v>
       </c>
       <c r="L334" s="5" t="s">
         <v>254</v>
@@ -11256,16 +11259,16 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="4">
-        <v>7668170</v>
+        <v>7203812</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
@@ -11274,7 +11277,7 @@
         <v>7</v>
       </c>
       <c r="K335" s="4">
-        <v>493.3</v>
+        <v>260.48</v>
       </c>
       <c r="L335" s="5" t="s">
         <v>254</v>
@@ -11346,16 +11349,16 @@
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="4">
-        <v>5787275</v>
+        <v>7167479</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
@@ -11364,7 +11367,7 @@
         <v>7</v>
       </c>
       <c r="K338" s="4">
-        <v>1010.6</v>
+        <v>533.3</v>
       </c>
       <c r="L338" s="5" t="s">
         <v>256</v>
@@ -11406,16 +11409,16 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="4">
-        <v>5809785</v>
+        <v>5787275</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
@@ -11424,7 +11427,7 @@
         <v>7</v>
       </c>
       <c r="K340" s="4">
-        <v>812.5</v>
+        <v>1010.6</v>
       </c>
       <c r="L340" s="5" t="s">
         <v>256</v>
@@ -11465,11 +11468,11 @@
       </c>
     </row>
     <row r="342" spans="1:14">
-      <c r="A342" s="4" t="s">
-        <v>259</v>
+      <c r="A342" s="4">
+        <v>5809785</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -11484,7 +11487,7 @@
         <v>7</v>
       </c>
       <c r="K342" s="4">
-        <v>363.8</v>
+        <v>812.5</v>
       </c>
       <c r="L342" s="5" t="s">
         <v>256</v>
@@ -11525,17 +11528,17 @@
       </c>
     </row>
     <row r="344" spans="1:14">
-      <c r="A344" s="4">
-        <v>7167479</v>
+      <c r="A344" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
@@ -11544,7 +11547,7 @@
         <v>7</v>
       </c>
       <c r="K344" s="4">
-        <v>533.3</v>
+        <v>363.8</v>
       </c>
       <c r="L344" s="5" t="s">
         <v>256</v>
@@ -11556,16 +11559,16 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="4">
-        <v>5805990</v>
+        <v>7177540</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
@@ -11586,16 +11589,16 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="4">
-        <v>7259089</v>
+        <v>1899950</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
@@ -11604,7 +11607,7 @@
         <v>7</v>
       </c>
       <c r="K346" s="4">
-        <v>818.38</v>
+        <v>39.3</v>
       </c>
       <c r="L346" s="5" t="s">
         <v>261</v>
@@ -11616,16 +11619,16 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="4">
-        <v>7254095</v>
+        <v>5805990</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
@@ -11634,7 +11637,7 @@
         <v>7</v>
       </c>
       <c r="K347" s="4">
-        <v>185.1</v>
+        <v>510.0</v>
       </c>
       <c r="L347" s="5" t="s">
         <v>261</v>
@@ -11646,16 +11649,16 @@
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="4">
-        <v>1899950</v>
+        <v>7254095</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
@@ -11664,7 +11667,7 @@
         <v>7</v>
       </c>
       <c r="K348" s="4">
-        <v>39.3</v>
+        <v>185.1</v>
       </c>
       <c r="L348" s="5" t="s">
         <v>261</v>
@@ -11676,16 +11679,16 @@
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="4">
-        <v>7185499</v>
+        <v>7259089</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
@@ -11694,7 +11697,7 @@
         <v>7</v>
       </c>
       <c r="K349" s="4">
-        <v>39.33</v>
+        <v>818.38</v>
       </c>
       <c r="L349" s="5" t="s">
         <v>261</v>
@@ -11706,16 +11709,16 @@
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="4">
-        <v>7177540</v>
+        <v>7185499</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
@@ -11724,7 +11727,7 @@
         <v>7</v>
       </c>
       <c r="K350" s="4">
-        <v>510.0</v>
+        <v>39.33</v>
       </c>
       <c r="L350" s="5" t="s">
         <v>261</v>
@@ -11736,16 +11739,16 @@
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="4">
-        <v>1052847</v>
+        <v>1899950</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
@@ -11754,7 +11757,7 @@
         <v>7</v>
       </c>
       <c r="K351" s="4">
-        <v>138.0</v>
+        <v>39.3</v>
       </c>
       <c r="L351" s="5" t="s">
         <v>262</v>
@@ -11766,10 +11769,10 @@
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="4">
-        <v>1899950</v>
+        <v>7117514</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -11784,7 +11787,7 @@
         <v>7</v>
       </c>
       <c r="K352" s="4">
-        <v>39.3</v>
+        <v>1355.7</v>
       </c>
       <c r="L352" s="5" t="s">
         <v>262</v>
@@ -11796,16 +11799,16 @@
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="4">
-        <v>5008907</v>
+        <v>7185499</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
@@ -11814,7 +11817,7 @@
         <v>7</v>
       </c>
       <c r="K353" s="4">
-        <v>2310.0</v>
+        <v>39.33</v>
       </c>
       <c r="L353" s="5" t="s">
         <v>262</v>
@@ -11826,16 +11829,16 @@
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="4">
-        <v>7185499</v>
+        <v>4141852</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
@@ -11844,7 +11847,7 @@
         <v>7</v>
       </c>
       <c r="K354" s="4">
-        <v>39.33</v>
+        <v>570.0</v>
       </c>
       <c r="L354" s="5" t="s">
         <v>262</v>
@@ -11856,16 +11859,16 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="4">
-        <v>12411923</v>
+        <v>1052847</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
@@ -11874,7 +11877,7 @@
         <v>7</v>
       </c>
       <c r="K355" s="4">
-        <v>1726.67</v>
+        <v>138.0</v>
       </c>
       <c r="L355" s="5" t="s">
         <v>262</v>
@@ -11886,16 +11889,16 @@
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="4">
-        <v>5001200</v>
+        <v>5049517</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
@@ -11904,7 +11907,7 @@
         <v>7</v>
       </c>
       <c r="K356" s="4">
-        <v>641.7</v>
+        <v>1132.8</v>
       </c>
       <c r="L356" s="5" t="s">
         <v>262</v>
@@ -11916,10 +11919,10 @@
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="4">
-        <v>5049517</v>
+        <v>7185499</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -11934,7 +11937,7 @@
         <v>7</v>
       </c>
       <c r="K357" s="4">
-        <v>1132.8</v>
+        <v>39.33</v>
       </c>
       <c r="L357" s="5" t="s">
         <v>262</v>
@@ -11946,16 +11949,16 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="4">
-        <v>7185499</v>
+        <v>5008907</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
@@ -11964,7 +11967,7 @@
         <v>7</v>
       </c>
       <c r="K358" s="4">
-        <v>39.33</v>
+        <v>2310.0</v>
       </c>
       <c r="L358" s="5" t="s">
         <v>262</v>
@@ -11976,16 +11979,16 @@
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="4">
-        <v>4141852</v>
+        <v>12411923</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
@@ -11994,7 +11997,7 @@
         <v>7</v>
       </c>
       <c r="K359" s="4">
-        <v>570.0</v>
+        <v>1726.67</v>
       </c>
       <c r="L359" s="5" t="s">
         <v>262</v>
@@ -12006,16 +12009,16 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="4">
-        <v>4143978</v>
+        <v>5001200</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
@@ -12024,7 +12027,7 @@
         <v>7</v>
       </c>
       <c r="K360" s="4">
-        <v>250.0</v>
+        <v>641.7</v>
       </c>
       <c r="L360" s="5" t="s">
         <v>262</v>
@@ -12036,16 +12039,16 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="4">
-        <v>7117514</v>
+        <v>4143978</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
@@ -12054,7 +12057,7 @@
         <v>7</v>
       </c>
       <c r="K361" s="4">
-        <v>1355.7</v>
+        <v>250.0</v>
       </c>
       <c r="L361" s="5" t="s">
         <v>262</v>
@@ -12096,10 +12099,10 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="4">
-        <v>1899950</v>
+        <v>5800232</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -12114,10 +12117,10 @@
         <v>7</v>
       </c>
       <c r="K363" s="4">
-        <v>39.3</v>
+        <v>770.0</v>
       </c>
       <c r="L363" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M363" s="4"/>
       <c r="N363" s="6" t="s">
@@ -12126,16 +12129,16 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="4">
-        <v>5800232</v>
+        <v>454545</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
@@ -12144,10 +12147,10 @@
         <v>7</v>
       </c>
       <c r="K364" s="4">
-        <v>770.0</v>
+        <v>1083.33</v>
       </c>
       <c r="L364" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M364" s="4"/>
       <c r="N364" s="6" t="s">
@@ -12156,16 +12159,16 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="4">
-        <v>454545</v>
+        <v>1899950</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
@@ -12174,10 +12177,10 @@
         <v>7</v>
       </c>
       <c r="K365" s="4">
-        <v>1083.33</v>
+        <v>39.3</v>
       </c>
       <c r="L365" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M365" s="4"/>
       <c r="N365" s="6" t="s">
@@ -12207,7 +12210,7 @@
         <v>39.33</v>
       </c>
       <c r="L366" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M366" s="4"/>
       <c r="N366" s="6" t="s">
@@ -12246,16 +12249,16 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="4">
-        <v>7211060</v>
+        <v>7203812</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
@@ -12264,7 +12267,7 @@
         <v>7</v>
       </c>
       <c r="K368" s="4">
-        <v>892.5</v>
+        <v>260.48</v>
       </c>
       <c r="L368" s="5" t="s">
         <v>267</v>
@@ -12306,16 +12309,16 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="4">
-        <v>5006333</v>
+        <v>7211060</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
@@ -12324,7 +12327,7 @@
         <v>7</v>
       </c>
       <c r="K370" s="4">
-        <v>263.5</v>
+        <v>892.5</v>
       </c>
       <c r="L370" s="5" t="s">
         <v>267</v>
@@ -12336,10 +12339,10 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="4">
-        <v>7203812</v>
+        <v>5006333</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
@@ -12354,7 +12357,7 @@
         <v>7</v>
       </c>
       <c r="K371" s="4">
-        <v>260.48</v>
+        <v>263.5</v>
       </c>
       <c r="L371" s="5" t="s">
         <v>267</v>
@@ -12426,16 +12429,16 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="4">
-        <v>1886834</v>
+        <v>10635688</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
@@ -12444,7 +12447,7 @@
         <v>7</v>
       </c>
       <c r="K374" s="4">
-        <v>218.75</v>
+        <v>898.3</v>
       </c>
       <c r="L374" s="5" t="s">
         <v>268</v>
@@ -12456,16 +12459,16 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="4">
-        <v>1899950</v>
+        <v>1886834</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
@@ -12474,7 +12477,7 @@
         <v>7</v>
       </c>
       <c r="K375" s="4">
-        <v>39.3</v>
+        <v>218.75</v>
       </c>
       <c r="L375" s="5" t="s">
         <v>268</v>
@@ -12486,10 +12489,10 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="4">
-        <v>10635688</v>
+        <v>1899950</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
@@ -12504,7 +12507,7 @@
         <v>7</v>
       </c>
       <c r="K376" s="4">
-        <v>898.3</v>
+        <v>39.3</v>
       </c>
       <c r="L376" s="5" t="s">
         <v>268</v>
@@ -12516,16 +12519,16 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="4">
-        <v>10644416</v>
+        <v>7103441</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
@@ -12534,10 +12537,10 @@
         <v>7</v>
       </c>
       <c r="K377" s="4">
-        <v>300.0</v>
+        <v>1480.0</v>
       </c>
       <c r="L377" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M377" s="4"/>
       <c r="N377" s="6" t="s">
@@ -12546,10 +12549,10 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="4">
-        <v>7245064</v>
+        <v>1899950</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
@@ -12564,10 +12567,10 @@
         <v>7</v>
       </c>
       <c r="K378" s="4">
-        <v>150.0</v>
+        <v>39.3</v>
       </c>
       <c r="L378" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M378" s="4"/>
       <c r="N378" s="6" t="s">
@@ -12576,16 +12579,16 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="4">
-        <v>1899950</v>
+        <v>7105285</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
@@ -12594,10 +12597,10 @@
         <v>7</v>
       </c>
       <c r="K379" s="4">
-        <v>39.3</v>
+        <v>590.0</v>
       </c>
       <c r="L379" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M379" s="4"/>
       <c r="N379" s="6" t="s">
@@ -12606,16 +12609,16 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="4">
-        <v>7103441</v>
+        <v>10644416</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
@@ -12624,10 +12627,10 @@
         <v>7</v>
       </c>
       <c r="K380" s="4">
-        <v>1480.0</v>
+        <v>300.0</v>
       </c>
       <c r="L380" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M380" s="4"/>
       <c r="N380" s="6" t="s">
@@ -12657,7 +12660,7 @@
         <v>39.33</v>
       </c>
       <c r="L381" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M381" s="4"/>
       <c r="N381" s="6" t="s">
@@ -12666,16 +12669,16 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="4">
-        <v>5787275</v>
+        <v>7245064</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G382" s="4"/>
       <c r="H382" s="4"/>
@@ -12684,10 +12687,10 @@
         <v>7</v>
       </c>
       <c r="K382" s="4">
-        <v>1010.6</v>
+        <v>150.0</v>
       </c>
       <c r="L382" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M382" s="4"/>
       <c r="N382" s="6" t="s">
@@ -12696,16 +12699,16 @@
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="4">
-        <v>7105285</v>
+        <v>5787275</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
@@ -12714,10 +12717,10 @@
         <v>7</v>
       </c>
       <c r="K383" s="4">
-        <v>590.0</v>
+        <v>1010.6</v>
       </c>
       <c r="L383" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M383" s="4"/>
       <c r="N383" s="6" t="s">
@@ -12726,16 +12729,16 @@
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="4">
-        <v>7109398</v>
+        <v>7254095</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
@@ -12744,7 +12747,7 @@
         <v>7</v>
       </c>
       <c r="K384" s="4">
-        <v>2869.76</v>
+        <v>185.1</v>
       </c>
       <c r="L384" s="5" t="s">
         <v>274</v>
@@ -12756,16 +12759,16 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="4">
-        <v>1873728</v>
+        <v>5506680</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
@@ -12774,7 +12777,7 @@
         <v>7</v>
       </c>
       <c r="K385" s="4">
-        <v>692.0</v>
+        <v>256.7</v>
       </c>
       <c r="L385" s="5" t="s">
         <v>274</v>
@@ -12786,16 +12789,16 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="4">
-        <v>5506680</v>
+        <v>7259089</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
@@ -12804,7 +12807,7 @@
         <v>7</v>
       </c>
       <c r="K386" s="4">
-        <v>256.7</v>
+        <v>818.38</v>
       </c>
       <c r="L386" s="5" t="s">
         <v>274</v>
@@ -12816,16 +12819,16 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="4">
-        <v>7106747</v>
+        <v>1899950</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
@@ -12834,7 +12837,7 @@
         <v>7</v>
       </c>
       <c r="K387" s="4">
-        <v>340.0</v>
+        <v>39.3</v>
       </c>
       <c r="L387" s="5" t="s">
         <v>274</v>
@@ -12846,16 +12849,16 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="4">
-        <v>5037553</v>
+        <v>7109398</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
@@ -12864,7 +12867,7 @@
         <v>7</v>
       </c>
       <c r="K388" s="4">
-        <v>1603.3</v>
+        <v>2869.76</v>
       </c>
       <c r="L388" s="5" t="s">
         <v>274</v>
@@ -12876,16 +12879,16 @@
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="4">
-        <v>1899950</v>
+        <v>7106747</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
@@ -12894,7 +12897,7 @@
         <v>7</v>
       </c>
       <c r="K389" s="4">
-        <v>39.3</v>
+        <v>340.0</v>
       </c>
       <c r="L389" s="5" t="s">
         <v>274</v>
@@ -12936,16 +12939,16 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="4">
-        <v>7259089</v>
+        <v>5037553</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
@@ -12954,7 +12957,7 @@
         <v>7</v>
       </c>
       <c r="K391" s="4">
-        <v>818.38</v>
+        <v>1603.3</v>
       </c>
       <c r="L391" s="5" t="s">
         <v>274</v>
@@ -12966,16 +12969,16 @@
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="4">
-        <v>7254095</v>
+        <v>1873728</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
@@ -12984,7 +12987,7 @@
         <v>7</v>
       </c>
       <c r="K392" s="4">
-        <v>185.1</v>
+        <v>692.0</v>
       </c>
       <c r="L392" s="5" t="s">
         <v>274</v>
@@ -12996,16 +12999,16 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="4">
-        <v>7212958</v>
+        <v>1836015</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
@@ -13014,10 +13017,10 @@
         <v>7</v>
       </c>
       <c r="K393" s="4">
-        <v>1059.08</v>
+        <v>513.3</v>
       </c>
       <c r="L393" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M393" s="4"/>
       <c r="N393" s="6" t="s">
@@ -13026,16 +13029,16 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="4">
-        <v>12381291</v>
+        <v>7136623</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
@@ -13044,10 +13047,10 @@
         <v>7</v>
       </c>
       <c r="K394" s="4">
-        <v>898.3</v>
+        <v>770.0</v>
       </c>
       <c r="L394" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M394" s="4"/>
       <c r="N394" s="6" t="s">
@@ -13056,16 +13059,16 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="4">
-        <v>1836015</v>
+        <v>5008907</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
@@ -13074,10 +13077,10 @@
         <v>7</v>
       </c>
       <c r="K395" s="4">
-        <v>513.3</v>
+        <v>2310.0</v>
       </c>
       <c r="L395" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M395" s="4"/>
       <c r="N395" s="6" t="s">
@@ -13107,7 +13110,7 @@
         <v>39.33</v>
       </c>
       <c r="L396" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M396" s="4"/>
       <c r="N396" s="6" t="s">
@@ -13116,16 +13119,16 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="4">
-        <v>7136623</v>
+        <v>7185499</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
@@ -13134,10 +13137,10 @@
         <v>7</v>
       </c>
       <c r="K397" s="4">
-        <v>770.0</v>
+        <v>39.33</v>
       </c>
       <c r="L397" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M397" s="4"/>
       <c r="N397" s="6" t="s">
@@ -13146,16 +13149,16 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="4">
-        <v>7185499</v>
+        <v>4143978</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
@@ -13164,10 +13167,10 @@
         <v>7</v>
       </c>
       <c r="K398" s="4">
-        <v>39.33</v>
+        <v>250.0</v>
       </c>
       <c r="L398" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M398" s="4"/>
       <c r="N398" s="6" t="s">
@@ -13176,16 +13179,16 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="4">
-        <v>4143978</v>
+        <v>7212958</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
@@ -13194,10 +13197,10 @@
         <v>7</v>
       </c>
       <c r="K399" s="4">
-        <v>250.0</v>
+        <v>1059.08</v>
       </c>
       <c r="L399" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M399" s="4"/>
       <c r="N399" s="6" t="s">
@@ -13206,16 +13209,16 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="4">
-        <v>5232977</v>
+        <v>1899092</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
@@ -13224,10 +13227,10 @@
         <v>7</v>
       </c>
       <c r="K400" s="4">
-        <v>1726.7</v>
+        <v>770.0</v>
       </c>
       <c r="L400" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M400" s="4"/>
       <c r="N400" s="6" t="s">
@@ -13236,16 +13239,16 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="4">
-        <v>1052847</v>
+        <v>5232977</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
@@ -13254,10 +13257,10 @@
         <v>7</v>
       </c>
       <c r="K401" s="4">
-        <v>138.0</v>
+        <v>1726.7</v>
       </c>
       <c r="L401" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M401" s="4"/>
       <c r="N401" s="6" t="s">
@@ -13266,16 +13269,16 @@
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="4">
-        <v>5008907</v>
+        <v>12381291</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
@@ -13284,10 +13287,10 @@
         <v>7</v>
       </c>
       <c r="K402" s="4">
-        <v>2310.0</v>
+        <v>898.3</v>
       </c>
       <c r="L402" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M402" s="4"/>
       <c r="N402" s="6" t="s">
@@ -13296,16 +13299,16 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="4">
-        <v>5684823</v>
+        <v>1899950</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
@@ -13314,10 +13317,10 @@
         <v>7</v>
       </c>
       <c r="K403" s="4">
-        <v>665.0</v>
+        <v>39.3</v>
       </c>
       <c r="L403" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M403" s="4"/>
       <c r="N403" s="6" t="s">
@@ -13326,16 +13329,16 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="4">
-        <v>1899950</v>
+        <v>5684823</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
@@ -13344,10 +13347,10 @@
         <v>7</v>
       </c>
       <c r="K404" s="4">
-        <v>39.3</v>
+        <v>665.0</v>
       </c>
       <c r="L404" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M404" s="4"/>
       <c r="N404" s="6" t="s">
@@ -13356,16 +13359,16 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="4">
-        <v>1899950</v>
+        <v>1052847</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
@@ -13374,10 +13377,10 @@
         <v>7</v>
       </c>
       <c r="K405" s="4">
-        <v>39.3</v>
+        <v>138.0</v>
       </c>
       <c r="L405" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M405" s="4"/>
       <c r="N405" s="6" t="s">
@@ -13386,16 +13389,16 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="4">
-        <v>1899092</v>
+        <v>1899950</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
@@ -13404,10 +13407,10 @@
         <v>7</v>
       </c>
       <c r="K406" s="4">
-        <v>770.0</v>
+        <v>39.3</v>
       </c>
       <c r="L406" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M406" s="4"/>
       <c r="N406" s="6" t="s">
@@ -13416,16 +13419,16 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="4">
-        <v>1884070</v>
+        <v>4157590</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
@@ -13434,10 +13437,10 @@
         <v>7</v>
       </c>
       <c r="K407" s="4">
-        <v>641.7</v>
+        <v>118.0</v>
       </c>
       <c r="L407" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M407" s="4"/>
       <c r="N407" s="6" t="s">
@@ -13446,16 +13449,16 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="4">
-        <v>454545</v>
+        <v>1899950</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
@@ -13464,10 +13467,10 @@
         <v>7</v>
       </c>
       <c r="K408" s="4">
-        <v>1083.33</v>
+        <v>39.3</v>
       </c>
       <c r="L408" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M408" s="4"/>
       <c r="N408" s="6" t="s">
@@ -13476,16 +13479,16 @@
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="4">
-        <v>7228075</v>
+        <v>454545</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="G409" s="4"/>
       <c r="H409" s="4"/>
@@ -13494,10 +13497,10 @@
         <v>7</v>
       </c>
       <c r="K409" s="4">
-        <v>320.83</v>
+        <v>1083.33</v>
       </c>
       <c r="L409" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M409" s="4"/>
       <c r="N409" s="6" t="s">
@@ -13506,16 +13509,16 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="4">
-        <v>1899950</v>
+        <v>7185499</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
@@ -13524,10 +13527,10 @@
         <v>7</v>
       </c>
       <c r="K410" s="4">
-        <v>39.3</v>
+        <v>39.33</v>
       </c>
       <c r="L410" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M410" s="4"/>
       <c r="N410" s="6" t="s">
@@ -13536,16 +13539,16 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="4">
-        <v>7185499</v>
+        <v>7228075</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
@@ -13554,10 +13557,10 @@
         <v>7</v>
       </c>
       <c r="K411" s="4">
-        <v>39.33</v>
+        <v>320.83</v>
       </c>
       <c r="L411" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M411" s="4"/>
       <c r="N411" s="6" t="s">
@@ -13566,16 +13569,16 @@
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="4">
-        <v>4157590</v>
+        <v>1884070</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
@@ -13584,10 +13587,10 @@
         <v>7</v>
       </c>
       <c r="K412" s="4">
-        <v>118.0</v>
+        <v>641.7</v>
       </c>
       <c r="L412" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M412" s="4"/>
       <c r="N412" s="6" t="s">
@@ -13596,16 +13599,16 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="4">
-        <v>7211060</v>
+        <v>7113724</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
@@ -13614,10 +13617,10 @@
         <v>7</v>
       </c>
       <c r="K413" s="4">
-        <v>892.5</v>
+        <v>680.0</v>
       </c>
       <c r="L413" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M413" s="4"/>
       <c r="N413" s="6" t="s">
@@ -13626,16 +13629,16 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="4">
-        <v>7113724</v>
+        <v>1899950</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
@@ -13644,10 +13647,10 @@
         <v>7</v>
       </c>
       <c r="K414" s="4">
-        <v>680.0</v>
+        <v>39.3</v>
       </c>
       <c r="L414" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M414" s="4"/>
       <c r="N414" s="6" t="s">
@@ -13656,16 +13659,16 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="4">
-        <v>1899950</v>
+        <v>1848994</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
@@ -13674,10 +13677,10 @@
         <v>7</v>
       </c>
       <c r="K415" s="4">
-        <v>39.3</v>
+        <v>1180.0</v>
       </c>
       <c r="L415" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M415" s="4"/>
       <c r="N415" s="6" t="s">
@@ -13686,16 +13689,16 @@
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="4">
-        <v>1848994</v>
+        <v>7211060</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
@@ -13704,10 +13707,10 @@
         <v>7</v>
       </c>
       <c r="K416" s="4">
-        <v>1180.0</v>
+        <v>892.5</v>
       </c>
       <c r="L416" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M416" s="4"/>
       <c r="N416" s="6" t="s">
@@ -13716,16 +13719,16 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="4">
-        <v>7203812</v>
+        <v>7185499</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
@@ -13734,10 +13737,10 @@
         <v>7</v>
       </c>
       <c r="K417" s="4">
-        <v>260.48</v>
+        <v>39.33</v>
       </c>
       <c r="L417" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M417" s="4"/>
       <c r="N417" s="6" t="s">
@@ -13746,16 +13749,16 @@
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="4">
-        <v>7185499</v>
+        <v>7203812</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
@@ -13764,10 +13767,10 @@
         <v>7</v>
       </c>
       <c r="K418" s="4">
-        <v>39.33</v>
+        <v>260.48</v>
       </c>
       <c r="L418" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M418" s="4"/>
       <c r="N418" s="6" t="s">
@@ -13866,7 +13869,7 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="4">
-        <v>7148877</v>
+        <v>5041294</v>
       </c>
       <c r="B422" s="4" t="s">
         <v>284</v>
@@ -13875,7 +13878,7 @@
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
@@ -13884,19 +13887,19 @@
         <v>7</v>
       </c>
       <c r="K422" s="4">
-        <v>632.4</v>
+        <v>680.0</v>
       </c>
       <c r="L422" s="5" t="s">
         <v>285</v>
       </c>
       <c r="M422" s="4"/>
-      <c r="N422" s="7" t="s">
-        <v>4</v>
+      <c r="N422" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="4">
-        <v>5041294</v>
+        <v>7166477</v>
       </c>
       <c r="B423" s="4" t="s">
         <v>286</v>
@@ -13905,7 +13908,7 @@
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
@@ -13914,14 +13917,14 @@
         <v>7</v>
       </c>
       <c r="K423" s="4">
-        <v>680.0</v>
+        <v>1973.3</v>
       </c>
       <c r="L423" s="5" t="s">
         <v>285</v>
       </c>
       <c r="M423" s="4"/>
-      <c r="N423" s="7" t="s">
-        <v>4</v>
+      <c r="N423" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -13950,22 +13953,22 @@
         <v>285</v>
       </c>
       <c r="M424" s="4"/>
-      <c r="N424" s="7" t="s">
-        <v>4</v>
+      <c r="N424" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="4">
-        <v>1884314</v>
+        <v>7245064</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
@@ -13974,14 +13977,14 @@
         <v>7</v>
       </c>
       <c r="K425" s="4">
-        <v>510.9</v>
+        <v>150.0</v>
       </c>
       <c r="L425" s="5" t="s">
         <v>285</v>
       </c>
       <c r="M425" s="4"/>
-      <c r="N425" s="7" t="s">
-        <v>4</v>
+      <c r="N425" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:14">
@@ -13989,7 +13992,7 @@
         <v>5787275</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
@@ -14010,8 +14013,8 @@
         <v>285</v>
       </c>
       <c r="M426" s="4"/>
-      <c r="N426" s="7" t="s">
-        <v>4</v>
+      <c r="N426" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="427" spans="1:14">
@@ -14019,7 +14022,7 @@
         <v>7259959</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -14040,8 +14043,8 @@
         <v>285</v>
       </c>
       <c r="M427" s="4"/>
-      <c r="N427" s="7" t="s">
-        <v>4</v>
+      <c r="N427" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:14">
@@ -14070,22 +14073,22 @@
         <v>285</v>
       </c>
       <c r="M428" s="4"/>
-      <c r="N428" s="7" t="s">
-        <v>4</v>
+      <c r="N428" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="4">
-        <v>7166477</v>
+        <v>1884314</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
@@ -14094,28 +14097,28 @@
         <v>7</v>
       </c>
       <c r="K429" s="4">
-        <v>1973.3</v>
+        <v>510.9</v>
       </c>
       <c r="L429" s="5" t="s">
         <v>285</v>
       </c>
       <c r="M429" s="4"/>
-      <c r="N429" s="7" t="s">
-        <v>4</v>
+      <c r="N429" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="4">
-        <v>7245064</v>
+        <v>7148877</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="G430" s="4"/>
       <c r="H430" s="4"/>
@@ -14124,28 +14127,28 @@
         <v>7</v>
       </c>
       <c r="K430" s="4">
-        <v>150.0</v>
+        <v>632.4</v>
       </c>
       <c r="L430" s="5" t="s">
         <v>285</v>
       </c>
       <c r="M430" s="4"/>
-      <c r="N430" s="7" t="s">
-        <v>4</v>
+      <c r="N430" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="4">
-        <v>1899950</v>
+        <v>5001200</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
@@ -14154,28 +14157,28 @@
         <v>7</v>
       </c>
       <c r="K431" s="4">
-        <v>39.3</v>
+        <v>641.7</v>
       </c>
       <c r="L431" s="5" t="s">
         <v>290</v>
       </c>
       <c r="M431" s="4"/>
-      <c r="N431" s="8" t="s">
-        <v>5</v>
+      <c r="N431" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="4">
-        <v>7259089</v>
+        <v>1899950</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
@@ -14184,28 +14187,28 @@
         <v>7</v>
       </c>
       <c r="K432" s="4">
-        <v>818.38</v>
+        <v>39.3</v>
       </c>
       <c r="L432" s="5" t="s">
         <v>290</v>
       </c>
       <c r="M432" s="4"/>
-      <c r="N432" s="8" t="s">
-        <v>5</v>
+      <c r="N432" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="4">
-        <v>7254095</v>
+        <v>5004813</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G433" s="4"/>
       <c r="H433" s="4"/>
@@ -14214,28 +14217,28 @@
         <v>7</v>
       </c>
       <c r="K433" s="4">
-        <v>185.1</v>
+        <v>898.3</v>
       </c>
       <c r="L433" s="5" t="s">
         <v>290</v>
       </c>
       <c r="M433" s="4"/>
-      <c r="N433" s="8" t="s">
-        <v>5</v>
+      <c r="N433" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="4">
-        <v>5004813</v>
+        <v>7254095</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>291</v>
+        <v>182</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
@@ -14244,28 +14247,28 @@
         <v>7</v>
       </c>
       <c r="K434" s="4">
-        <v>898.3</v>
+        <v>185.1</v>
       </c>
       <c r="L434" s="5" t="s">
         <v>290</v>
       </c>
       <c r="M434" s="4"/>
-      <c r="N434" s="8" t="s">
-        <v>5</v>
+      <c r="N434" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="4">
-        <v>5001200</v>
+        <v>7259089</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
@@ -14274,14 +14277,14 @@
         <v>7</v>
       </c>
       <c r="K435" s="4">
-        <v>641.7</v>
+        <v>818.38</v>
       </c>
       <c r="L435" s="5" t="s">
         <v>290</v>
       </c>
       <c r="M435" s="4"/>
-      <c r="N435" s="8" t="s">
-        <v>5</v>
+      <c r="N435" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:14">
@@ -14289,7 +14292,7 @@
         <v>5049517</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
@@ -14310,8 +14313,8 @@
         <v>290</v>
       </c>
       <c r="M436" s="4"/>
-      <c r="N436" s="8" t="s">
-        <v>5</v>
+      <c r="N436" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="437" spans="1:14">
@@ -14346,16 +14349,16 @@
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="4">
-        <v>1052847</v>
+        <v>5805990</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
@@ -14364,7 +14367,7 @@
         <v>7</v>
       </c>
       <c r="K438" s="4">
-        <v>138.0</v>
+        <v>510.0</v>
       </c>
       <c r="L438" s="5" t="s">
         <v>292</v>
@@ -14375,17 +14378,17 @@
       </c>
     </row>
     <row r="439" spans="1:14">
-      <c r="A439" s="4" t="s">
-        <v>259</v>
+      <c r="A439" s="4">
+        <v>1891279</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G439" s="4"/>
       <c r="H439" s="4"/>
@@ -14394,7 +14397,7 @@
         <v>7</v>
       </c>
       <c r="K439" s="4">
-        <v>363.8</v>
+        <v>740.0</v>
       </c>
       <c r="L439" s="5" t="s">
         <v>292</v>
@@ -14406,16 +14409,16 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="4">
-        <v>5008907</v>
+        <v>1052847</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
@@ -14424,7 +14427,7 @@
         <v>7</v>
       </c>
       <c r="K440" s="4">
-        <v>2310.0</v>
+        <v>138.0</v>
       </c>
       <c r="L440" s="5" t="s">
         <v>292</v>
@@ -14435,17 +14438,17 @@
       </c>
     </row>
     <row r="441" spans="1:14">
-      <c r="A441" s="4">
-        <v>7177540</v>
+      <c r="A441" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="G441" s="4"/>
       <c r="H441" s="4"/>
@@ -14454,7 +14457,7 @@
         <v>7</v>
       </c>
       <c r="K441" s="4">
-        <v>510.0</v>
+        <v>363.8</v>
       </c>
       <c r="L441" s="5" t="s">
         <v>292</v>
@@ -14466,16 +14469,16 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="4">
-        <v>1891279</v>
+        <v>5008907</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="G442" s="4"/>
       <c r="H442" s="4"/>
@@ -14484,7 +14487,7 @@
         <v>7</v>
       </c>
       <c r="K442" s="4">
-        <v>740.0</v>
+        <v>2310.0</v>
       </c>
       <c r="L442" s="5" t="s">
         <v>292</v>
@@ -14496,16 +14499,16 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="4">
-        <v>5805990</v>
+        <v>1899950</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
@@ -14514,7 +14517,7 @@
         <v>7</v>
       </c>
       <c r="K443" s="4">
-        <v>510.0</v>
+        <v>39.3</v>
       </c>
       <c r="L443" s="5" t="s">
         <v>292</v>
@@ -14526,16 +14529,16 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="4">
-        <v>1899950</v>
+        <v>5801048</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
@@ -14544,7 +14547,7 @@
         <v>7</v>
       </c>
       <c r="K444" s="4">
-        <v>39.3</v>
+        <v>696.2</v>
       </c>
       <c r="L444" s="5" t="s">
         <v>292</v>
@@ -14556,16 +14559,16 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="4">
-        <v>5801048</v>
+        <v>7177540</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="G445" s="4"/>
       <c r="H445" s="4"/>
@@ -14574,7 +14577,7 @@
         <v>7</v>
       </c>
       <c r="K445" s="4">
-        <v>696.2</v>
+        <v>510.0</v>
       </c>
       <c r="L445" s="5" t="s">
         <v>292</v>
@@ -14646,16 +14649,16 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="4">
-        <v>7228075</v>
+        <v>4157590</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
@@ -14664,7 +14667,7 @@
         <v>7</v>
       </c>
       <c r="K448" s="4">
-        <v>320.83</v>
+        <v>118.0</v>
       </c>
       <c r="L448" s="5" t="s">
         <v>294</v>
@@ -14676,16 +14679,16 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="4">
-        <v>4141852</v>
+        <v>12411923</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
@@ -14694,7 +14697,7 @@
         <v>7</v>
       </c>
       <c r="K449" s="4">
-        <v>570.0</v>
+        <v>1726.67</v>
       </c>
       <c r="L449" s="5" t="s">
         <v>294</v>
@@ -14706,16 +14709,16 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="4">
-        <v>7117514</v>
+        <v>454545</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
@@ -14724,7 +14727,7 @@
         <v>7</v>
       </c>
       <c r="K450" s="4">
-        <v>2466.7</v>
+        <v>1083.33</v>
       </c>
       <c r="L450" s="5" t="s">
         <v>294</v>
@@ -14766,16 +14769,16 @@
     </row>
     <row r="452" spans="1:14">
       <c r="A452" s="4">
-        <v>7112976</v>
+        <v>7228075</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
@@ -14784,7 +14787,7 @@
         <v>7</v>
       </c>
       <c r="K452" s="4">
-        <v>680.0</v>
+        <v>320.83</v>
       </c>
       <c r="L452" s="5" t="s">
         <v>294</v>
@@ -14796,16 +14799,16 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="4">
-        <v>4157590</v>
+        <v>7112976</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
@@ -14814,7 +14817,7 @@
         <v>7</v>
       </c>
       <c r="K453" s="4">
-        <v>118.0</v>
+        <v>680.0</v>
       </c>
       <c r="L453" s="5" t="s">
         <v>294</v>
@@ -14835,7 +14838,7 @@
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G454" s="4"/>
       <c r="H454" s="4"/>
@@ -14856,16 +14859,16 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455" s="4">
-        <v>12411923</v>
+        <v>7117514</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
@@ -14874,7 +14877,7 @@
         <v>7</v>
       </c>
       <c r="K455" s="4">
-        <v>1726.67</v>
+        <v>2466.7</v>
       </c>
       <c r="L455" s="5" t="s">
         <v>294</v>
@@ -14886,16 +14889,16 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456" s="4">
-        <v>454545</v>
+        <v>4141852</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
@@ -14904,7 +14907,7 @@
         <v>7</v>
       </c>
       <c r="K456" s="4">
-        <v>1083.33</v>
+        <v>570.0</v>
       </c>
       <c r="L456" s="5" t="s">
         <v>294</v>
@@ -14946,16 +14949,16 @@
     </row>
     <row r="458" spans="1:14">
       <c r="A458" s="4">
-        <v>7203812</v>
+        <v>10722849</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
@@ -14964,7 +14967,7 @@
         <v>7</v>
       </c>
       <c r="K458" s="4">
-        <v>260.48</v>
+        <v>580.0</v>
       </c>
       <c r="L458" s="5" t="s">
         <v>297</v>
@@ -14976,16 +14979,16 @@
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="4">
-        <v>10722849</v>
+        <v>5052427</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
@@ -14994,7 +14997,7 @@
         <v>7</v>
       </c>
       <c r="K459" s="4">
-        <v>580.0</v>
+        <v>1480.0</v>
       </c>
       <c r="L459" s="5" t="s">
         <v>297</v>
@@ -15006,10 +15009,10 @@
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="4">
-        <v>4071301</v>
+        <v>7203812</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
@@ -15024,7 +15027,7 @@
         <v>7</v>
       </c>
       <c r="K460" s="4">
-        <v>160.0</v>
+        <v>260.48</v>
       </c>
       <c r="L460" s="5" t="s">
         <v>297</v>
@@ -15036,16 +15039,16 @@
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="4">
-        <v>7211060</v>
+        <v>4071301</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
@@ -15054,7 +15057,7 @@
         <v>7</v>
       </c>
       <c r="K461" s="4">
-        <v>892.5</v>
+        <v>160.0</v>
       </c>
       <c r="L461" s="5" t="s">
         <v>297</v>
@@ -15066,16 +15069,16 @@
     </row>
     <row r="462" spans="1:14">
       <c r="A462" s="4">
-        <v>5052427</v>
+        <v>7211060</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
@@ -15084,7 +15087,7 @@
         <v>7</v>
       </c>
       <c r="K462" s="4">
-        <v>1480.0</v>
+        <v>892.5</v>
       </c>
       <c r="L462" s="5" t="s">
         <v>297</v>
@@ -15186,16 +15189,16 @@
     </row>
     <row r="466" spans="1:14">
       <c r="A466" s="4">
-        <v>1899950</v>
+        <v>5787275</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G466" s="4"/>
       <c r="H466" s="4"/>
@@ -15204,7 +15207,7 @@
         <v>7</v>
       </c>
       <c r="K466" s="4">
-        <v>39.3</v>
+        <v>1010.6</v>
       </c>
       <c r="L466" s="5" t="s">
         <v>303</v>
@@ -15216,10 +15219,10 @@
     </row>
     <row r="467" spans="1:14">
       <c r="A467" s="4">
-        <v>7245064</v>
+        <v>1899950</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
@@ -15234,7 +15237,7 @@
         <v>7</v>
       </c>
       <c r="K467" s="4">
-        <v>150.0</v>
+        <v>39.3</v>
       </c>
       <c r="L467" s="5" t="s">
         <v>303</v>
@@ -15276,16 +15279,16 @@
     </row>
     <row r="469" spans="1:14">
       <c r="A469" s="4">
-        <v>5787275</v>
+        <v>7245064</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G469" s="4"/>
       <c r="H469" s="4"/>
@@ -15294,7 +15297,7 @@
         <v>7</v>
       </c>
       <c r="K469" s="4">
-        <v>1010.6</v>
+        <v>150.0</v>
       </c>
       <c r="L469" s="5" t="s">
         <v>303</v>
@@ -15304,12 +15307,162 @@
         <v>5</v>
       </c>
     </row>
+    <row r="470" spans="1:14">
+      <c r="A470" s="4">
+        <v>7254095</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C470" s="4"/>
+      <c r="D470" s="4"/>
+      <c r="E470" s="4"/>
+      <c r="F470" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G470" s="4"/>
+      <c r="H470" s="4"/>
+      <c r="I470" s="4"/>
+      <c r="J470" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K470" s="4">
+        <v>185.1</v>
+      </c>
+      <c r="L470" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="M470" s="4"/>
+      <c r="N470" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="471" spans="1:14">
-      <c r="A471" t="s">
+      <c r="A471" s="4">
+        <v>7259089</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C471" s="4"/>
+      <c r="D471" s="4"/>
+      <c r="E471" s="4"/>
+      <c r="F471" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G471" s="4"/>
+      <c r="H471" s="4"/>
+      <c r="I471" s="4"/>
+      <c r="J471" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K471" s="4">
+        <v>818.38</v>
+      </c>
+      <c r="L471" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B471" t="s">
+      <c r="M471" s="4"/>
+      <c r="N471" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14">
+      <c r="A472" s="4">
+        <v>5684823</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C472" s="4"/>
+      <c r="D472" s="4"/>
+      <c r="E472" s="4"/>
+      <c r="F472" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G472" s="4"/>
+      <c r="H472" s="4"/>
+      <c r="I472" s="4"/>
+      <c r="J472" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K472" s="4">
+        <v>665.0</v>
+      </c>
+      <c r="L472" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="M472" s="4"/>
+      <c r="N472" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14">
+      <c r="A473" s="4">
+        <v>1836015</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C473" s="4"/>
+      <c r="D473" s="4"/>
+      <c r="E473" s="4"/>
+      <c r="F473" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G473" s="4"/>
+      <c r="H473" s="4"/>
+      <c r="I473" s="4"/>
+      <c r="J473" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K473" s="4">
+        <v>513.3</v>
+      </c>
+      <c r="L473" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="M473" s="4"/>
+      <c r="N473" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14">
+      <c r="A474" s="4">
+        <v>1899950</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C474" s="4"/>
+      <c r="D474" s="4"/>
+      <c r="E474" s="4"/>
+      <c r="F474" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G474" s="4"/>
+      <c r="H474" s="4"/>
+      <c r="I474" s="4"/>
+      <c r="J474" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K474" s="4">
+        <v>39.3</v>
+      </c>
+      <c r="L474" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="M474" s="4"/>
+      <c r="N474" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14">
+      <c r="A476" t="s">
         <v>305</v>
+      </c>
+      <c r="B476" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -16703,13 +16856,28 @@
     <mergeCell ref="B469:E469"/>
     <mergeCell ref="F469:I469"/>
     <mergeCell ref="L469:M469"/>
-    <mergeCell ref="B471:N471"/>
+    <mergeCell ref="B470:E470"/>
+    <mergeCell ref="F470:I470"/>
+    <mergeCell ref="L470:M470"/>
+    <mergeCell ref="B471:E471"/>
+    <mergeCell ref="F471:I471"/>
+    <mergeCell ref="L471:M471"/>
+    <mergeCell ref="B472:E472"/>
+    <mergeCell ref="F472:I472"/>
+    <mergeCell ref="L472:M472"/>
+    <mergeCell ref="B473:E473"/>
+    <mergeCell ref="F473:I473"/>
+    <mergeCell ref="L473:M473"/>
+    <mergeCell ref="B474:E474"/>
+    <mergeCell ref="F474:I474"/>
+    <mergeCell ref="L474:M474"/>
+    <mergeCell ref="B476:N476"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="73" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader>&amp;L2022-11-19 10:14:15&amp;C&amp;HCREDICHURA CASA&amp;RTODOS</oddHeader>
+    <oddHeader>&amp;L2022-11-21 01:34:39&amp;C&amp;HECOMSOFT&amp;RTODOS</oddHeader>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
     <evenHeader/>
     <evenFooter/>

--- a/public/week_data.xlsx
+++ b/public/week_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t>USUARIO ORLANDO BEJARANO FERNANDEZ</t>
   </si>
@@ -260,12 +260,12 @@
     <t>2022-06-15</t>
   </si>
   <si>
+    <t>JHONNY GABRIEL ONTIVEROS RASGUIDO</t>
+  </si>
+  <si>
     <t>2022-06-16</t>
   </si>
   <si>
-    <t>JHONNY GABRIEL ONTIVEROS RASGUIDO</t>
-  </si>
-  <si>
     <t>2022-06-17</t>
   </si>
   <si>
@@ -323,12 +323,12 @@
     <t>2022-07-08</t>
   </si>
   <si>
+    <t>PAOLA PATRICIA CAMPERO</t>
+  </si>
+  <si>
     <t>2022-07-09</t>
   </si>
   <si>
-    <t>PAOLA PATRICIA CAMPERO</t>
-  </si>
-  <si>
     <t>2022-07-11</t>
   </si>
   <si>
@@ -425,36 +425,36 @@
     <t>2022-08-15</t>
   </si>
   <si>
+    <t>LUCIA VALLEJOS FLORES</t>
+  </si>
+  <si>
     <t>2022-08-16</t>
   </si>
   <si>
-    <t>LUCIA VALLEJOS FLORES</t>
-  </si>
-  <si>
     <t>2022-08-17</t>
   </si>
   <si>
     <t>2022-08-18</t>
   </si>
   <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
     <t>NOEMI LILA LOPEZ CANEDO</t>
   </si>
   <si>
-    <t>2022-08-19</t>
+    <t>2022-08-20</t>
+  </si>
+  <si>
+    <t>ANA LIA GARCIA MEDRANO</t>
+  </si>
+  <si>
+    <t>SR. ADALID ALFREDO ZEBALLOS TEJERINA</t>
   </si>
   <si>
     <t>SABINO CHOQUE</t>
   </si>
   <si>
-    <t>2022-08-20</t>
-  </si>
-  <si>
-    <t>ANA LIA GARCIA MEDRANO</t>
-  </si>
-  <si>
-    <t>SR. ADALID ALFREDO ZEBALLOS TEJERINA</t>
-  </si>
-  <si>
     <t>2022-08-23</t>
   </si>
   <si>
@@ -473,12 +473,12 @@
     <t>2022-08-27</t>
   </si>
   <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
     <t>KEYCLIN KATHERIN CASTILLO CABRERA</t>
   </si>
   <si>
-    <t>2022-08-30</t>
-  </si>
-  <si>
     <t>2022-08-31</t>
   </si>
   <si>
@@ -494,12 +494,12 @@
     <t>2022-09-05</t>
   </si>
   <si>
+    <t>2022-09-06</t>
+  </si>
+  <si>
     <t>FIDEL FALON GALEAN</t>
   </si>
   <si>
-    <t>2022-09-06</t>
-  </si>
-  <si>
     <t>2022-09-07</t>
   </si>
   <si>
@@ -515,18 +515,18 @@
     <t>2022-09-10</t>
   </si>
   <si>
+    <t>LUCIA ISABEL ROMERO FARFAN</t>
+  </si>
+  <si>
     <t>2022-09-13</t>
   </si>
   <si>
-    <t>LUCIA ISABEL ROMERO FARFAN</t>
+    <t>2022-09-14</t>
   </si>
   <si>
     <t>MARIBEL CASTILLO MELA</t>
   </si>
   <si>
-    <t>2022-09-14</t>
-  </si>
-  <si>
     <t>2022-09-15</t>
   </si>
   <si>
@@ -587,15 +587,15 @@
     <t>BARBARITA CRISTINA ZENTENO MARISCAL</t>
   </si>
   <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>CYNTIA YOVANA VELASCO VACA</t>
+  </si>
+  <si>
     <t>LILIANA TORRICO ROMERO DE CONDORI</t>
   </si>
   <si>
-    <t>2022-09-30</t>
-  </si>
-  <si>
-    <t>CYNTIA YOVANA VELASCO VACA</t>
-  </si>
-  <si>
     <t>2022-10-01</t>
   </si>
   <si>
@@ -605,15 +605,15 @@
     <t>2022-10-03</t>
   </si>
   <si>
+    <t>MARIA JOSE FLORES TORREZ</t>
+  </si>
+  <si>
     <t>2022-10-04</t>
   </si>
   <si>
     <t>BERTHA CUEVAS FLORES</t>
   </si>
   <si>
-    <t>MARIA JOSE FLORES TORREZ</t>
-  </si>
-  <si>
     <t>2022-10-05</t>
   </si>
   <si>
@@ -683,12 +683,12 @@
     <t>MARISOL DANIELA RAMOS</t>
   </si>
   <si>
+    <t>LEONOR ARENAS TOLABA</t>
+  </si>
+  <si>
     <t>2022-10-18</t>
   </si>
   <si>
-    <t>LEONOR ARENAS TOLABA</t>
-  </si>
-  <si>
     <t>2022-10-19</t>
   </si>
   <si>
@@ -707,33 +707,33 @@
     <t>2022-10-21</t>
   </si>
   <si>
+    <t>FIDEL FABIAN GARECA ACOSTA</t>
+  </si>
+  <si>
     <t>RUTH MARIBEL ANDRADE ZAPATA</t>
   </si>
   <si>
-    <t>FIDEL FABIAN GARECA ACOSTA</t>
-  </si>
-  <si>
     <t>2022-10-22</t>
   </si>
   <si>
     <t>2022-10-24</t>
   </si>
   <si>
+    <t>2022-10-25</t>
+  </si>
+  <si>
+    <t>JAQUELINE TEODORA MAULLCU CONDORI</t>
+  </si>
+  <si>
+    <t>MARIA LOURDES VACA RAMOS DE VELASCO</t>
+  </si>
+  <si>
     <t>YOSHIMAR MENDIETA ROCA</t>
   </si>
   <si>
-    <t>2022-10-25</t>
-  </si>
-  <si>
-    <t>MARIA LOURDES VACA RAMOS DE VELASCO</t>
-  </si>
-  <si>
     <t>MARIA DEL ROSARIO RIOS VALDEZ</t>
   </si>
   <si>
-    <t>JAQUELINE TEODORA MAULLCU CONDORI</t>
-  </si>
-  <si>
     <t>2022-10-26</t>
   </si>
   <si>
@@ -749,12 +749,12 @@
     <t>NELSON RICARDO AGUERO ROJAS</t>
   </si>
   <si>
+    <t>2022-10-29</t>
+  </si>
+  <si>
     <t>EMELDA ARMELLA SOLIZ</t>
   </si>
   <si>
-    <t>2022-10-29</t>
-  </si>
-  <si>
     <t>2022-10-31</t>
   </si>
   <si>
@@ -767,12 +767,12 @@
     <t>2022-11-01</t>
   </si>
   <si>
+    <t>CRISTHIAN HAROLD ROCHA MENDEZ</t>
+  </si>
+  <si>
     <t>HILDA ELVA CASTRILLO PIZARRO VDA. DE GAMBARTE</t>
   </si>
   <si>
-    <t>CRISTHIAN HAROLD ROCHA MENDEZ</t>
-  </si>
-  <si>
     <t>2022-11-02</t>
   </si>
   <si>
@@ -812,81 +812,81 @@
     <t>SERGIO DANIEL GUERRERO ARENAS</t>
   </si>
   <si>
+    <t>2022-11-09</t>
+  </si>
+  <si>
     <t>DIEGO GUSTAVO GARECA BALDERAS</t>
   </si>
   <si>
-    <t>2022-11-09</t>
-  </si>
-  <si>
     <t>2022-11-10</t>
   </si>
   <si>
+    <t>CINTHYA LORENA HILAQUITA RUFINO</t>
+  </si>
+  <si>
     <t>2022-11-11</t>
   </si>
   <si>
-    <t>CINTHYA LORENA HILAQUITA RUFINO</t>
-  </si>
-  <si>
     <t>MARIO SOSSA VASQUEZ</t>
   </si>
   <si>
+    <t>2022-11-12</t>
+  </si>
+  <si>
     <t>JUANA ESTHER MICHEL CRUZ</t>
   </si>
   <si>
-    <t>2022-11-12</t>
-  </si>
-  <si>
     <t>MARCO ANTONIO LOPEZ ZARATE</t>
   </si>
   <si>
     <t>2022-11-14</t>
   </si>
   <si>
+    <t>2022-11-15</t>
+  </si>
+  <si>
     <t>LOURDES PADILLA</t>
   </si>
   <si>
-    <t>2022-11-15</t>
-  </si>
-  <si>
     <t>PALMIRA BUTRON TABOADA</t>
   </si>
   <si>
+    <t>2022-11-16</t>
+  </si>
+  <si>
     <t>MARIZOL MARTINEZ COCA</t>
   </si>
   <si>
-    <t>2022-11-16</t>
-  </si>
-  <si>
     <t>VICTOR HUGO CAMARGO</t>
   </si>
   <si>
+    <t>2022-11-17</t>
+  </si>
+  <si>
     <t>YESSICA PAMELA TRIGO RUIZ</t>
   </si>
   <si>
-    <t>2022-11-17</t>
-  </si>
-  <si>
     <t>2022-11-18</t>
   </si>
   <si>
+    <t>2022-11-19</t>
+  </si>
+  <si>
+    <t>MIRKA LARA VILCA</t>
+  </si>
+  <si>
+    <t>SANTOS RODOLFO FERNANDEZ CHAUQUE</t>
+  </si>
+  <si>
+    <t>ALVARO GONZALO ROMERO ROMERO</t>
+  </si>
+  <si>
+    <t>ELIZABETH ROMINA TORRICO DE LA VEGA</t>
+  </si>
+  <si>
     <t>JINMY WILSON SAAVEDRA CHIPANA</t>
   </si>
   <si>
-    <t>2022-11-19</t>
-  </si>
-  <si>
-    <t>ELIZABETH ROMINA TORRICO DE LA VEGA</t>
-  </si>
-  <si>
-    <t>ALVARO GONZALO ROMERO ROMERO</t>
-  </si>
-  <si>
-    <t>MIRKA LARA VILCA</t>
-  </si>
-  <si>
-    <t>SANTOS RODOLFO FERNANDEZ CHAUQUE</t>
-  </si>
-  <si>
     <t>2022-11-21</t>
   </si>
   <si>
@@ -908,18 +908,18 @@
     <t>PATRICIA ISABEL GALARZA VALLE</t>
   </si>
   <si>
+    <t>CLAUDIA ELIZABETH FLORES ESTRADA</t>
+  </si>
+  <si>
     <t>2022-11-24</t>
   </si>
   <si>
+    <t>WILBER ALVARO GARCIA PADILLA</t>
+  </si>
+  <si>
     <t>LUIS FERNANDO PADILLA MARTINEZ</t>
   </si>
   <si>
-    <t>CLAUDIA ELIZABETH FLORES ESTRADA</t>
-  </si>
-  <si>
-    <t>WILBER ALVARO GARCIA PADILLA</t>
-  </si>
-  <si>
     <t>2022-11-25</t>
   </si>
   <si>
@@ -930,6 +930,9 @@
   </si>
   <si>
     <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>2022-11-29</t>
   </si>
   <si>
     <t xml:space="preserve">FILTRO: </t>
@@ -1395,10 +1398,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N476"/>
+  <dimension ref="A1:N481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B476" sqref="B476"/>
+      <selection activeCell="B481" sqref="B481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1435,16 +1438,16 @@
         <v>7</v>
       </c>
       <c r="K6" s="4">
-        <v>275040.49</v>
+        <v>278756.07</v>
       </c>
       <c r="L6" s="4">
-        <v>3715.58</v>
+        <v>5635.93</v>
       </c>
       <c r="M6" s="4">
-        <v>22591.47</v>
+        <v>18902.14</v>
       </c>
       <c r="N6" s="4">
-        <v>301347.54</v>
+        <v>303294.14</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2859,16 +2862,16 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="4">
-        <v>5784526</v>
+        <v>5787673</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2877,7 +2880,7 @@
         <v>7</v>
       </c>
       <c r="K55" s="4">
-        <v>498.1</v>
+        <v>1190.0</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>70</v>
@@ -2889,16 +2892,16 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="4">
-        <v>5787673</v>
+        <v>5784526</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -2907,7 +2910,7 @@
         <v>7</v>
       </c>
       <c r="K56" s="4">
-        <v>1190.0</v>
+        <v>498.1</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>70</v>
@@ -3039,10 +3042,10 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="4">
-        <v>5784526</v>
+        <v>7217197</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -3057,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="K61" s="4">
-        <v>498.1</v>
+        <v>950.0</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>72</v>
@@ -3069,10 +3072,10 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="4">
-        <v>7217197</v>
+        <v>5784526</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -3087,7 +3090,7 @@
         <v>7</v>
       </c>
       <c r="K62" s="4">
-        <v>950.0</v>
+        <v>498.1</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>72</v>
@@ -3129,16 +3132,16 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="4">
-        <v>10628171</v>
+        <v>7259747</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3147,7 +3150,7 @@
         <v>7</v>
       </c>
       <c r="K64" s="4">
-        <v>340.0</v>
+        <v>513.3</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>74</v>
@@ -3159,16 +3162,16 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="4">
-        <v>7259747</v>
+        <v>5675379</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -3177,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="K65" s="4">
-        <v>513.3</v>
+        <v>1584.6</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>74</v>
@@ -3189,16 +3192,16 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="4">
-        <v>5675379</v>
+        <v>10628171</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -3207,7 +3210,7 @@
         <v>7</v>
       </c>
       <c r="K66" s="4">
-        <v>1584.6</v>
+        <v>340.0</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>74</v>
@@ -3399,16 +3402,16 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="4">
-        <v>7217197</v>
+        <v>14177626</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -3417,10 +3420,10 @@
         <v>7</v>
       </c>
       <c r="K73" s="4">
-        <v>950.0</v>
+        <v>385.0</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="6" t="s">
@@ -3429,16 +3432,16 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="4">
-        <v>14177626</v>
+        <v>7217197</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -3447,10 +3450,10 @@
         <v>7</v>
       </c>
       <c r="K74" s="4">
-        <v>385.0</v>
+        <v>950.0</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="6" t="s">
@@ -3762,7 +3765,7 @@
         <v>14177626</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3999,16 +4002,16 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="4">
-        <v>7127438</v>
+        <v>1860839</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -4017,10 +4020,10 @@
         <v>7</v>
       </c>
       <c r="K93" s="4">
-        <v>898.3</v>
+        <v>83.0</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="6" t="s">
@@ -4029,16 +4032,16 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="4">
-        <v>1860839</v>
+        <v>7127438</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -4047,10 +4050,10 @@
         <v>7</v>
       </c>
       <c r="K94" s="4">
-        <v>83.0</v>
+        <v>898.3</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="6" t="s">
@@ -4089,16 +4092,16 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="4">
-        <v>7259747</v>
+        <v>7155107</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -4107,7 +4110,7 @@
         <v>7</v>
       </c>
       <c r="K96" s="4">
-        <v>513.3</v>
+        <v>256.7</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>105</v>
@@ -4119,16 +4122,16 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="4">
-        <v>7155107</v>
+        <v>7259747</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -4137,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="K97" s="4">
-        <v>256.7</v>
+        <v>513.3</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>105</v>
@@ -4242,7 +4245,7 @@
         <v>14177626</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -4272,7 +4275,7 @@
         <v>1860839</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -4572,7 +4575,7 @@
         <v>1860839</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -4599,16 +4602,16 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="4">
-        <v>7155107</v>
+        <v>7259747</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -4617,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="K113" s="4">
-        <v>256.7</v>
+        <v>513.3</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>118</v>
@@ -4629,16 +4632,16 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="4">
-        <v>7259747</v>
+        <v>7127438</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -4647,7 +4650,7 @@
         <v>7</v>
       </c>
       <c r="K114" s="4">
-        <v>513.3</v>
+        <v>898.3</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>118</v>
@@ -4659,16 +4662,16 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="4">
-        <v>7127438</v>
+        <v>2637944</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -4677,7 +4680,7 @@
         <v>7</v>
       </c>
       <c r="K115" s="4">
-        <v>898.3</v>
+        <v>475.0</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>118</v>
@@ -4689,16 +4692,16 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="4">
-        <v>2637944</v>
+        <v>7155107</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -4707,7 +4710,7 @@
         <v>7</v>
       </c>
       <c r="K116" s="4">
-        <v>475.0</v>
+        <v>256.7</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>118</v>
@@ -4842,7 +4845,7 @@
         <v>1860839</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -5022,7 +5025,7 @@
         <v>14177626</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -5079,10 +5082,10 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="4">
-        <v>7211060</v>
+        <v>6786439</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -5097,7 +5100,7 @@
         <v>7</v>
       </c>
       <c r="K129" s="4">
-        <v>892.5</v>
+        <v>987.5</v>
       </c>
       <c r="L129" s="5" t="s">
         <v>128</v>
@@ -5109,10 +5112,10 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="4">
-        <v>6786439</v>
+        <v>7211060</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -5127,7 +5130,7 @@
         <v>7</v>
       </c>
       <c r="K130" s="4">
-        <v>987.5</v>
+        <v>892.5</v>
       </c>
       <c r="L130" s="5" t="s">
         <v>128</v>
@@ -5139,16 +5142,16 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="4">
-        <v>5787275</v>
+        <v>1860839</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
@@ -5157,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="K131" s="4">
-        <v>1010.6</v>
+        <v>269.0</v>
       </c>
       <c r="L131" s="5" t="s">
         <v>129</v>
@@ -5169,16 +5172,16 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="4">
-        <v>1860839</v>
+        <v>5784463</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
@@ -5187,7 +5190,7 @@
         <v>7</v>
       </c>
       <c r="K132" s="4">
-        <v>269.0</v>
+        <v>670.0</v>
       </c>
       <c r="L132" s="5" t="s">
         <v>129</v>
@@ -5199,16 +5202,16 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="4">
-        <v>5784463</v>
+        <v>5787275</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
@@ -5217,7 +5220,7 @@
         <v>7</v>
       </c>
       <c r="K133" s="4">
-        <v>670.0</v>
+        <v>1010.6</v>
       </c>
       <c r="L133" s="5" t="s">
         <v>129</v>
@@ -5412,7 +5415,7 @@
         <v>1860839</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -5442,7 +5445,7 @@
         <v>14177626</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -5499,16 +5502,16 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="4">
-        <v>7162716</v>
+        <v>4147520</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -5517,10 +5520,10 @@
         <v>7</v>
       </c>
       <c r="K143" s="4">
-        <v>1235.0</v>
+        <v>250.6</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M143" s="4"/>
       <c r="N143" s="6" t="s">
@@ -5529,16 +5532,16 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="4">
-        <v>4147520</v>
+        <v>10651336</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
@@ -5547,10 +5550,10 @@
         <v>7</v>
       </c>
       <c r="K144" s="4">
-        <v>250.6</v>
+        <v>665.0</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M144" s="4"/>
       <c r="N144" s="6" t="s">
@@ -5559,10 +5562,10 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="4">
-        <v>10651336</v>
+        <v>7162716</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -5577,10 +5580,10 @@
         <v>7</v>
       </c>
       <c r="K145" s="4">
-        <v>665.0</v>
+        <v>1235.0</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M145" s="4"/>
       <c r="N145" s="6" t="s">
@@ -5679,16 +5682,16 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="4">
-        <v>7143371</v>
+        <v>6786439</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -5697,10 +5700,10 @@
         <v>7</v>
       </c>
       <c r="K149" s="4">
-        <v>74.94</v>
+        <v>987.5</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M149" s="4"/>
       <c r="N149" s="6" t="s">
@@ -5709,16 +5712,16 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -5727,10 +5730,10 @@
         <v>7</v>
       </c>
       <c r="K150" s="4">
-        <v>987.5</v>
+        <v>74.94</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M150" s="4"/>
       <c r="N150" s="6" t="s">
@@ -5739,16 +5742,16 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="4">
-        <v>4120354</v>
+        <v>5787275</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -5757,10 +5760,10 @@
         <v>7</v>
       </c>
       <c r="K151" s="4">
-        <v>490.0</v>
+        <v>1010.6</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M151" s="4"/>
       <c r="N151" s="6" t="s">
@@ -5769,16 +5772,16 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="4">
-        <v>5787275</v>
+        <v>4137855</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -5787,10 +5790,10 @@
         <v>7</v>
       </c>
       <c r="K152" s="4">
-        <v>1010.6</v>
+        <v>786.3</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M152" s="4"/>
       <c r="N152" s="6" t="s">
@@ -5799,16 +5802,16 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="4">
-        <v>4137855</v>
+        <v>4120354</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -5817,10 +5820,10 @@
         <v>7</v>
       </c>
       <c r="K153" s="4">
-        <v>786.3</v>
+        <v>490.0</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M153" s="4"/>
       <c r="N153" s="6" t="s">
@@ -5862,7 +5865,7 @@
         <v>4147520</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -5979,10 +5982,10 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="4">
-        <v>2637944</v>
+        <v>7211060</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -5997,7 +6000,7 @@
         <v>7</v>
       </c>
       <c r="K159" s="4">
-        <v>475.0</v>
+        <v>892.5</v>
       </c>
       <c r="L159" s="5" t="s">
         <v>149</v>
@@ -6009,10 +6012,10 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="4">
-        <v>7211060</v>
+        <v>2637944</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -6027,7 +6030,7 @@
         <v>7</v>
       </c>
       <c r="K160" s="4">
-        <v>892.5</v>
+        <v>475.0</v>
       </c>
       <c r="L160" s="5" t="s">
         <v>149</v>
@@ -6099,10 +6102,10 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="4">
-        <v>12381291</v>
+        <v>4147520</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -6117,10 +6120,10 @@
         <v>7</v>
       </c>
       <c r="K163" s="4">
-        <v>898.3</v>
+        <v>250.6</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M163" s="4"/>
       <c r="N163" s="6" t="s">
@@ -6129,16 +6132,16 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="4">
-        <v>4147520</v>
+        <v>4902968</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
@@ -6147,10 +6150,10 @@
         <v>7</v>
       </c>
       <c r="K164" s="4">
-        <v>250.6</v>
+        <v>3206.7</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M164" s="4"/>
       <c r="N164" s="6" t="s">
@@ -6159,16 +6162,16 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="4">
-        <v>4902968</v>
+        <v>12381291</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
@@ -6177,10 +6180,10 @@
         <v>7</v>
       </c>
       <c r="K165" s="4">
-        <v>3206.7</v>
+        <v>898.3</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M165" s="4"/>
       <c r="N165" s="6" t="s">
@@ -6339,16 +6342,16 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="4">
-        <v>7143371</v>
+        <v>6786439</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -6357,7 +6360,7 @@
         <v>7</v>
       </c>
       <c r="K171" s="4">
-        <v>287.47</v>
+        <v>987.5</v>
       </c>
       <c r="L171" s="5" t="s">
         <v>156</v>
@@ -6369,16 +6372,16 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
@@ -6387,7 +6390,7 @@
         <v>7</v>
       </c>
       <c r="K172" s="4">
-        <v>987.5</v>
+        <v>287.47</v>
       </c>
       <c r="L172" s="5" t="s">
         <v>156</v>
@@ -6429,16 +6432,16 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="4">
-        <v>7668170</v>
+        <v>4137855</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -6447,10 +6450,10 @@
         <v>7</v>
       </c>
       <c r="K174" s="4">
-        <v>493.3</v>
+        <v>986.3</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M174" s="4"/>
       <c r="N174" s="6" t="s">
@@ -6459,16 +6462,16 @@
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="4">
-        <v>4120354</v>
+        <v>7668170</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -6477,10 +6480,10 @@
         <v>7</v>
       </c>
       <c r="K175" s="4">
-        <v>670.0</v>
+        <v>493.3</v>
       </c>
       <c r="L175" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M175" s="4"/>
       <c r="N175" s="6" t="s">
@@ -6489,16 +6492,16 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="4">
-        <v>4137855</v>
+        <v>4120354</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
@@ -6507,10 +6510,10 @@
         <v>7</v>
       </c>
       <c r="K176" s="4">
-        <v>986.3</v>
+        <v>670.0</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M176" s="4"/>
       <c r="N176" s="6" t="s">
@@ -6522,7 +6525,7 @@
         <v>4147520</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -6540,7 +6543,7 @@
         <v>250.6</v>
       </c>
       <c r="L177" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" s="6" t="s">
@@ -6729,16 +6732,16 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="4">
-        <v>4147520</v>
+        <v>7112058</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
@@ -6747,10 +6750,10 @@
         <v>7</v>
       </c>
       <c r="K184" s="4">
-        <v>250.6</v>
+        <v>1980.0</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M184" s="4"/>
       <c r="N184" s="6" t="s">
@@ -6759,16 +6762,16 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="4">
-        <v>7112058</v>
+        <v>4147520</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
@@ -6777,10 +6780,10 @@
         <v>7</v>
       </c>
       <c r="K185" s="4">
-        <v>1980.0</v>
+        <v>250.6</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M185" s="4"/>
       <c r="N185" s="6" t="s">
@@ -6789,10 +6792,10 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="4">
-        <v>10639263</v>
+        <v>5009688</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -6807,10 +6810,10 @@
         <v>7</v>
       </c>
       <c r="K186" s="4">
-        <v>150.0</v>
+        <v>875.0</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M186" s="4"/>
       <c r="N186" s="6" t="s">
@@ -6819,10 +6822,10 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="4">
-        <v>5009688</v>
+        <v>12381291</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -6837,10 +6840,10 @@
         <v>7</v>
       </c>
       <c r="K187" s="4">
-        <v>875.0</v>
+        <v>898.3</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M187" s="4"/>
       <c r="N187" s="6" t="s">
@@ -6849,16 +6852,16 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="4">
-        <v>12381291</v>
+        <v>4902968</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
@@ -6867,10 +6870,10 @@
         <v>7</v>
       </c>
       <c r="K188" s="4">
-        <v>898.3</v>
+        <v>3206.7</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M188" s="4"/>
       <c r="N188" s="6" t="s">
@@ -6879,16 +6882,16 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="4">
-        <v>4902968</v>
+        <v>10639263</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
@@ -6897,10 +6900,10 @@
         <v>7</v>
       </c>
       <c r="K189" s="4">
-        <v>3206.7</v>
+        <v>150.0</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M189" s="4"/>
       <c r="N189" s="6" t="s">
@@ -7092,7 +7095,7 @@
         <v>4120354</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -7122,13 +7125,13 @@
         <v>4137855</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
@@ -7152,13 +7155,13 @@
         <v>7668170</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
@@ -7179,16 +7182,16 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="4">
-        <v>7143371</v>
+        <v>6786439</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
@@ -7197,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="K199" s="4">
-        <v>287.47</v>
+        <v>987.5</v>
       </c>
       <c r="L199" s="5" t="s">
         <v>176</v>
@@ -7209,16 +7212,16 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
@@ -7227,7 +7230,7 @@
         <v>7</v>
       </c>
       <c r="K200" s="4">
-        <v>987.5</v>
+        <v>287.47</v>
       </c>
       <c r="L200" s="5" t="s">
         <v>176</v>
@@ -7512,7 +7515,7 @@
         <v>12381291</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -7659,10 +7662,10 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="4">
-        <v>5037553</v>
+        <v>1873728</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -7677,10 +7680,10 @@
         <v>7</v>
       </c>
       <c r="K215" s="4">
-        <v>292.8</v>
+        <v>692.0</v>
       </c>
       <c r="L215" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M215" s="4"/>
       <c r="N215" s="6" t="s">
@@ -7689,16 +7692,16 @@
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="4">
-        <v>1873728</v>
+        <v>7106747</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
@@ -7707,10 +7710,10 @@
         <v>7</v>
       </c>
       <c r="K216" s="4">
-        <v>692.0</v>
+        <v>140.0</v>
       </c>
       <c r="L216" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M216" s="4"/>
       <c r="N216" s="6" t="s">
@@ -7719,7 +7722,7 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="4">
-        <v>7106747</v>
+        <v>5037553</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>192</v>
@@ -7728,7 +7731,7 @@
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
@@ -7737,10 +7740,10 @@
         <v>7</v>
       </c>
       <c r="K217" s="4">
-        <v>140.0</v>
+        <v>292.8</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M217" s="4"/>
       <c r="N217" s="6" t="s">
@@ -7842,7 +7845,7 @@
         <v>7143371</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -7929,16 +7932,16 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="4">
-        <v>7668170</v>
+        <v>10629985</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
@@ -7947,10 +7950,10 @@
         <v>7</v>
       </c>
       <c r="K224" s="4">
-        <v>493.3</v>
+        <v>40.0</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M224" s="4"/>
       <c r="N224" s="6" t="s">
@@ -7959,16 +7962,16 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="4">
-        <v>8064094</v>
+        <v>4137855</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
@@ -7977,10 +7980,10 @@
         <v>7</v>
       </c>
       <c r="K225" s="4">
-        <v>493.3</v>
+        <v>1480.0</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M225" s="4"/>
       <c r="N225" s="6" t="s">
@@ -7989,16 +7992,16 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="4">
-        <v>10629985</v>
+        <v>7668170</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
@@ -8007,10 +8010,10 @@
         <v>7</v>
       </c>
       <c r="K226" s="4">
-        <v>40.0</v>
+        <v>493.3</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M226" s="4"/>
       <c r="N226" s="6" t="s">
@@ -8019,16 +8022,16 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="4">
-        <v>4137855</v>
+        <v>8064094</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
@@ -8037,10 +8040,10 @@
         <v>7</v>
       </c>
       <c r="K227" s="4">
-        <v>1480.0</v>
+        <v>493.3</v>
       </c>
       <c r="L227" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" s="6" t="s">
@@ -8679,16 +8682,16 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="4">
-        <v>4902968</v>
+        <v>5039377</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
@@ -8697,7 +8700,7 @@
         <v>7</v>
       </c>
       <c r="K249" s="4">
-        <v>3206.7</v>
+        <v>462.0</v>
       </c>
       <c r="L249" s="5" t="s">
         <v>217</v>
@@ -8709,16 +8712,16 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="4">
-        <v>5039377</v>
+        <v>12381291</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
@@ -8727,7 +8730,7 @@
         <v>7</v>
       </c>
       <c r="K250" s="4">
-        <v>462.0</v>
+        <v>898.3</v>
       </c>
       <c r="L250" s="5" t="s">
         <v>217</v>
@@ -8739,10 +8742,10 @@
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="4">
-        <v>5001461</v>
+        <v>5684823</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -8757,7 +8760,7 @@
         <v>7</v>
       </c>
       <c r="K251" s="4">
-        <v>492.7</v>
+        <v>665.0</v>
       </c>
       <c r="L251" s="5" t="s">
         <v>217</v>
@@ -8769,16 +8772,16 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="4">
-        <v>12381291</v>
+        <v>5001461</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
@@ -8787,7 +8790,7 @@
         <v>7</v>
       </c>
       <c r="K252" s="4">
-        <v>898.3</v>
+        <v>492.7</v>
       </c>
       <c r="L252" s="5" t="s">
         <v>217</v>
@@ -8799,16 +8802,16 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="4">
-        <v>5684823</v>
+        <v>4902968</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
@@ -8817,7 +8820,7 @@
         <v>7</v>
       </c>
       <c r="K253" s="4">
-        <v>665.0</v>
+        <v>3206.7</v>
       </c>
       <c r="L253" s="5" t="s">
         <v>217</v>
@@ -8862,7 +8865,7 @@
         <v>7106747</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -8889,16 +8892,16 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="4">
-        <v>5787275</v>
+        <v>5037553</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
@@ -8907,7 +8910,7 @@
         <v>7</v>
       </c>
       <c r="K256" s="4">
-        <v>1010.6</v>
+        <v>492.8</v>
       </c>
       <c r="L256" s="5" t="s">
         <v>218</v>
@@ -8919,16 +8922,16 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="4">
-        <v>5037553</v>
+        <v>5787275</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
@@ -8937,7 +8940,7 @@
         <v>7</v>
       </c>
       <c r="K257" s="4">
-        <v>492.8</v>
+        <v>1010.6</v>
       </c>
       <c r="L257" s="5" t="s">
         <v>218</v>
@@ -9012,13 +9015,13 @@
         <v>8064094</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
@@ -9039,10 +9042,10 @@
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="4">
-        <v>7259089</v>
+        <v>7254095</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -9057,7 +9060,7 @@
         <v>7</v>
       </c>
       <c r="K261" s="4">
-        <v>818.38</v>
+        <v>185.1</v>
       </c>
       <c r="L261" s="5" t="s">
         <v>220</v>
@@ -9069,10 +9072,10 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="4">
-        <v>7254095</v>
+        <v>7259089</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -9087,7 +9090,7 @@
         <v>7</v>
       </c>
       <c r="K262" s="4">
-        <v>185.1</v>
+        <v>818.38</v>
       </c>
       <c r="L262" s="5" t="s">
         <v>220</v>
@@ -9099,16 +9102,16 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="4">
-        <v>7143371</v>
+        <v>5008907</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
@@ -9117,10 +9120,10 @@
         <v>7</v>
       </c>
       <c r="K263" s="4">
-        <v>287.47</v>
+        <v>330.0</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M263" s="4"/>
       <c r="N263" s="6" t="s">
@@ -9129,16 +9132,16 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="4">
-        <v>5008907</v>
+        <v>1899092</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
@@ -9147,10 +9150,10 @@
         <v>7</v>
       </c>
       <c r="K264" s="4">
-        <v>330.0</v>
+        <v>770.0</v>
       </c>
       <c r="L264" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M264" s="4"/>
       <c r="N264" s="6" t="s">
@@ -9159,16 +9162,16 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="4">
-        <v>1899092</v>
+        <v>6786439</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
@@ -9177,10 +9180,10 @@
         <v>7</v>
       </c>
       <c r="K265" s="4">
-        <v>770.0</v>
+        <v>987.5</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M265" s="4"/>
       <c r="N265" s="6" t="s">
@@ -9189,16 +9192,16 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="4">
-        <v>6786439</v>
+        <v>7143371</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
@@ -9207,10 +9210,10 @@
         <v>7</v>
       </c>
       <c r="K266" s="4">
-        <v>987.5</v>
+        <v>287.47</v>
       </c>
       <c r="L266" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M266" s="4"/>
       <c r="N266" s="6" t="s">
@@ -9240,7 +9243,7 @@
         <v>385.0</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M267" s="4"/>
       <c r="N267" s="6" t="s">
@@ -9252,13 +9255,13 @@
         <v>7668170</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
@@ -9309,16 +9312,16 @@
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="4">
-        <v>10629985</v>
+        <v>454545</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
@@ -9327,7 +9330,7 @@
         <v>7</v>
       </c>
       <c r="K270" s="4">
-        <v>340.0</v>
+        <v>1083.33</v>
       </c>
       <c r="L270" s="5" t="s">
         <v>224</v>
@@ -9339,16 +9342,16 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="4">
-        <v>454545</v>
+        <v>10629985</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
@@ -9357,7 +9360,7 @@
         <v>7</v>
       </c>
       <c r="K271" s="4">
-        <v>1083.33</v>
+        <v>340.0</v>
       </c>
       <c r="L271" s="5" t="s">
         <v>224</v>
@@ -9372,13 +9375,13 @@
         <v>4137855</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
@@ -9429,16 +9432,16 @@
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="4">
-        <v>7203812</v>
+        <v>7211060</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
@@ -9447,7 +9450,7 @@
         <v>7</v>
       </c>
       <c r="K274" s="4">
-        <v>260.48</v>
+        <v>892.5</v>
       </c>
       <c r="L274" s="5" t="s">
         <v>227</v>
@@ -9459,16 +9462,16 @@
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="4">
-        <v>7211060</v>
+        <v>7203812</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
@@ -9477,7 +9480,7 @@
         <v>7</v>
       </c>
       <c r="K275" s="4">
-        <v>892.5</v>
+        <v>260.48</v>
       </c>
       <c r="L275" s="5" t="s">
         <v>227</v>
@@ -9489,16 +9492,16 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="4">
-        <v>5809785</v>
+        <v>5001461</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
@@ -9507,7 +9510,7 @@
         <v>7</v>
       </c>
       <c r="K276" s="4">
-        <v>812.5</v>
+        <v>492.7</v>
       </c>
       <c r="L276" s="5" t="s">
         <v>229</v>
@@ -9519,10 +9522,10 @@
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="4">
-        <v>5001461</v>
+        <v>7238010</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -9537,7 +9540,7 @@
         <v>7</v>
       </c>
       <c r="K277" s="4">
-        <v>492.7</v>
+        <v>150.0</v>
       </c>
       <c r="L277" s="5" t="s">
         <v>229</v>
@@ -9552,7 +9555,7 @@
         <v>5006571</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -9579,16 +9582,16 @@
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="4">
-        <v>7238010</v>
+        <v>5809785</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
@@ -9597,7 +9600,7 @@
         <v>7</v>
       </c>
       <c r="K279" s="4">
-        <v>150.0</v>
+        <v>812.5</v>
       </c>
       <c r="L279" s="5" t="s">
         <v>229</v>
@@ -9639,16 +9642,16 @@
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="4">
-        <v>5787275</v>
+        <v>12350358</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
@@ -9657,7 +9660,7 @@
         <v>7</v>
       </c>
       <c r="K281" s="4">
-        <v>1010.6</v>
+        <v>300.0</v>
       </c>
       <c r="L281" s="5" t="s">
         <v>232</v>
@@ -9669,16 +9672,16 @@
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="4">
-        <v>12350358</v>
+        <v>5787275</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
@@ -9687,7 +9690,7 @@
         <v>7</v>
       </c>
       <c r="K282" s="4">
-        <v>300.0</v>
+        <v>1010.6</v>
       </c>
       <c r="L282" s="5" t="s">
         <v>232</v>
@@ -9729,16 +9732,16 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="4">
-        <v>12411923</v>
+        <v>4141852</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
@@ -9747,7 +9750,7 @@
         <v>7</v>
       </c>
       <c r="K284" s="4">
-        <v>1726.67</v>
+        <v>570.0</v>
       </c>
       <c r="L284" s="5" t="s">
         <v>233</v>
@@ -9789,16 +9792,16 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="4">
-        <v>7259089</v>
+        <v>12411923</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
@@ -9807,7 +9810,7 @@
         <v>7</v>
       </c>
       <c r="K286" s="4">
-        <v>818.38</v>
+        <v>1726.67</v>
       </c>
       <c r="L286" s="5" t="s">
         <v>233</v>
@@ -9819,16 +9822,16 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="4">
-        <v>4141852</v>
+        <v>7259089</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
@@ -9837,7 +9840,7 @@
         <v>7</v>
       </c>
       <c r="K287" s="4">
-        <v>570.0</v>
+        <v>818.38</v>
       </c>
       <c r="L287" s="5" t="s">
         <v>233</v>
@@ -9849,16 +9852,16 @@
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="4">
-        <v>5805990</v>
+        <v>10719735</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
@@ -9867,10 +9870,10 @@
         <v>7</v>
       </c>
       <c r="K288" s="4">
-        <v>10.0</v>
+        <v>1180.0</v>
       </c>
       <c r="L288" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M288" s="4"/>
       <c r="N288" s="6" t="s">
@@ -9879,10 +9882,10 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="4">
-        <v>10719735</v>
+        <v>7197800</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
@@ -9897,10 +9900,10 @@
         <v>7</v>
       </c>
       <c r="K289" s="4">
-        <v>1180.0</v>
+        <v>680.0</v>
       </c>
       <c r="L289" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M289" s="4"/>
       <c r="N289" s="6" t="s">
@@ -9909,16 +9912,16 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="4">
-        <v>1052847</v>
+        <v>7177540</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
@@ -9927,10 +9930,10 @@
         <v>7</v>
       </c>
       <c r="K290" s="4">
-        <v>138.0</v>
+        <v>510.0</v>
       </c>
       <c r="L290" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M290" s="4"/>
       <c r="N290" s="6" t="s">
@@ -9939,16 +9942,16 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="4">
-        <v>7197800</v>
+        <v>1052847</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
@@ -9957,10 +9960,10 @@
         <v>7</v>
       </c>
       <c r="K291" s="4">
-        <v>680.0</v>
+        <v>138.0</v>
       </c>
       <c r="L291" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M291" s="4"/>
       <c r="N291" s="6" t="s">
@@ -9969,16 +9972,16 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="4">
-        <v>4143978</v>
+        <v>7109217</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
@@ -9987,10 +9990,10 @@
         <v>7</v>
       </c>
       <c r="K292" s="4">
-        <v>100.0</v>
+        <v>385.0</v>
       </c>
       <c r="L292" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M292" s="4"/>
       <c r="N292" s="6" t="s">
@@ -9999,10 +10002,10 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="4">
-        <v>7177540</v>
+        <v>5805990</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -10017,10 +10020,10 @@
         <v>7</v>
       </c>
       <c r="K293" s="4">
-        <v>510.0</v>
+        <v>10.0</v>
       </c>
       <c r="L293" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M293" s="4"/>
       <c r="N293" s="6" t="s">
@@ -10029,16 +10032,16 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="4">
-        <v>7109217</v>
+        <v>4143978</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
@@ -10047,10 +10050,10 @@
         <v>7</v>
       </c>
       <c r="K294" s="4">
-        <v>385.0</v>
+        <v>100.0</v>
       </c>
       <c r="L294" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M294" s="4"/>
       <c r="N294" s="6" t="s">
@@ -10059,16 +10062,16 @@
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="4">
-        <v>454545</v>
+        <v>5009688</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
@@ -10077,7 +10080,7 @@
         <v>7</v>
       </c>
       <c r="K295" s="4">
-        <v>1083.33</v>
+        <v>875.0</v>
       </c>
       <c r="L295" s="5" t="s">
         <v>239</v>
@@ -10089,16 +10092,16 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="4">
-        <v>5009688</v>
+        <v>454545</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
@@ -10107,7 +10110,7 @@
         <v>7</v>
       </c>
       <c r="K296" s="4">
-        <v>875.0</v>
+        <v>1083.33</v>
       </c>
       <c r="L296" s="5" t="s">
         <v>239</v>
@@ -10119,16 +10122,16 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="4">
-        <v>7203812</v>
+        <v>7211060</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
@@ -10137,7 +10140,7 @@
         <v>7</v>
       </c>
       <c r="K297" s="4">
-        <v>260.48</v>
+        <v>892.5</v>
       </c>
       <c r="L297" s="5" t="s">
         <v>240</v>
@@ -10149,16 +10152,16 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="4">
-        <v>7211060</v>
+        <v>7203812</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
@@ -10167,7 +10170,7 @@
         <v>7</v>
       </c>
       <c r="K298" s="4">
-        <v>892.5</v>
+        <v>260.48</v>
       </c>
       <c r="L298" s="5" t="s">
         <v>240</v>
@@ -10239,10 +10242,10 @@
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="4">
-        <v>7238010</v>
+        <v>5001461</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
@@ -10257,7 +10260,7 @@
         <v>7</v>
       </c>
       <c r="K301" s="4">
-        <v>150.0</v>
+        <v>739.7</v>
       </c>
       <c r="L301" s="5" t="s">
         <v>241</v>
@@ -10269,10 +10272,10 @@
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="4">
-        <v>5001461</v>
+        <v>7238010</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -10287,7 +10290,7 @@
         <v>7</v>
       </c>
       <c r="K302" s="4">
-        <v>739.7</v>
+        <v>150.0</v>
       </c>
       <c r="L302" s="5" t="s">
         <v>241</v>
@@ -10359,16 +10362,16 @@
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="4">
-        <v>7212958</v>
+        <v>12381291</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
@@ -10377,10 +10380,10 @@
         <v>7</v>
       </c>
       <c r="K305" s="4">
-        <v>1059.08</v>
+        <v>898.3</v>
       </c>
       <c r="L305" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M305" s="4"/>
       <c r="N305" s="6" t="s">
@@ -10389,16 +10392,16 @@
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="4">
-        <v>12381291</v>
+        <v>7212958</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
@@ -10407,10 +10410,10 @@
         <v>7</v>
       </c>
       <c r="K306" s="4">
-        <v>898.3</v>
+        <v>1059.08</v>
       </c>
       <c r="L306" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M306" s="4"/>
       <c r="N306" s="6" t="s">
@@ -10440,7 +10443,7 @@
         <v>90.0</v>
       </c>
       <c r="L307" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M307" s="4"/>
       <c r="N307" s="6" t="s">
@@ -10470,7 +10473,7 @@
         <v>665.0</v>
       </c>
       <c r="L308" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M308" s="4"/>
       <c r="N308" s="6" t="s">
@@ -10500,7 +10503,7 @@
         <v>1010.6</v>
       </c>
       <c r="L309" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M309" s="4"/>
       <c r="N309" s="6" t="s">
@@ -10539,16 +10542,16 @@
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="4">
-        <v>7254095</v>
+        <v>7141330</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
@@ -10557,7 +10560,7 @@
         <v>7</v>
       </c>
       <c r="K311" s="4">
-        <v>185.1</v>
+        <v>385.0</v>
       </c>
       <c r="L311" s="5" t="s">
         <v>246</v>
@@ -10569,10 +10572,10 @@
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="4">
-        <v>7259089</v>
+        <v>7254095</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -10587,7 +10590,7 @@
         <v>7</v>
       </c>
       <c r="K312" s="4">
-        <v>818.38</v>
+        <v>185.1</v>
       </c>
       <c r="L312" s="5" t="s">
         <v>246</v>
@@ -10629,16 +10632,16 @@
     </row>
     <row r="314" spans="1:14">
       <c r="A314" s="4">
-        <v>7141330</v>
+        <v>7259089</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
@@ -10647,7 +10650,7 @@
         <v>7</v>
       </c>
       <c r="K314" s="4">
-        <v>385.0</v>
+        <v>818.38</v>
       </c>
       <c r="L314" s="5" t="s">
         <v>246</v>
@@ -10689,7 +10692,7 @@
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="4">
-        <v>7106747</v>
+        <v>5037553</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>192</v>
@@ -10698,7 +10701,7 @@
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
@@ -10707,7 +10710,7 @@
         <v>7</v>
       </c>
       <c r="K316" s="4">
-        <v>340.0</v>
+        <v>1603.3</v>
       </c>
       <c r="L316" s="5" t="s">
         <v>249</v>
@@ -10719,16 +10722,16 @@
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="4">
-        <v>5037553</v>
+        <v>7185499</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
@@ -10737,7 +10740,7 @@
         <v>7</v>
       </c>
       <c r="K317" s="4">
-        <v>1603.3</v>
+        <v>28.97</v>
       </c>
       <c r="L317" s="5" t="s">
         <v>249</v>
@@ -10749,16 +10752,16 @@
     </row>
     <row r="318" spans="1:14">
       <c r="A318" s="4">
-        <v>4143978</v>
+        <v>1052847</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
@@ -10767,7 +10770,7 @@
         <v>7</v>
       </c>
       <c r="K318" s="4">
-        <v>250.0</v>
+        <v>138.0</v>
       </c>
       <c r="L318" s="5" t="s">
         <v>249</v>
@@ -10779,16 +10782,16 @@
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="4">
-        <v>1873728</v>
+        <v>7109398</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
@@ -10797,7 +10800,7 @@
         <v>7</v>
       </c>
       <c r="K319" s="4">
-        <v>692.0</v>
+        <v>2869.76</v>
       </c>
       <c r="L319" s="5" t="s">
         <v>249</v>
@@ -10809,16 +10812,16 @@
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="4">
-        <v>7185499</v>
+        <v>1873728</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
@@ -10827,7 +10830,7 @@
         <v>7</v>
       </c>
       <c r="K320" s="4">
-        <v>28.97</v>
+        <v>692.0</v>
       </c>
       <c r="L320" s="5" t="s">
         <v>249</v>
@@ -10839,16 +10842,16 @@
     </row>
     <row r="321" spans="1:14">
       <c r="A321" s="4">
-        <v>1884070</v>
+        <v>7185499</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
@@ -10857,7 +10860,7 @@
         <v>7</v>
       </c>
       <c r="K321" s="4">
-        <v>641.7</v>
+        <v>39.33</v>
       </c>
       <c r="L321" s="5" t="s">
         <v>249</v>
@@ -10869,16 +10872,16 @@
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="4">
-        <v>7185499</v>
+        <v>1884070</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
@@ -10887,7 +10890,7 @@
         <v>7</v>
       </c>
       <c r="K322" s="4">
-        <v>39.33</v>
+        <v>641.7</v>
       </c>
       <c r="L322" s="5" t="s">
         <v>249</v>
@@ -10899,16 +10902,16 @@
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="4">
-        <v>1052847</v>
+        <v>4143978</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
@@ -10917,7 +10920,7 @@
         <v>7</v>
       </c>
       <c r="K323" s="4">
-        <v>138.0</v>
+        <v>250.0</v>
       </c>
       <c r="L323" s="5" t="s">
         <v>249</v>
@@ -10929,16 +10932,16 @@
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="4">
-        <v>7109398</v>
+        <v>5008907</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
@@ -10947,7 +10950,7 @@
         <v>7</v>
       </c>
       <c r="K324" s="4">
-        <v>2869.76</v>
+        <v>1220.0</v>
       </c>
       <c r="L324" s="5" t="s">
         <v>249</v>
@@ -10959,16 +10962,16 @@
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="4">
-        <v>5008907</v>
+        <v>7106747</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
@@ -10977,7 +10980,7 @@
         <v>7</v>
       </c>
       <c r="K325" s="4">
-        <v>1220.0</v>
+        <v>340.0</v>
       </c>
       <c r="L325" s="5" t="s">
         <v>249</v>
@@ -10989,16 +10992,16 @@
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="4">
-        <v>7185499</v>
+        <v>6786439</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
@@ -11007,7 +11010,7 @@
         <v>7</v>
       </c>
       <c r="K326" s="4">
-        <v>39.33</v>
+        <v>987.5</v>
       </c>
       <c r="L326" s="5" t="s">
         <v>252</v>
@@ -11019,16 +11022,16 @@
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="4">
-        <v>6786439</v>
+        <v>454545</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
@@ -11037,7 +11040,7 @@
         <v>7</v>
       </c>
       <c r="K327" s="4">
-        <v>987.5</v>
+        <v>1083.33</v>
       </c>
       <c r="L327" s="5" t="s">
         <v>252</v>
@@ -11049,16 +11052,16 @@
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="4">
-        <v>1848994</v>
+        <v>7185499</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
@@ -11067,7 +11070,7 @@
         <v>7</v>
       </c>
       <c r="K328" s="4">
-        <v>1180.0</v>
+        <v>39.33</v>
       </c>
       <c r="L328" s="5" t="s">
         <v>252</v>
@@ -11079,16 +11082,16 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="4">
-        <v>454545</v>
+        <v>1848994</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
@@ -11097,7 +11100,7 @@
         <v>7</v>
       </c>
       <c r="K329" s="4">
-        <v>1083.33</v>
+        <v>1180.0</v>
       </c>
       <c r="L329" s="5" t="s">
         <v>252</v>
@@ -11109,16 +11112,16 @@
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="4">
-        <v>7211060</v>
+        <v>7203812</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
@@ -11127,7 +11130,7 @@
         <v>7</v>
       </c>
       <c r="K330" s="4">
-        <v>892.5</v>
+        <v>260.48</v>
       </c>
       <c r="L330" s="5" t="s">
         <v>254</v>
@@ -11139,16 +11142,16 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="4">
-        <v>4137855</v>
+        <v>5006333</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
@@ -11157,7 +11160,7 @@
         <v>7</v>
       </c>
       <c r="K331" s="4">
-        <v>1973.3</v>
+        <v>263.5</v>
       </c>
       <c r="L331" s="5" t="s">
         <v>254</v>
@@ -11169,16 +11172,16 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="4">
-        <v>5006333</v>
+        <v>7185499</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
@@ -11187,7 +11190,7 @@
         <v>7</v>
       </c>
       <c r="K332" s="4">
-        <v>263.5</v>
+        <v>39.33</v>
       </c>
       <c r="L332" s="5" t="s">
         <v>254</v>
@@ -11199,16 +11202,16 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="4">
-        <v>7185499</v>
+        <v>4137855</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
@@ -11217,7 +11220,7 @@
         <v>7</v>
       </c>
       <c r="K333" s="4">
-        <v>39.33</v>
+        <v>1973.3</v>
       </c>
       <c r="L333" s="5" t="s">
         <v>254</v>
@@ -11232,13 +11235,13 @@
         <v>7668170</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
@@ -11259,16 +11262,16 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="4">
-        <v>7203812</v>
+        <v>7211060</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
@@ -11277,7 +11280,7 @@
         <v>7</v>
       </c>
       <c r="K335" s="4">
-        <v>260.48</v>
+        <v>892.5</v>
       </c>
       <c r="L335" s="5" t="s">
         <v>254</v>
@@ -11289,16 +11292,16 @@
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="4">
-        <v>7185499</v>
+        <v>7238010</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
@@ -11307,7 +11310,7 @@
         <v>7</v>
       </c>
       <c r="K336" s="4">
-        <v>39.33</v>
+        <v>150.0</v>
       </c>
       <c r="L336" s="5" t="s">
         <v>255</v>
@@ -11319,16 +11322,16 @@
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="4">
-        <v>7238010</v>
+        <v>7185499</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
@@ -11337,7 +11340,7 @@
         <v>7</v>
       </c>
       <c r="K337" s="4">
-        <v>150.0</v>
+        <v>39.33</v>
       </c>
       <c r="L337" s="5" t="s">
         <v>255</v>
@@ -11409,16 +11412,16 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="4">
-        <v>5787275</v>
+        <v>1899950</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
@@ -11427,7 +11430,7 @@
         <v>7</v>
       </c>
       <c r="K340" s="4">
-        <v>1010.6</v>
+        <v>39.3</v>
       </c>
       <c r="L340" s="5" t="s">
         <v>256</v>
@@ -11439,16 +11442,16 @@
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="4">
-        <v>1899950</v>
+        <v>5787275</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
@@ -11457,7 +11460,7 @@
         <v>7</v>
       </c>
       <c r="K341" s="4">
-        <v>39.3</v>
+        <v>1010.6</v>
       </c>
       <c r="L341" s="5" t="s">
         <v>256</v>
@@ -11469,10 +11472,10 @@
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="4">
-        <v>5809785</v>
+        <v>7185499</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -11487,7 +11490,7 @@
         <v>7</v>
       </c>
       <c r="K342" s="4">
-        <v>812.5</v>
+        <v>39.33</v>
       </c>
       <c r="L342" s="5" t="s">
         <v>256</v>
@@ -11499,10 +11502,10 @@
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="4">
-        <v>7185499</v>
+        <v>5809785</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -11517,7 +11520,7 @@
         <v>7</v>
       </c>
       <c r="K343" s="4">
-        <v>39.33</v>
+        <v>812.5</v>
       </c>
       <c r="L343" s="5" t="s">
         <v>256</v>
@@ -11559,16 +11562,16 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="4">
-        <v>7177540</v>
+        <v>7259089</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
@@ -11577,7 +11580,7 @@
         <v>7</v>
       </c>
       <c r="K345" s="4">
-        <v>510.0</v>
+        <v>818.38</v>
       </c>
       <c r="L345" s="5" t="s">
         <v>261</v>
@@ -11589,16 +11592,16 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="4">
-        <v>1899950</v>
+        <v>7177540</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
@@ -11607,7 +11610,7 @@
         <v>7</v>
       </c>
       <c r="K346" s="4">
-        <v>39.3</v>
+        <v>510.0</v>
       </c>
       <c r="L346" s="5" t="s">
         <v>261</v>
@@ -11619,16 +11622,16 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="4">
-        <v>5805990</v>
+        <v>1899950</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
@@ -11637,7 +11640,7 @@
         <v>7</v>
       </c>
       <c r="K347" s="4">
-        <v>510.0</v>
+        <v>39.3</v>
       </c>
       <c r="L347" s="5" t="s">
         <v>261</v>
@@ -11649,16 +11652,16 @@
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="4">
-        <v>7254095</v>
+        <v>5805990</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
@@ -11667,7 +11670,7 @@
         <v>7</v>
       </c>
       <c r="K348" s="4">
-        <v>185.1</v>
+        <v>510.0</v>
       </c>
       <c r="L348" s="5" t="s">
         <v>261</v>
@@ -11679,16 +11682,16 @@
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="4">
-        <v>7259089</v>
+        <v>7185499</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
@@ -11697,7 +11700,7 @@
         <v>7</v>
       </c>
       <c r="K349" s="4">
-        <v>818.38</v>
+        <v>39.33</v>
       </c>
       <c r="L349" s="5" t="s">
         <v>261</v>
@@ -11709,16 +11712,16 @@
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="4">
-        <v>7185499</v>
+        <v>7254095</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
@@ -11727,7 +11730,7 @@
         <v>7</v>
       </c>
       <c r="K350" s="4">
-        <v>39.33</v>
+        <v>185.1</v>
       </c>
       <c r="L350" s="5" t="s">
         <v>261</v>
@@ -11739,16 +11742,16 @@
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="4">
-        <v>1899950</v>
+        <v>7185499</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
@@ -11757,7 +11760,7 @@
         <v>7</v>
       </c>
       <c r="K351" s="4">
-        <v>39.3</v>
+        <v>39.33</v>
       </c>
       <c r="L351" s="5" t="s">
         <v>262</v>
@@ -11799,16 +11802,16 @@
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="4">
-        <v>7185499</v>
+        <v>4143978</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
@@ -11817,7 +11820,7 @@
         <v>7</v>
       </c>
       <c r="K353" s="4">
-        <v>39.33</v>
+        <v>250.0</v>
       </c>
       <c r="L353" s="5" t="s">
         <v>262</v>
@@ -11829,16 +11832,16 @@
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="4">
-        <v>4141852</v>
+        <v>7185499</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
@@ -11847,7 +11850,7 @@
         <v>7</v>
       </c>
       <c r="K354" s="4">
-        <v>570.0</v>
+        <v>39.33</v>
       </c>
       <c r="L354" s="5" t="s">
         <v>262</v>
@@ -11859,10 +11862,10 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="4">
-        <v>1052847</v>
+        <v>5049517</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -11877,7 +11880,7 @@
         <v>7</v>
       </c>
       <c r="K355" s="4">
-        <v>138.0</v>
+        <v>1132.8</v>
       </c>
       <c r="L355" s="5" t="s">
         <v>262</v>
@@ -11889,16 +11892,16 @@
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="4">
-        <v>5049517</v>
+        <v>4141852</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
@@ -11907,7 +11910,7 @@
         <v>7</v>
       </c>
       <c r="K356" s="4">
-        <v>1132.8</v>
+        <v>570.0</v>
       </c>
       <c r="L356" s="5" t="s">
         <v>262</v>
@@ -11919,16 +11922,16 @@
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="4">
-        <v>7185499</v>
+        <v>12411923</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
@@ -11937,7 +11940,7 @@
         <v>7</v>
       </c>
       <c r="K357" s="4">
-        <v>39.33</v>
+        <v>1726.67</v>
       </c>
       <c r="L357" s="5" t="s">
         <v>262</v>
@@ -11952,7 +11955,7 @@
         <v>5008907</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -11979,16 +11982,16 @@
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="4">
-        <v>12411923</v>
+        <v>5001200</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
@@ -11997,7 +12000,7 @@
         <v>7</v>
       </c>
       <c r="K359" s="4">
-        <v>1726.67</v>
+        <v>641.7</v>
       </c>
       <c r="L359" s="5" t="s">
         <v>262</v>
@@ -12009,16 +12012,16 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="4">
-        <v>5001200</v>
+        <v>1899950</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
@@ -12027,7 +12030,7 @@
         <v>7</v>
       </c>
       <c r="K360" s="4">
-        <v>641.7</v>
+        <v>39.3</v>
       </c>
       <c r="L360" s="5" t="s">
         <v>262</v>
@@ -12039,16 +12042,16 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="4">
-        <v>4143978</v>
+        <v>1052847</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
@@ -12057,7 +12060,7 @@
         <v>7</v>
       </c>
       <c r="K361" s="4">
-        <v>250.0</v>
+        <v>138.0</v>
       </c>
       <c r="L361" s="5" t="s">
         <v>262</v>
@@ -12099,10 +12102,10 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="4">
-        <v>5800232</v>
+        <v>1899950</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -12117,10 +12120,10 @@
         <v>7</v>
       </c>
       <c r="K363" s="4">
-        <v>770.0</v>
+        <v>39.3</v>
       </c>
       <c r="L363" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M363" s="4"/>
       <c r="N363" s="6" t="s">
@@ -12129,16 +12132,16 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="4">
-        <v>454545</v>
+        <v>5800232</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
@@ -12147,10 +12150,10 @@
         <v>7</v>
       </c>
       <c r="K364" s="4">
-        <v>1083.33</v>
+        <v>770.0</v>
       </c>
       <c r="L364" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M364" s="4"/>
       <c r="N364" s="6" t="s">
@@ -12159,16 +12162,16 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="4">
-        <v>1899950</v>
+        <v>7185499</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
@@ -12177,10 +12180,10 @@
         <v>7</v>
       </c>
       <c r="K365" s="4">
-        <v>39.3</v>
+        <v>39.33</v>
       </c>
       <c r="L365" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M365" s="4"/>
       <c r="N365" s="6" t="s">
@@ -12189,16 +12192,16 @@
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="4">
-        <v>7185499</v>
+        <v>454545</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
@@ -12207,10 +12210,10 @@
         <v>7</v>
       </c>
       <c r="K366" s="4">
-        <v>39.33</v>
+        <v>1083.33</v>
       </c>
       <c r="L366" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M366" s="4"/>
       <c r="N366" s="6" t="s">
@@ -12219,16 +12222,16 @@
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="4">
-        <v>1899950</v>
+        <v>7185499</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
@@ -12237,7 +12240,7 @@
         <v>7</v>
       </c>
       <c r="K367" s="4">
-        <v>39.3</v>
+        <v>39.33</v>
       </c>
       <c r="L367" s="5" t="s">
         <v>267</v>
@@ -12249,16 +12252,16 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="4">
-        <v>7203812</v>
+        <v>7211060</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
@@ -12267,7 +12270,7 @@
         <v>7</v>
       </c>
       <c r="K368" s="4">
-        <v>260.48</v>
+        <v>892.5</v>
       </c>
       <c r="L368" s="5" t="s">
         <v>267</v>
@@ -12279,16 +12282,16 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="4">
-        <v>7185499</v>
+        <v>7203812</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
@@ -12297,7 +12300,7 @@
         <v>7</v>
       </c>
       <c r="K369" s="4">
-        <v>39.33</v>
+        <v>260.48</v>
       </c>
       <c r="L369" s="5" t="s">
         <v>267</v>
@@ -12309,16 +12312,16 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="4">
-        <v>7211060</v>
+        <v>5006333</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
@@ -12327,7 +12330,7 @@
         <v>7</v>
       </c>
       <c r="K370" s="4">
-        <v>892.5</v>
+        <v>263.5</v>
       </c>
       <c r="L370" s="5" t="s">
         <v>267</v>
@@ -12339,16 +12342,16 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="4">
-        <v>5006333</v>
+        <v>1899950</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
@@ -12357,7 +12360,7 @@
         <v>7</v>
       </c>
       <c r="K371" s="4">
-        <v>263.5</v>
+        <v>39.3</v>
       </c>
       <c r="L371" s="5" t="s">
         <v>267</v>
@@ -12369,16 +12372,16 @@
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="4">
-        <v>7185499</v>
+        <v>7144066</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
@@ -12387,10 +12390,10 @@
         <v>7</v>
       </c>
       <c r="K372" s="4">
-        <v>39.33</v>
+        <v>513.33</v>
       </c>
       <c r="L372" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M372" s="4"/>
       <c r="N372" s="6" t="s">
@@ -12399,10 +12402,10 @@
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="4">
-        <v>7144066</v>
+        <v>10635688</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
@@ -12417,10 +12420,10 @@
         <v>7</v>
       </c>
       <c r="K373" s="4">
-        <v>513.33</v>
+        <v>898.3</v>
       </c>
       <c r="L373" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M373" s="4"/>
       <c r="N373" s="6" t="s">
@@ -12429,16 +12432,16 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="4">
-        <v>10635688</v>
+        <v>1886834</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
@@ -12447,10 +12450,10 @@
         <v>7</v>
       </c>
       <c r="K374" s="4">
-        <v>898.3</v>
+        <v>218.75</v>
       </c>
       <c r="L374" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M374" s="4"/>
       <c r="N374" s="6" t="s">
@@ -12459,16 +12462,16 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="4">
-        <v>1886834</v>
+        <v>1899950</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
@@ -12477,10 +12480,10 @@
         <v>7</v>
       </c>
       <c r="K375" s="4">
-        <v>218.75</v>
+        <v>39.3</v>
       </c>
       <c r="L375" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M375" s="4"/>
       <c r="N375" s="6" t="s">
@@ -12489,16 +12492,16 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="4">
-        <v>1899950</v>
+        <v>7185499</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
@@ -12507,10 +12510,10 @@
         <v>7</v>
       </c>
       <c r="K376" s="4">
-        <v>39.3</v>
+        <v>39.33</v>
       </c>
       <c r="L376" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M376" s="4"/>
       <c r="N376" s="6" t="s">
@@ -12519,16 +12522,16 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="4">
-        <v>7103441</v>
+        <v>1899950</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
@@ -12537,10 +12540,10 @@
         <v>7</v>
       </c>
       <c r="K377" s="4">
-        <v>1480.0</v>
+        <v>39.3</v>
       </c>
       <c r="L377" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M377" s="4"/>
       <c r="N377" s="6" t="s">
@@ -12549,16 +12552,16 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="4">
-        <v>1899950</v>
+        <v>7105285</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
@@ -12567,10 +12570,10 @@
         <v>7</v>
       </c>
       <c r="K378" s="4">
-        <v>39.3</v>
+        <v>590.0</v>
       </c>
       <c r="L378" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M378" s="4"/>
       <c r="N378" s="6" t="s">
@@ -12579,16 +12582,16 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="4">
-        <v>7105285</v>
+        <v>10644416</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
@@ -12597,10 +12600,10 @@
         <v>7</v>
       </c>
       <c r="K379" s="4">
-        <v>590.0</v>
+        <v>300.0</v>
       </c>
       <c r="L379" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M379" s="4"/>
       <c r="N379" s="6" t="s">
@@ -12609,10 +12612,10 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="4">
-        <v>10644416</v>
+        <v>7185499</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
@@ -12627,10 +12630,10 @@
         <v>7</v>
       </c>
       <c r="K380" s="4">
-        <v>300.0</v>
+        <v>39.33</v>
       </c>
       <c r="L380" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M380" s="4"/>
       <c r="N380" s="6" t="s">
@@ -12639,16 +12642,16 @@
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="4">
-        <v>7185499</v>
+        <v>7103441</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
@@ -12657,10 +12660,10 @@
         <v>7</v>
       </c>
       <c r="K381" s="4">
-        <v>39.33</v>
+        <v>1480.0</v>
       </c>
       <c r="L381" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M381" s="4"/>
       <c r="N381" s="6" t="s">
@@ -12690,7 +12693,7 @@
         <v>150.0</v>
       </c>
       <c r="L382" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M382" s="4"/>
       <c r="N382" s="6" t="s">
@@ -12720,7 +12723,7 @@
         <v>1010.6</v>
       </c>
       <c r="L383" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M383" s="4"/>
       <c r="N383" s="6" t="s">
@@ -12729,16 +12732,16 @@
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="4">
-        <v>7254095</v>
+        <v>1899950</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
@@ -12747,7 +12750,7 @@
         <v>7</v>
       </c>
       <c r="K384" s="4">
-        <v>185.1</v>
+        <v>39.3</v>
       </c>
       <c r="L384" s="5" t="s">
         <v>274</v>
@@ -12789,16 +12792,16 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="4">
-        <v>7259089</v>
+        <v>7106747</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
@@ -12807,7 +12810,7 @@
         <v>7</v>
       </c>
       <c r="K386" s="4">
-        <v>818.38</v>
+        <v>340.0</v>
       </c>
       <c r="L386" s="5" t="s">
         <v>274</v>
@@ -12819,16 +12822,16 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="4">
-        <v>1899950</v>
+        <v>7254095</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
@@ -12837,7 +12840,7 @@
         <v>7</v>
       </c>
       <c r="K387" s="4">
-        <v>39.3</v>
+        <v>185.1</v>
       </c>
       <c r="L387" s="5" t="s">
         <v>274</v>
@@ -12849,16 +12852,16 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="4">
-        <v>7109398</v>
+        <v>7259089</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
@@ -12867,7 +12870,7 @@
         <v>7</v>
       </c>
       <c r="K388" s="4">
-        <v>2869.76</v>
+        <v>818.38</v>
       </c>
       <c r="L388" s="5" t="s">
         <v>274</v>
@@ -12879,16 +12882,16 @@
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="4">
-        <v>7106747</v>
+        <v>7185499</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
@@ -12897,7 +12900,7 @@
         <v>7</v>
       </c>
       <c r="K389" s="4">
-        <v>340.0</v>
+        <v>39.33</v>
       </c>
       <c r="L389" s="5" t="s">
         <v>274</v>
@@ -12909,16 +12912,16 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="4">
-        <v>7185499</v>
+        <v>5037553</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
@@ -12927,7 +12930,7 @@
         <v>7</v>
       </c>
       <c r="K390" s="4">
-        <v>39.33</v>
+        <v>1603.3</v>
       </c>
       <c r="L390" s="5" t="s">
         <v>274</v>
@@ -12939,16 +12942,16 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="4">
-        <v>5037553</v>
+        <v>7109398</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
@@ -12957,7 +12960,7 @@
         <v>7</v>
       </c>
       <c r="K391" s="4">
-        <v>1603.3</v>
+        <v>2869.76</v>
       </c>
       <c r="L391" s="5" t="s">
         <v>274</v>
@@ -12999,16 +13002,16 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="4">
-        <v>1836015</v>
+        <v>7185499</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
@@ -13017,10 +13020,10 @@
         <v>7</v>
       </c>
       <c r="K393" s="4">
-        <v>513.3</v>
+        <v>39.33</v>
       </c>
       <c r="L393" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M393" s="4"/>
       <c r="N393" s="6" t="s">
@@ -13029,16 +13032,16 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="4">
-        <v>7136623</v>
+        <v>7185499</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
@@ -13047,10 +13050,10 @@
         <v>7</v>
       </c>
       <c r="K394" s="4">
-        <v>770.0</v>
+        <v>39.33</v>
       </c>
       <c r="L394" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M394" s="4"/>
       <c r="N394" s="6" t="s">
@@ -13059,16 +13062,16 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="4">
-        <v>5008907</v>
+        <v>1052847</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
@@ -13077,10 +13080,10 @@
         <v>7</v>
       </c>
       <c r="K395" s="4">
-        <v>2310.0</v>
+        <v>138.0</v>
       </c>
       <c r="L395" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M395" s="4"/>
       <c r="N395" s="6" t="s">
@@ -13089,16 +13092,16 @@
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="4">
-        <v>7185499</v>
+        <v>1836015</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
@@ -13107,10 +13110,10 @@
         <v>7</v>
       </c>
       <c r="K396" s="4">
-        <v>39.33</v>
+        <v>513.3</v>
       </c>
       <c r="L396" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M396" s="4"/>
       <c r="N396" s="6" t="s">
@@ -13119,16 +13122,16 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="4">
-        <v>7185499</v>
+        <v>1899092</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
@@ -13137,10 +13140,10 @@
         <v>7</v>
       </c>
       <c r="K397" s="4">
-        <v>39.33</v>
+        <v>770.0</v>
       </c>
       <c r="L397" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M397" s="4"/>
       <c r="N397" s="6" t="s">
@@ -13149,16 +13152,16 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="4">
-        <v>4143978</v>
+        <v>1899950</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
@@ -13167,10 +13170,10 @@
         <v>7</v>
       </c>
       <c r="K398" s="4">
-        <v>250.0</v>
+        <v>39.3</v>
       </c>
       <c r="L398" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M398" s="4"/>
       <c r="N398" s="6" t="s">
@@ -13179,16 +13182,16 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="4">
-        <v>7212958</v>
+        <v>4143978</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
@@ -13197,10 +13200,10 @@
         <v>7</v>
       </c>
       <c r="K399" s="4">
-        <v>1059.08</v>
+        <v>250.0</v>
       </c>
       <c r="L399" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M399" s="4"/>
       <c r="N399" s="6" t="s">
@@ -13209,16 +13212,16 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="4">
-        <v>1899092</v>
+        <v>5232977</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
@@ -13227,10 +13230,10 @@
         <v>7</v>
       </c>
       <c r="K400" s="4">
-        <v>770.0</v>
+        <v>1726.7</v>
       </c>
       <c r="L400" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M400" s="4"/>
       <c r="N400" s="6" t="s">
@@ -13239,16 +13242,16 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="4">
-        <v>5232977</v>
+        <v>1899950</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
@@ -13257,10 +13260,10 @@
         <v>7</v>
       </c>
       <c r="K401" s="4">
-        <v>1726.7</v>
+        <v>39.3</v>
       </c>
       <c r="L401" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M401" s="4"/>
       <c r="N401" s="6" t="s">
@@ -13272,7 +13275,7 @@
         <v>12381291</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
@@ -13290,7 +13293,7 @@
         <v>898.3</v>
       </c>
       <c r="L402" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M402" s="4"/>
       <c r="N402" s="6" t="s">
@@ -13299,16 +13302,16 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="4">
-        <v>1899950</v>
+        <v>7212958</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
@@ -13317,10 +13320,10 @@
         <v>7</v>
       </c>
       <c r="K403" s="4">
-        <v>39.3</v>
+        <v>1059.08</v>
       </c>
       <c r="L403" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M403" s="4"/>
       <c r="N403" s="6" t="s">
@@ -13350,7 +13353,7 @@
         <v>665.0</v>
       </c>
       <c r="L404" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M404" s="4"/>
       <c r="N404" s="6" t="s">
@@ -13359,16 +13362,16 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="4">
-        <v>1052847</v>
+        <v>5008907</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
@@ -13377,10 +13380,10 @@
         <v>7</v>
       </c>
       <c r="K405" s="4">
-        <v>138.0</v>
+        <v>2310.0</v>
       </c>
       <c r="L405" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M405" s="4"/>
       <c r="N405" s="6" t="s">
@@ -13389,16 +13392,16 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="4">
-        <v>1899950</v>
+        <v>7136623</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
@@ -13407,10 +13410,10 @@
         <v>7</v>
       </c>
       <c r="K406" s="4">
-        <v>39.3</v>
+        <v>770.0</v>
       </c>
       <c r="L406" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M406" s="4"/>
       <c r="N406" s="6" t="s">
@@ -13419,16 +13422,16 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="4">
-        <v>4157590</v>
+        <v>1899950</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
@@ -13437,10 +13440,10 @@
         <v>7</v>
       </c>
       <c r="K407" s="4">
-        <v>118.0</v>
+        <v>39.3</v>
       </c>
       <c r="L407" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M407" s="4"/>
       <c r="N407" s="6" t="s">
@@ -13449,16 +13452,16 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="4">
-        <v>1899950</v>
+        <v>4157590</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
@@ -13467,10 +13470,10 @@
         <v>7</v>
       </c>
       <c r="K408" s="4">
-        <v>39.3</v>
+        <v>118.0</v>
       </c>
       <c r="L408" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M408" s="4"/>
       <c r="N408" s="6" t="s">
@@ -13500,7 +13503,7 @@
         <v>1083.33</v>
       </c>
       <c r="L409" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M409" s="4"/>
       <c r="N409" s="6" t="s">
@@ -13509,16 +13512,16 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="4">
-        <v>7185499</v>
+        <v>7228075</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
@@ -13527,10 +13530,10 @@
         <v>7</v>
       </c>
       <c r="K410" s="4">
-        <v>39.33</v>
+        <v>320.83</v>
       </c>
       <c r="L410" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M410" s="4"/>
       <c r="N410" s="6" t="s">
@@ -13539,16 +13542,16 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="4">
-        <v>7228075</v>
+        <v>7185499</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
@@ -13557,10 +13560,10 @@
         <v>7</v>
       </c>
       <c r="K411" s="4">
-        <v>320.83</v>
+        <v>39.33</v>
       </c>
       <c r="L411" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M411" s="4"/>
       <c r="N411" s="6" t="s">
@@ -13572,7 +13575,7 @@
         <v>1884070</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
@@ -13590,7 +13593,7 @@
         <v>641.7</v>
       </c>
       <c r="L412" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M412" s="4"/>
       <c r="N412" s="6" t="s">
@@ -13599,16 +13602,16 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="4">
-        <v>7113724</v>
+        <v>7211060</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>281</v>
+        <v>114</v>
       </c>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
@@ -13617,10 +13620,10 @@
         <v>7</v>
       </c>
       <c r="K413" s="4">
-        <v>680.0</v>
+        <v>892.5</v>
       </c>
       <c r="L413" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M413" s="4"/>
       <c r="N413" s="6" t="s">
@@ -13629,16 +13632,16 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="4">
-        <v>1899950</v>
+        <v>7203812</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
@@ -13647,10 +13650,10 @@
         <v>7</v>
       </c>
       <c r="K414" s="4">
-        <v>39.3</v>
+        <v>260.48</v>
       </c>
       <c r="L414" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M414" s="4"/>
       <c r="N414" s="6" t="s">
@@ -13659,16 +13662,16 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="4">
-        <v>1848994</v>
+        <v>7113724</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
@@ -13677,10 +13680,10 @@
         <v>7</v>
       </c>
       <c r="K415" s="4">
-        <v>1180.0</v>
+        <v>680.0</v>
       </c>
       <c r="L415" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M415" s="4"/>
       <c r="N415" s="6" t="s">
@@ -13689,16 +13692,16 @@
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="4">
-        <v>7211060</v>
+        <v>7185499</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
@@ -13707,10 +13710,10 @@
         <v>7</v>
       </c>
       <c r="K416" s="4">
-        <v>892.5</v>
+        <v>39.33</v>
       </c>
       <c r="L416" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M416" s="4"/>
       <c r="N416" s="6" t="s">
@@ -13719,16 +13722,16 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="4">
-        <v>7185499</v>
+        <v>1848994</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
@@ -13737,10 +13740,10 @@
         <v>7</v>
       </c>
       <c r="K417" s="4">
-        <v>39.33</v>
+        <v>1180.0</v>
       </c>
       <c r="L417" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M417" s="4"/>
       <c r="N417" s="6" t="s">
@@ -13749,16 +13752,16 @@
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="4">
-        <v>7203812</v>
+        <v>1899950</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
@@ -13767,10 +13770,10 @@
         <v>7</v>
       </c>
       <c r="K418" s="4">
-        <v>260.48</v>
+        <v>39.3</v>
       </c>
       <c r="L418" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M418" s="4"/>
       <c r="N418" s="6" t="s">
@@ -13779,10 +13782,10 @@
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="4">
-        <v>7185499</v>
+        <v>1886834</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
@@ -13797,7 +13800,7 @@
         <v>7</v>
       </c>
       <c r="K419" s="4">
-        <v>39.33</v>
+        <v>218.75</v>
       </c>
       <c r="L419" s="5" t="s">
         <v>283</v>
@@ -13809,16 +13812,16 @@
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="4">
-        <v>1886834</v>
+        <v>1899950</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
@@ -13827,7 +13830,7 @@
         <v>7</v>
       </c>
       <c r="K420" s="4">
-        <v>218.75</v>
+        <v>39.3</v>
       </c>
       <c r="L420" s="5" t="s">
         <v>283</v>
@@ -13839,16 +13842,16 @@
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="4">
-        <v>1899950</v>
+        <v>7185499</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G421" s="4"/>
       <c r="H421" s="4"/>
@@ -13857,7 +13860,7 @@
         <v>7</v>
       </c>
       <c r="K421" s="4">
-        <v>39.3</v>
+        <v>39.33</v>
       </c>
       <c r="L421" s="5" t="s">
         <v>283</v>
@@ -13869,16 +13872,16 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="4">
-        <v>5041294</v>
+        <v>1899950</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
@@ -13887,10 +13890,10 @@
         <v>7</v>
       </c>
       <c r="K422" s="4">
-        <v>680.0</v>
+        <v>39.3</v>
       </c>
       <c r="L422" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M422" s="4"/>
       <c r="N422" s="6" t="s">
@@ -13899,16 +13902,16 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="4">
-        <v>7166477</v>
+        <v>1884314</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
@@ -13917,10 +13920,10 @@
         <v>7</v>
       </c>
       <c r="K423" s="4">
-        <v>1973.3</v>
+        <v>510.9</v>
       </c>
       <c r="L423" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M423" s="4"/>
       <c r="N423" s="6" t="s">
@@ -13929,16 +13932,16 @@
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="4">
-        <v>1899950</v>
+        <v>7148877</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
@@ -13947,10 +13950,10 @@
         <v>7</v>
       </c>
       <c r="K424" s="4">
-        <v>39.3</v>
+        <v>632.4</v>
       </c>
       <c r="L424" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M424" s="4"/>
       <c r="N424" s="6" t="s">
@@ -13980,7 +13983,7 @@
         <v>150.0</v>
       </c>
       <c r="L425" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M425" s="4"/>
       <c r="N425" s="6" t="s">
@@ -13989,16 +13992,16 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="4">
-        <v>5787275</v>
+        <v>7259959</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
@@ -14007,10 +14010,10 @@
         <v>7</v>
       </c>
       <c r="K426" s="4">
-        <v>1010.6</v>
+        <v>680.0</v>
       </c>
       <c r="L426" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M426" s="4"/>
       <c r="N426" s="6" t="s">
@@ -14019,16 +14022,16 @@
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="4">
-        <v>7259959</v>
+        <v>7185499</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
@@ -14037,10 +14040,10 @@
         <v>7</v>
       </c>
       <c r="K427" s="4">
-        <v>680.0</v>
+        <v>39.33</v>
       </c>
       <c r="L427" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M427" s="4"/>
       <c r="N427" s="6" t="s">
@@ -14049,16 +14052,16 @@
     </row>
     <row r="428" spans="1:14">
       <c r="A428" s="4">
-        <v>7185499</v>
+        <v>5787275</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
@@ -14067,10 +14070,10 @@
         <v>7</v>
       </c>
       <c r="K428" s="4">
-        <v>39.33</v>
+        <v>1010.6</v>
       </c>
       <c r="L428" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M428" s="4"/>
       <c r="N428" s="6" t="s">
@@ -14079,7 +14082,7 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="4">
-        <v>1884314</v>
+        <v>7166477</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>288</v>
@@ -14088,7 +14091,7 @@
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
@@ -14097,10 +14100,10 @@
         <v>7</v>
       </c>
       <c r="K429" s="4">
-        <v>510.9</v>
+        <v>1973.3</v>
       </c>
       <c r="L429" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M429" s="4"/>
       <c r="N429" s="6" t="s">
@@ -14109,7 +14112,7 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="4">
-        <v>7148877</v>
+        <v>5041294</v>
       </c>
       <c r="B430" s="4" t="s">
         <v>289</v>
@@ -14118,7 +14121,7 @@
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="G430" s="4"/>
       <c r="H430" s="4"/>
@@ -14127,10 +14130,10 @@
         <v>7</v>
       </c>
       <c r="K430" s="4">
-        <v>632.4</v>
+        <v>680.0</v>
       </c>
       <c r="L430" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M430" s="4"/>
       <c r="N430" s="6" t="s">
@@ -14139,16 +14142,16 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="4">
-        <v>5001200</v>
+        <v>7254095</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
@@ -14157,28 +14160,28 @@
         <v>7</v>
       </c>
       <c r="K431" s="4">
-        <v>641.7</v>
+        <v>185.1</v>
       </c>
       <c r="L431" s="5" t="s">
         <v>290</v>
       </c>
       <c r="M431" s="4"/>
-      <c r="N431" s="7" t="s">
-        <v>4</v>
+      <c r="N431" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="4">
-        <v>1899950</v>
+        <v>7259089</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
@@ -14187,22 +14190,22 @@
         <v>7</v>
       </c>
       <c r="K432" s="4">
-        <v>39.3</v>
+        <v>818.38</v>
       </c>
       <c r="L432" s="5" t="s">
         <v>290</v>
       </c>
       <c r="M432" s="4"/>
-      <c r="N432" s="7" t="s">
-        <v>4</v>
+      <c r="N432" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="4">
-        <v>5004813</v>
+        <v>1899950</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
@@ -14217,28 +14220,28 @@
         <v>7</v>
       </c>
       <c r="K433" s="4">
-        <v>898.3</v>
+        <v>39.3</v>
       </c>
       <c r="L433" s="5" t="s">
         <v>290</v>
       </c>
       <c r="M433" s="4"/>
-      <c r="N433" s="7" t="s">
-        <v>4</v>
+      <c r="N433" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="4">
-        <v>7254095</v>
+        <v>5001200</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
@@ -14247,28 +14250,28 @@
         <v>7</v>
       </c>
       <c r="K434" s="4">
-        <v>185.1</v>
+        <v>641.7</v>
       </c>
       <c r="L434" s="5" t="s">
         <v>290</v>
       </c>
       <c r="M434" s="4"/>
-      <c r="N434" s="7" t="s">
-        <v>4</v>
+      <c r="N434" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="4">
-        <v>7259089</v>
+        <v>5004813</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
@@ -14277,14 +14280,14 @@
         <v>7</v>
       </c>
       <c r="K435" s="4">
-        <v>818.38</v>
+        <v>898.3</v>
       </c>
       <c r="L435" s="5" t="s">
         <v>290</v>
       </c>
       <c r="M435" s="4"/>
-      <c r="N435" s="7" t="s">
-        <v>4</v>
+      <c r="N435" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:14">
@@ -14313,22 +14316,22 @@
         <v>290</v>
       </c>
       <c r="M436" s="4"/>
-      <c r="N436" s="7" t="s">
-        <v>4</v>
+      <c r="N436" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="4">
-        <v>7185499</v>
+        <v>5805990</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="G437" s="4"/>
       <c r="H437" s="4"/>
@@ -14337,28 +14340,28 @@
         <v>7</v>
       </c>
       <c r="K437" s="4">
-        <v>39.33</v>
+        <v>510.0</v>
       </c>
       <c r="L437" s="5" t="s">
         <v>292</v>
       </c>
       <c r="M437" s="4"/>
-      <c r="N437" s="8" t="s">
-        <v>5</v>
+      <c r="N437" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="4">
-        <v>5805990</v>
+        <v>4143978</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
@@ -14367,14 +14370,14 @@
         <v>7</v>
       </c>
       <c r="K438" s="4">
-        <v>510.0</v>
+        <v>250.0</v>
       </c>
       <c r="L438" s="5" t="s">
         <v>292</v>
       </c>
       <c r="M438" s="4"/>
-      <c r="N438" s="8" t="s">
-        <v>5</v>
+      <c r="N438" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:14">
@@ -14403,16 +14406,16 @@
         <v>292</v>
       </c>
       <c r="M439" s="4"/>
-      <c r="N439" s="8" t="s">
-        <v>5</v>
+      <c r="N439" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:14">
-      <c r="A440" s="4">
-        <v>1052847</v>
+      <c r="A440" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
@@ -14427,28 +14430,28 @@
         <v>7</v>
       </c>
       <c r="K440" s="4">
-        <v>138.0</v>
+        <v>363.8</v>
       </c>
       <c r="L440" s="5" t="s">
         <v>292</v>
       </c>
       <c r="M440" s="4"/>
-      <c r="N440" s="8" t="s">
-        <v>5</v>
+      <c r="N440" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:14">
-      <c r="A441" s="4" t="s">
-        <v>259</v>
+      <c r="A441" s="4">
+        <v>5008907</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="G441" s="4"/>
       <c r="H441" s="4"/>
@@ -14457,28 +14460,28 @@
         <v>7</v>
       </c>
       <c r="K441" s="4">
-        <v>363.8</v>
+        <v>2310.0</v>
       </c>
       <c r="L441" s="5" t="s">
         <v>292</v>
       </c>
       <c r="M441" s="4"/>
-      <c r="N441" s="8" t="s">
-        <v>5</v>
+      <c r="N441" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="4">
-        <v>5008907</v>
+        <v>1899950</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="G442" s="4"/>
       <c r="H442" s="4"/>
@@ -14487,28 +14490,28 @@
         <v>7</v>
       </c>
       <c r="K442" s="4">
-        <v>2310.0</v>
+        <v>39.3</v>
       </c>
       <c r="L442" s="5" t="s">
         <v>292</v>
       </c>
       <c r="M442" s="4"/>
-      <c r="N442" s="8" t="s">
-        <v>5</v>
+      <c r="N442" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="4">
-        <v>1899950</v>
+        <v>5801048</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
@@ -14517,28 +14520,28 @@
         <v>7</v>
       </c>
       <c r="K443" s="4">
-        <v>39.3</v>
+        <v>696.2</v>
       </c>
       <c r="L443" s="5" t="s">
         <v>292</v>
       </c>
       <c r="M443" s="4"/>
-      <c r="N443" s="8" t="s">
-        <v>5</v>
+      <c r="N443" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="4">
-        <v>5801048</v>
+        <v>7177540</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
@@ -14547,28 +14550,28 @@
         <v>7</v>
       </c>
       <c r="K444" s="4">
-        <v>696.2</v>
+        <v>510.0</v>
       </c>
       <c r="L444" s="5" t="s">
         <v>292</v>
       </c>
       <c r="M444" s="4"/>
-      <c r="N444" s="8" t="s">
-        <v>5</v>
+      <c r="N444" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="4">
-        <v>7177540</v>
+        <v>1899950</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="G445" s="4"/>
       <c r="H445" s="4"/>
@@ -14577,28 +14580,28 @@
         <v>7</v>
       </c>
       <c r="K445" s="4">
-        <v>510.0</v>
+        <v>39.3</v>
       </c>
       <c r="L445" s="5" t="s">
         <v>292</v>
       </c>
       <c r="M445" s="4"/>
-      <c r="N445" s="8" t="s">
-        <v>5</v>
+      <c r="N445" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="4">
-        <v>1899950</v>
+        <v>1052847</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
@@ -14607,28 +14610,28 @@
         <v>7</v>
       </c>
       <c r="K446" s="4">
-        <v>39.3</v>
+        <v>138.0</v>
       </c>
       <c r="L446" s="5" t="s">
         <v>292</v>
       </c>
       <c r="M446" s="4"/>
-      <c r="N446" s="8" t="s">
-        <v>5</v>
+      <c r="N446" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="4">
-        <v>4143978</v>
+        <v>7185499</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G447" s="4"/>
       <c r="H447" s="4"/>
@@ -14637,14 +14640,14 @@
         <v>7</v>
       </c>
       <c r="K447" s="4">
-        <v>250.0</v>
+        <v>39.33</v>
       </c>
       <c r="L447" s="5" t="s">
         <v>292</v>
       </c>
       <c r="M447" s="4"/>
-      <c r="N447" s="8" t="s">
-        <v>5</v>
+      <c r="N447" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:14">
@@ -14652,7 +14655,7 @@
         <v>4157590</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
@@ -14679,16 +14682,16 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="4">
-        <v>12411923</v>
+        <v>454545</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
@@ -14697,7 +14700,7 @@
         <v>7</v>
       </c>
       <c r="K449" s="4">
-        <v>1726.67</v>
+        <v>1083.33</v>
       </c>
       <c r="L449" s="5" t="s">
         <v>294</v>
@@ -14709,16 +14712,16 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="4">
-        <v>454545</v>
+        <v>7228075</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
@@ -14727,7 +14730,7 @@
         <v>7</v>
       </c>
       <c r="K450" s="4">
-        <v>1083.33</v>
+        <v>320.83</v>
       </c>
       <c r="L450" s="5" t="s">
         <v>294</v>
@@ -14769,16 +14772,16 @@
     </row>
     <row r="452" spans="1:14">
       <c r="A452" s="4">
-        <v>7228075</v>
+        <v>7112976</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
@@ -14787,7 +14790,7 @@
         <v>7</v>
       </c>
       <c r="K452" s="4">
-        <v>320.83</v>
+        <v>680.0</v>
       </c>
       <c r="L452" s="5" t="s">
         <v>294</v>
@@ -14799,16 +14802,16 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="4">
-        <v>7112976</v>
+        <v>5816019</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
@@ -14817,7 +14820,7 @@
         <v>7</v>
       </c>
       <c r="K453" s="4">
-        <v>680.0</v>
+        <v>1356.67</v>
       </c>
       <c r="L453" s="5" t="s">
         <v>294</v>
@@ -14829,16 +14832,16 @@
     </row>
     <row r="454" spans="1:14">
       <c r="A454" s="4">
-        <v>5816019</v>
+        <v>7117514</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="G454" s="4"/>
       <c r="H454" s="4"/>
@@ -14847,7 +14850,7 @@
         <v>7</v>
       </c>
       <c r="K454" s="4">
-        <v>1356.67</v>
+        <v>2466.7</v>
       </c>
       <c r="L454" s="5" t="s">
         <v>294</v>
@@ -14859,16 +14862,16 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455" s="4">
-        <v>7117514</v>
+        <v>4141852</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
@@ -14877,7 +14880,7 @@
         <v>7</v>
       </c>
       <c r="K455" s="4">
-        <v>2466.7</v>
+        <v>570.0</v>
       </c>
       <c r="L455" s="5" t="s">
         <v>294</v>
@@ -14889,16 +14892,16 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456" s="4">
-        <v>4141852</v>
+        <v>12411923</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
@@ -14907,7 +14910,7 @@
         <v>7</v>
       </c>
       <c r="K456" s="4">
-        <v>570.0</v>
+        <v>1726.67</v>
       </c>
       <c r="L456" s="5" t="s">
         <v>294</v>
@@ -14919,10 +14922,10 @@
     </row>
     <row r="457" spans="1:14">
       <c r="A457" s="4">
-        <v>1899950</v>
+        <v>5052427</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
@@ -14937,10 +14940,10 @@
         <v>7</v>
       </c>
       <c r="K457" s="4">
-        <v>39.3</v>
+        <v>1480.0</v>
       </c>
       <c r="L457" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M457" s="4"/>
       <c r="N457" s="8" t="s">
@@ -14949,16 +14952,16 @@
     </row>
     <row r="458" spans="1:14">
       <c r="A458" s="4">
-        <v>10722849</v>
+        <v>4071301</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
@@ -14967,10 +14970,10 @@
         <v>7</v>
       </c>
       <c r="K458" s="4">
-        <v>580.0</v>
+        <v>160.0</v>
       </c>
       <c r="L458" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M458" s="4"/>
       <c r="N458" s="8" t="s">
@@ -14979,16 +14982,16 @@
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="4">
-        <v>5052427</v>
+        <v>7211060</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
@@ -14997,10 +15000,10 @@
         <v>7</v>
       </c>
       <c r="K459" s="4">
-        <v>1480.0</v>
+        <v>892.5</v>
       </c>
       <c r="L459" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M459" s="4"/>
       <c r="N459" s="8" t="s">
@@ -15030,7 +15033,7 @@
         <v>260.48</v>
       </c>
       <c r="L460" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M460" s="4"/>
       <c r="N460" s="8" t="s">
@@ -15039,16 +15042,16 @@
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="4">
-        <v>4071301</v>
+        <v>1899950</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
@@ -15057,10 +15060,10 @@
         <v>7</v>
       </c>
       <c r="K461" s="4">
-        <v>160.0</v>
+        <v>39.3</v>
       </c>
       <c r="L461" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M461" s="4"/>
       <c r="N461" s="8" t="s">
@@ -15069,16 +15072,16 @@
     </row>
     <row r="462" spans="1:14">
       <c r="A462" s="4">
-        <v>7211060</v>
+        <v>10722849</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
@@ -15087,10 +15090,10 @@
         <v>7</v>
       </c>
       <c r="K462" s="4">
-        <v>892.5</v>
+        <v>580.0</v>
       </c>
       <c r="L462" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M462" s="4"/>
       <c r="N462" s="8" t="s">
@@ -15189,16 +15192,16 @@
     </row>
     <row r="466" spans="1:14">
       <c r="A466" s="4">
-        <v>5787275</v>
+        <v>7144066</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G466" s="4"/>
       <c r="H466" s="4"/>
@@ -15207,7 +15210,7 @@
         <v>7</v>
       </c>
       <c r="K466" s="4">
-        <v>1010.6</v>
+        <v>513.33</v>
       </c>
       <c r="L466" s="5" t="s">
         <v>303</v>
@@ -15219,10 +15222,10 @@
     </row>
     <row r="467" spans="1:14">
       <c r="A467" s="4">
-        <v>1899950</v>
+        <v>7245064</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
@@ -15237,7 +15240,7 @@
         <v>7</v>
       </c>
       <c r="K467" s="4">
-        <v>39.3</v>
+        <v>150.0</v>
       </c>
       <c r="L467" s="5" t="s">
         <v>303</v>
@@ -15249,16 +15252,16 @@
     </row>
     <row r="468" spans="1:14">
       <c r="A468" s="4">
-        <v>7144066</v>
+        <v>5787275</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
@@ -15267,7 +15270,7 @@
         <v>7</v>
       </c>
       <c r="K468" s="4">
-        <v>513.33</v>
+        <v>1010.6</v>
       </c>
       <c r="L468" s="5" t="s">
         <v>303</v>
@@ -15279,10 +15282,10 @@
     </row>
     <row r="469" spans="1:14">
       <c r="A469" s="4">
-        <v>7245064</v>
+        <v>1899950</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
@@ -15297,7 +15300,7 @@
         <v>7</v>
       </c>
       <c r="K469" s="4">
-        <v>150.0</v>
+        <v>39.3</v>
       </c>
       <c r="L469" s="5" t="s">
         <v>303</v>
@@ -15309,16 +15312,16 @@
     </row>
     <row r="470" spans="1:14">
       <c r="A470" s="4">
-        <v>7254095</v>
+        <v>1899950</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
@@ -15327,7 +15330,7 @@
         <v>7</v>
       </c>
       <c r="K470" s="4">
-        <v>185.1</v>
+        <v>39.3</v>
       </c>
       <c r="L470" s="5" t="s">
         <v>304</v>
@@ -15339,10 +15342,10 @@
     </row>
     <row r="471" spans="1:14">
       <c r="A471" s="4">
-        <v>7259089</v>
+        <v>5684823</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
@@ -15357,7 +15360,7 @@
         <v>7</v>
       </c>
       <c r="K471" s="4">
-        <v>818.38</v>
+        <v>665.0</v>
       </c>
       <c r="L471" s="5" t="s">
         <v>304</v>
@@ -15369,10 +15372,10 @@
     </row>
     <row r="472" spans="1:14">
       <c r="A472" s="4">
-        <v>5684823</v>
+        <v>7254095</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
@@ -15387,7 +15390,7 @@
         <v>7</v>
       </c>
       <c r="K472" s="4">
-        <v>665.0</v>
+        <v>185.1</v>
       </c>
       <c r="L472" s="5" t="s">
         <v>304</v>
@@ -15399,16 +15402,16 @@
     </row>
     <row r="473" spans="1:14">
       <c r="A473" s="4">
-        <v>1836015</v>
+        <v>7259089</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G473" s="4"/>
       <c r="H473" s="4"/>
@@ -15417,7 +15420,7 @@
         <v>7</v>
       </c>
       <c r="K473" s="4">
-        <v>513.3</v>
+        <v>818.38</v>
       </c>
       <c r="L473" s="5" t="s">
         <v>304</v>
@@ -15429,10 +15432,10 @@
     </row>
     <row r="474" spans="1:14">
       <c r="A474" s="4">
-        <v>1899950</v>
+        <v>1836015</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -15447,7 +15450,7 @@
         <v>7</v>
       </c>
       <c r="K474" s="4">
-        <v>39.3</v>
+        <v>513.3</v>
       </c>
       <c r="L474" s="5" t="s">
         <v>304</v>
@@ -15457,12 +15460,162 @@
         <v>5</v>
       </c>
     </row>
+    <row r="475" spans="1:14">
+      <c r="A475" s="4">
+        <v>7103441</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C475" s="4"/>
+      <c r="D475" s="4"/>
+      <c r="E475" s="4"/>
+      <c r="F475" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G475" s="4"/>
+      <c r="H475" s="4"/>
+      <c r="I475" s="4"/>
+      <c r="J475" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K475" s="4">
+        <v>1480.0</v>
+      </c>
+      <c r="L475" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="M475" s="4"/>
+      <c r="N475" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="476" spans="1:14">
-      <c r="A476" t="s">
+      <c r="A476" s="4">
+        <v>1052847</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C476" s="4"/>
+      <c r="D476" s="4"/>
+      <c r="E476" s="4"/>
+      <c r="F476" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G476" s="4"/>
+      <c r="H476" s="4"/>
+      <c r="I476" s="4"/>
+      <c r="J476" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K476" s="4">
+        <v>138.0</v>
+      </c>
+      <c r="L476" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B476" t="s">
+      <c r="M476" s="4"/>
+      <c r="N476" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14">
+      <c r="A477" s="4">
+        <v>1899950</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C477" s="4"/>
+      <c r="D477" s="4"/>
+      <c r="E477" s="4"/>
+      <c r="F477" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G477" s="4"/>
+      <c r="H477" s="4"/>
+      <c r="I477" s="4"/>
+      <c r="J477" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K477" s="4">
+        <v>39.3</v>
+      </c>
+      <c r="L477" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="M477" s="4"/>
+      <c r="N477" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14">
+      <c r="A478" s="4">
+        <v>1899950</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C478" s="4"/>
+      <c r="D478" s="4"/>
+      <c r="E478" s="4"/>
+      <c r="F478" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G478" s="4"/>
+      <c r="H478" s="4"/>
+      <c r="I478" s="4"/>
+      <c r="J478" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K478" s="4">
+        <v>39.3</v>
+      </c>
+      <c r="L478" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="M478" s="4"/>
+      <c r="N478" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14">
+      <c r="A479" s="4">
+        <v>4143978</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C479" s="4"/>
+      <c r="D479" s="4"/>
+      <c r="E479" s="4"/>
+      <c r="F479" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G479" s="4"/>
+      <c r="H479" s="4"/>
+      <c r="I479" s="4"/>
+      <c r="J479" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K479" s="4">
+        <v>250.0</v>
+      </c>
+      <c r="L479" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="M479" s="4"/>
+      <c r="N479" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14">
+      <c r="A481" t="s">
         <v>306</v>
+      </c>
+      <c r="B481" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -16871,13 +17024,28 @@
     <mergeCell ref="B474:E474"/>
     <mergeCell ref="F474:I474"/>
     <mergeCell ref="L474:M474"/>
-    <mergeCell ref="B476:N476"/>
+    <mergeCell ref="B475:E475"/>
+    <mergeCell ref="F475:I475"/>
+    <mergeCell ref="L475:M475"/>
+    <mergeCell ref="B476:E476"/>
+    <mergeCell ref="F476:I476"/>
+    <mergeCell ref="L476:M476"/>
+    <mergeCell ref="B477:E477"/>
+    <mergeCell ref="F477:I477"/>
+    <mergeCell ref="L477:M477"/>
+    <mergeCell ref="B478:E478"/>
+    <mergeCell ref="F478:I478"/>
+    <mergeCell ref="L478:M478"/>
+    <mergeCell ref="B479:E479"/>
+    <mergeCell ref="F479:I479"/>
+    <mergeCell ref="L479:M479"/>
+    <mergeCell ref="B481:N481"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="73" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader>&amp;L2022-11-21 01:34:39&amp;C&amp;HECOMSOFT&amp;RTODOS</oddHeader>
+    <oddHeader>&amp;L2022-11-22 06:20:58&amp;C&amp;HECOMSOFT&amp;RTODOS</oddHeader>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
     <evenHeader/>
     <evenFooter/>

--- a/public/week_data.xlsx
+++ b/public/week_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>USUARIO ORLANDO BEJARANO FERNANDEZ</t>
   </si>
@@ -266,12 +266,12 @@
     <t>2022-10-15</t>
   </si>
   <si>
+    <t>MARISOL DANIELA RAMOS</t>
+  </si>
+  <si>
     <t>2022-10-17</t>
   </si>
   <si>
-    <t>MARISOL DANIELA RAMOS</t>
-  </si>
-  <si>
     <t>2022-10-18</t>
   </si>
   <si>
@@ -335,13 +335,34 @@
     <t>2022-12-05</t>
   </si>
   <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
     <t>JUANA ESTHER MICHEL CRUZ</t>
   </si>
   <si>
-    <t>2022-12-12</t>
-  </si>
-  <si>
     <t>2022-12-13</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>JUANA ANGELICA MENDIETA CARDONA</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>LIMBER RAYNARD GARNICA MEZZA</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>LISELDA MILENIA ROMERO ALARCON</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO COLODRO</t>
   </si>
   <si>
     <t xml:space="preserve">FILTRO: </t>
@@ -792,10 +813,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B112" sqref="B112"/>
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -832,14 +853,14 @@
         <v>7</v>
       </c>
       <c r="K6" s="4">
-        <v>74013.86</v>
+        <v>76343.96</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4">
-        <v>2330.1</v>
+        <v>8952.1</v>
       </c>
       <c r="N6" s="4">
-        <v>76343.96</v>
+        <v>85296.06</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1294,10 +1315,10 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="4">
-        <v>5784526</v>
+        <v>7217197</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1312,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="K23" s="4">
-        <v>498.1</v>
+        <v>950.0</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>31</v>
@@ -1324,10 +1345,10 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="4">
-        <v>7217197</v>
+        <v>5784526</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1342,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="K24" s="4">
-        <v>950.0</v>
+        <v>498.1</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>31</v>
@@ -2224,10 +2245,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="4">
-        <v>7143371</v>
+        <v>5787275</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2242,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="K54" s="4">
-        <v>287.47</v>
+        <v>1010.6</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>62</v>
@@ -2254,10 +2275,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="4">
-        <v>5787275</v>
+        <v>7143371</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -2272,7 +2293,7 @@
         <v>7</v>
       </c>
       <c r="K55" s="4">
-        <v>1010.6</v>
+        <v>287.47</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>62</v>
@@ -2584,10 +2605,10 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="4">
-        <v>7254095</v>
+        <v>7143371</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -2602,7 +2623,7 @@
         <v>7</v>
       </c>
       <c r="K66" s="4">
-        <v>185.1</v>
+        <v>287.47</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>76</v>
@@ -2614,10 +2635,10 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="4">
-        <v>7143371</v>
+        <v>7254095</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -2632,7 +2653,7 @@
         <v>7</v>
       </c>
       <c r="K67" s="4">
-        <v>287.47</v>
+        <v>185.1</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>76</v>
@@ -2824,10 +2845,10 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="4">
-        <v>7254095</v>
+        <v>7259089</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -2842,10 +2863,10 @@
         <v>7</v>
       </c>
       <c r="K74" s="4">
-        <v>185.1</v>
+        <v>818.38</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="6" t="s">
@@ -2854,10 +2875,10 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="4">
-        <v>7259089</v>
+        <v>7254095</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2872,10 +2893,10 @@
         <v>7</v>
       </c>
       <c r="K75" s="4">
-        <v>818.38</v>
+        <v>185.1</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="6" t="s">
@@ -2884,10 +2905,10 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="4">
-        <v>7143371</v>
+        <v>1899092</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -2902,7 +2923,7 @@
         <v>7</v>
       </c>
       <c r="K76" s="4">
-        <v>287.47</v>
+        <v>770.0</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>85</v>
@@ -2914,10 +2935,10 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="4">
-        <v>1899092</v>
+        <v>7143371</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -2932,7 +2953,7 @@
         <v>7</v>
       </c>
       <c r="K77" s="4">
-        <v>770.0</v>
+        <v>287.47</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>85</v>
@@ -3004,10 +3025,10 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="4">
-        <v>7259089</v>
+        <v>7254095</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3022,7 +3043,7 @@
         <v>7</v>
       </c>
       <c r="K80" s="4">
-        <v>818.38</v>
+        <v>185.1</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>88</v>
@@ -3034,10 +3055,10 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="4">
-        <v>7254095</v>
+        <v>7259089</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3052,7 +3073,7 @@
         <v>7</v>
       </c>
       <c r="K81" s="4">
-        <v>185.1</v>
+        <v>818.38</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>88</v>
@@ -3154,10 +3175,10 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="4">
-        <v>7259089</v>
+        <v>1899092</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3172,7 +3193,7 @@
         <v>7</v>
       </c>
       <c r="K85" s="4">
-        <v>818.38</v>
+        <v>770.0</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>91</v>
@@ -3184,10 +3205,10 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="4">
-        <v>7254095</v>
+        <v>7259089</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3202,7 +3223,7 @@
         <v>7</v>
       </c>
       <c r="K86" s="4">
-        <v>185.1</v>
+        <v>818.38</v>
       </c>
       <c r="L86" s="5" t="s">
         <v>91</v>
@@ -3214,10 +3235,10 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="4">
-        <v>1899092</v>
+        <v>7254095</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3232,7 +3253,7 @@
         <v>7</v>
       </c>
       <c r="K87" s="4">
-        <v>770.0</v>
+        <v>185.1</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>91</v>
@@ -3304,10 +3325,10 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="4">
-        <v>7254095</v>
+        <v>7259089</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3322,7 +3343,7 @@
         <v>7</v>
       </c>
       <c r="K90" s="4">
-        <v>185.1</v>
+        <v>818.38</v>
       </c>
       <c r="L90" s="5" t="s">
         <v>95</v>
@@ -3334,10 +3355,10 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="4">
-        <v>7259089</v>
+        <v>7254095</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3352,7 +3373,7 @@
         <v>7</v>
       </c>
       <c r="K91" s="4">
-        <v>818.38</v>
+        <v>185.1</v>
       </c>
       <c r="L91" s="5" t="s">
         <v>95</v>
@@ -3397,7 +3418,7 @@
         <v>7259089</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3454,10 +3475,10 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="4">
-        <v>1899092</v>
+        <v>5684823</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3472,7 +3493,7 @@
         <v>7</v>
       </c>
       <c r="K95" s="4">
-        <v>770.0</v>
+        <v>665.0</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>98</v>
@@ -3484,10 +3505,10 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="4">
-        <v>5684823</v>
+        <v>1899092</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3502,7 +3523,7 @@
         <v>7</v>
       </c>
       <c r="K96" s="4">
-        <v>665.0</v>
+        <v>770.0</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>98</v>
@@ -3574,10 +3595,10 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="4">
-        <v>7254095</v>
+        <v>7259089</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -3592,7 +3613,7 @@
         <v>7</v>
       </c>
       <c r="K99" s="4">
-        <v>185.1</v>
+        <v>818.38</v>
       </c>
       <c r="L99" s="5" t="s">
         <v>101</v>
@@ -3604,10 +3625,10 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="4">
-        <v>7259089</v>
+        <v>7254095</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -3622,7 +3643,7 @@
         <v>7</v>
       </c>
       <c r="K100" s="4">
-        <v>818.38</v>
+        <v>185.1</v>
       </c>
       <c r="L100" s="5" t="s">
         <v>101</v>
@@ -3697,7 +3718,7 @@
         <v>7259089</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -3784,10 +3805,10 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="4">
-        <v>7254095</v>
+        <v>7259089</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -3802,7 +3823,7 @@
         <v>7</v>
       </c>
       <c r="K106" s="4">
-        <v>185.1</v>
+        <v>818.38</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>105</v>
@@ -3814,10 +3835,10 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="4">
-        <v>7259089</v>
+        <v>7254095</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -3832,7 +3853,7 @@
         <v>7</v>
       </c>
       <c r="K107" s="4">
-        <v>818.38</v>
+        <v>185.1</v>
       </c>
       <c r="L107" s="5" t="s">
         <v>105</v>
@@ -3844,10 +3865,10 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="4">
-        <v>7103441</v>
+        <v>7254095</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -3862,22 +3883,22 @@
         <v>7</v>
       </c>
       <c r="K108" s="4">
-        <v>1480.0</v>
+        <v>185.1</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M108" s="4"/>
-      <c r="N108" s="7" t="s">
-        <v>5</v>
+      <c r="N108" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="4">
-        <v>7254095</v>
+        <v>7103441</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -3892,14 +3913,14 @@
         <v>7</v>
       </c>
       <c r="K109" s="4">
-        <v>185.1</v>
+        <v>1480.0</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M109" s="4"/>
-      <c r="N109" s="7" t="s">
-        <v>5</v>
+      <c r="N109" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -3928,15 +3949,165 @@
         <v>108</v>
       </c>
       <c r="M110" s="4"/>
-      <c r="N110" s="7" t="s">
+      <c r="N110" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="4">
+        <v>7254095</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K111" s="4">
+        <v>185.1</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M111" s="4"/>
+      <c r="N111" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" t="s">
-        <v>109</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="A112" s="4">
+        <v>5032867</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K112" s="4">
+        <v>390.0</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M112" s="4"/>
+      <c r="N112" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="4">
+        <v>5797560</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K113" s="4">
+        <v>320.0</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M113" s="4"/>
+      <c r="N113" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="4">
+        <v>7247912</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K114" s="4">
+        <v>8000.0</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M114" s="4"/>
+      <c r="N114" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="4">
+        <v>7190526</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K115" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M115" s="4"/>
+      <c r="N115" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4254,13 +4425,28 @@
     <mergeCell ref="B110:E110"/>
     <mergeCell ref="F110:I110"/>
     <mergeCell ref="L110:M110"/>
-    <mergeCell ref="B112:N112"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="B117:N117"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="73" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader>&amp;L2022-12-07 06:01:19&amp;C&amp;HECOMSOFT&amp;RDR. ORLANDO BEJARANO FERNANDEZ</oddHeader>
+    <oddHeader>&amp;L2022-12-15 10:47:17&amp;C&amp;HECOMSOFT&amp;RDR. ORLANDO BEJARANO FERNANDEZ</oddHeader>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
     <evenHeader/>
     <evenFooter/>
